--- a/db/budgie-sample-data.xlsx
+++ b/db/budgie-sample-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4920" yWindow="0" windowWidth="42000" windowHeight="25040" tabRatio="500"/>
+    <workbookView xWindow="6140" yWindow="0" windowWidth="42000" windowHeight="25040" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="budgie-sample-data.csv" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="251">
   <si>
     <t>Papua New Guinea</t>
   </si>
@@ -621,18 +621,6 @@
     <t>Missing Data</t>
   </si>
   <si>
-    <t>statutory authorities</t>
-  </si>
-  <si>
-    <t>provincial government</t>
-  </si>
-  <si>
-    <t>Statutory Authorities-Recurrent Spending</t>
-  </si>
-  <si>
-    <t>Statutory Authorities-Development Spending</t>
-  </si>
-  <si>
     <t>Provincial Government-Recurrent Spending</t>
   </si>
   <si>
@@ -787,6 +775,9 @@
   </si>
   <si>
     <t>Dept of Health</t>
+  </si>
+  <si>
+    <t>provinces</t>
   </si>
 </sst>
 </file>
@@ -1871,7 +1862,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="192">
+  <cellXfs count="190">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2306,7 +2297,6 @@
     </xf>
     <xf numFmtId="41" fontId="0" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
     <xf numFmtId="41" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="41" fontId="17" fillId="17" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
     <xf numFmtId="41" fontId="19" fillId="16" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2319,35 +2309,7 @@
     <xf numFmtId="41" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="4" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
     <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="17" fillId="17" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="19" fillId="16" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2360,6 +2322,33 @@
     <xf numFmtId="164" fontId="17" fillId="13" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="18" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="17" fillId="11" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
   </cellXfs>
   <cellStyles count="276">
     <cellStyle name="20% - Accent5" xfId="7" builtinId="46"/>
@@ -2997,10 +2986,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P144"/>
+  <dimension ref="A1:P138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -3018,34 +3007,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="170" t="s">
+      <c r="A1" s="169" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="170" t="s">
+      <c r="B1" s="169" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="170" t="s">
+      <c r="C1" s="169" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="170" t="s">
+      <c r="D1" s="169" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="170" t="s">
-        <v>252</v>
-      </c>
-      <c r="F1" s="170" t="s">
+      <c r="E1" s="169" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1" s="169" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="170" t="s">
+      <c r="G1" s="169" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="170" t="s">
+      <c r="H1" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="170" t="s">
+      <c r="I1" s="169" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="170" t="s">
+      <c r="J1" s="169" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3059,7 +3048,7 @@
       <c r="C2" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="180">
+      <c r="D2" s="170">
         <v>6105498</v>
       </c>
       <c r="E2" s="159"/>
@@ -3077,7 +3066,7 @@
       <c r="C3" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="180">
+      <c r="D3" s="170">
         <v>3345726</v>
       </c>
       <c r="E3" s="159"/>
@@ -3095,7 +3084,7 @@
       <c r="C4" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="180">
+      <c r="D4" s="170">
         <v>6122726</v>
       </c>
       <c r="E4" s="159"/>
@@ -3113,7 +3102,7 @@
       <c r="C5" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="180">
+      <c r="D5" s="170">
         <v>4230681</v>
       </c>
       <c r="E5" s="159"/>
@@ -3131,7 +3120,7 @@
       <c r="C6" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="180">
+      <c r="D6" s="170">
         <v>7235047</v>
       </c>
       <c r="E6" s="159"/>
@@ -3149,7 +3138,7 @@
       <c r="C7" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="180">
+      <c r="D7" s="170">
         <v>5795842</v>
       </c>
       <c r="E7" s="159"/>
@@ -3158,494 +3147,518 @@
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="107" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="107">
+      <c r="A8" s="108" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="108">
         <v>2011</v>
       </c>
-      <c r="C8" s="107" t="s">
+      <c r="C8" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="181">
-        <v>325408</v>
-      </c>
-      <c r="E8" s="160"/>
-      <c r="F8" s="107" t="s">
+      <c r="D8" s="171">
+        <v>1318411</v>
+      </c>
+      <c r="E8" s="160" t="s">
+        <v>250</v>
+      </c>
+      <c r="F8" s="108"/>
+      <c r="G8" s="107"/>
+      <c r="H8" s="108" t="s">
         <v>198</v>
       </c>
-      <c r="G8" s="107"/>
-      <c r="H8" s="107" t="s">
-        <v>200</v>
-      </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="107" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="107">
+      <c r="A9" s="108" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="108">
         <v>2011</v>
       </c>
-      <c r="C9" s="107" t="s">
+      <c r="C9" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="181">
-        <v>371202</v>
-      </c>
-      <c r="E9" s="160"/>
-      <c r="F9" s="107" t="s">
+      <c r="D9" s="171">
+        <v>313140</v>
+      </c>
+      <c r="E9" s="160" t="s">
+        <v>250</v>
+      </c>
+      <c r="F9" s="108"/>
+      <c r="G9" s="107"/>
+      <c r="H9" s="108" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="108" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="108">
+        <v>2012</v>
+      </c>
+      <c r="C10" s="108" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="171">
+        <v>1304374</v>
+      </c>
+      <c r="E10" s="160" t="s">
+        <v>250</v>
+      </c>
+      <c r="F10" s="108"/>
+      <c r="G10" s="107"/>
+      <c r="H10" s="108" t="s">
         <v>198</v>
       </c>
-      <c r="G9" s="107"/>
-      <c r="H9" s="107" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="107" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="107">
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="108" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="108">
         <v>2012</v>
       </c>
-      <c r="C10" s="107" t="s">
+      <c r="C11" s="108" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="171">
+        <v>365104</v>
+      </c>
+      <c r="E11" s="160" t="s">
+        <v>250</v>
+      </c>
+      <c r="F11" s="108"/>
+      <c r="G11" s="107"/>
+      <c r="H11" s="108" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="108" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="108">
+        <v>2013</v>
+      </c>
+      <c r="C12" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="181">
-        <v>360715</v>
-      </c>
-      <c r="E10" s="160"/>
-      <c r="F10" s="107" t="s">
+      <c r="D12" s="171">
+        <v>1501457</v>
+      </c>
+      <c r="E12" s="160" t="s">
+        <v>250</v>
+      </c>
+      <c r="F12" s="108"/>
+      <c r="G12" s="107"/>
+      <c r="H12" s="108" t="s">
         <v>198</v>
       </c>
-      <c r="G10" s="107"/>
-      <c r="H10" s="107" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="107" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="107">
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="108" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="108">
+        <v>2013</v>
+      </c>
+      <c r="C13" s="108" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="171">
+        <v>1955953</v>
+      </c>
+      <c r="E13" s="160" t="s">
+        <v>250</v>
+      </c>
+      <c r="F13" s="108"/>
+      <c r="G13" s="107"/>
+      <c r="H13" s="108" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="109" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="109">
+        <v>2011</v>
+      </c>
+      <c r="C14" s="109" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="172">
+        <v>253569</v>
+      </c>
+      <c r="E14" s="161" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="109" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="161"/>
+      <c r="H14" s="109" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="109" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="109">
+        <v>2011</v>
+      </c>
+      <c r="C15" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="172">
+        <v>219874</v>
+      </c>
+      <c r="E15" s="161" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="109" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="161"/>
+      <c r="H15" s="109" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="109" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="109">
         <v>2012</v>
       </c>
-      <c r="C11" s="107" t="s">
+      <c r="C16" s="109" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="172">
+        <v>272148</v>
+      </c>
+      <c r="E16" s="161" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="109" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="161"/>
+      <c r="H16" s="109" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="109" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="109">
+        <v>2012</v>
+      </c>
+      <c r="C17" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="181">
-        <v>975165</v>
-      </c>
-      <c r="E11" s="160"/>
-      <c r="F11" s="107" t="s">
-        <v>198</v>
-      </c>
-      <c r="G11" s="107"/>
-      <c r="H11" s="107" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="107" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="107">
+      <c r="D17" s="172">
+        <v>265367</v>
+      </c>
+      <c r="E17" s="161" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="109" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="161"/>
+      <c r="H17" s="109" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="109" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="109">
         <v>2013</v>
       </c>
-      <c r="C12" s="107" t="s">
+      <c r="C18" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="181">
-        <v>380648</v>
-      </c>
-      <c r="E12" s="160"/>
-      <c r="F12" s="107" t="s">
-        <v>198</v>
-      </c>
-      <c r="G12" s="107"/>
-      <c r="H12" s="107" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="107" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="107">
+      <c r="D18" s="172">
+        <v>275641</v>
+      </c>
+      <c r="E18" s="161" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="109" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="161"/>
+      <c r="H18" s="109" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="109" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="109">
         <v>2013</v>
       </c>
-      <c r="C13" s="107" t="s">
+      <c r="C19" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="181">
-        <v>994672</v>
-      </c>
-      <c r="E13" s="160"/>
-      <c r="F13" s="107" t="s">
-        <v>198</v>
-      </c>
-      <c r="G13" s="107"/>
-      <c r="H13" s="107" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="108" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="108">
+      <c r="D19" s="172">
+        <v>190923</v>
+      </c>
+      <c r="E19" s="161" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="109" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="161"/>
+      <c r="H19" s="109" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="163" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="163">
         <v>2011</v>
       </c>
-      <c r="C14" s="108" t="s">
+      <c r="C20" s="163" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="182">
-        <v>1318411</v>
-      </c>
-      <c r="E14" s="161"/>
-      <c r="F14" s="108" t="s">
-        <v>199</v>
-      </c>
-      <c r="G14" s="107"/>
-      <c r="H14" s="108" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="108" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="108">
+      <c r="D20" s="173">
+        <v>3423.1</v>
+      </c>
+      <c r="E20" s="161" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="163" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="163" t="s">
+        <v>223</v>
+      </c>
+      <c r="H20" s="112" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="163" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="163">
         <v>2011</v>
       </c>
-      <c r="C15" s="108" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="182">
-        <v>313140</v>
-      </c>
-      <c r="E15" s="161"/>
-      <c r="F15" s="108" t="s">
-        <v>199</v>
-      </c>
-      <c r="G15" s="107"/>
-      <c r="H15" s="108" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="108" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="108">
-        <v>2012</v>
-      </c>
-      <c r="C16" s="108" t="s">
+      <c r="C21" s="163" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="182">
-        <v>1304374</v>
-      </c>
-      <c r="E16" s="161"/>
-      <c r="F16" s="108" t="s">
-        <v>199</v>
-      </c>
-      <c r="G16" s="107"/>
-      <c r="H16" s="108" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="108" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="108">
-        <v>2012</v>
-      </c>
-      <c r="C17" s="108" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="182">
-        <v>365104</v>
-      </c>
-      <c r="E17" s="161"/>
-      <c r="F17" s="108" t="s">
-        <v>199</v>
-      </c>
-      <c r="G17" s="107"/>
-      <c r="H17" s="108" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="108" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="108">
-        <v>2013</v>
-      </c>
-      <c r="C18" s="108" t="s">
+      <c r="D21" s="173">
+        <v>784.7</v>
+      </c>
+      <c r="E21" s="161" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="163" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="163" t="s">
+        <v>224</v>
+      </c>
+      <c r="H21" s="112" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="163" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="163">
+        <v>2011</v>
+      </c>
+      <c r="C22" s="163" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="182">
-        <v>1501457</v>
-      </c>
-      <c r="E18" s="161"/>
-      <c r="F18" s="108" t="s">
-        <v>199</v>
-      </c>
-      <c r="G18" s="107"/>
-      <c r="H18" s="108" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="108" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="108">
-        <v>2013</v>
-      </c>
-      <c r="C19" s="108" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="182">
-        <v>1955953</v>
-      </c>
-      <c r="E19" s="161"/>
-      <c r="F19" s="108" t="s">
-        <v>199</v>
-      </c>
-      <c r="G19" s="107"/>
-      <c r="H19" s="108" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="109">
+      <c r="D22" s="173">
+        <v>1993.6</v>
+      </c>
+      <c r="E22" s="161" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="163" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="163" t="s">
+        <v>225</v>
+      </c>
+      <c r="H22" s="112" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="163" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="163">
         <v>2011</v>
       </c>
-      <c r="C20" s="109" t="s">
+      <c r="C23" s="163" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="183">
-        <v>253569</v>
-      </c>
-      <c r="E20" s="162" t="s">
+      <c r="D23" s="173">
+        <v>1033.0999999999999</v>
+      </c>
+      <c r="E23" s="161" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="109" t="s">
+      <c r="F23" s="163" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="162"/>
-      <c r="H20" s="109" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="109">
+      <c r="G23" s="163" t="s">
+        <v>226</v>
+      </c>
+      <c r="H23" s="112" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="163" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="163">
         <v>2011</v>
       </c>
-      <c r="C21" s="109" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="183">
-        <v>219874</v>
-      </c>
-      <c r="E21" s="162" t="s">
+      <c r="C24" s="163" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="173">
+        <v>25527.3</v>
+      </c>
+      <c r="E24" s="161" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="109" t="s">
+      <c r="F24" s="163" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="162"/>
-      <c r="H21" s="109" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="109">
-        <v>2012</v>
-      </c>
-      <c r="C22" s="109" t="s">
+      <c r="G24" s="163" t="s">
+        <v>227</v>
+      </c>
+      <c r="H24" s="112" t="s">
+        <v>192</v>
+      </c>
+      <c r="K24" s="162"/>
+      <c r="L24" s="162"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="163" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="163">
+        <v>2011</v>
+      </c>
+      <c r="C25" s="163" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="183">
-        <v>272148</v>
-      </c>
-      <c r="E22" s="162" t="s">
+      <c r="D25" s="173">
+        <v>159912.70000000001</v>
+      </c>
+      <c r="E25" s="161" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="109" t="s">
+      <c r="F25" s="163" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="162"/>
-      <c r="H22" s="109" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="109">
-        <v>2012</v>
-      </c>
-      <c r="C23" s="109" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="183">
-        <v>265367</v>
-      </c>
-      <c r="E23" s="162" t="s">
+      <c r="G25" s="163" t="s">
+        <v>228</v>
+      </c>
+      <c r="H25" s="112" t="s">
+        <v>193</v>
+      </c>
+      <c r="K25" s="162"/>
+      <c r="L25" s="162"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="163" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="163">
+        <v>2011</v>
+      </c>
+      <c r="C26" s="163" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="173">
+        <v>33364.400000000001</v>
+      </c>
+      <c r="E26" s="161" t="s">
         <v>13</v>
       </c>
-      <c r="F23" s="109" t="s">
+      <c r="F26" s="163" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="162"/>
-      <c r="H23" s="109" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="109">
-        <v>2013</v>
-      </c>
-      <c r="C24" s="109" t="s">
+      <c r="G26" s="163" t="s">
+        <v>229</v>
+      </c>
+      <c r="H26" s="112" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="163" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="163">
+        <v>2011</v>
+      </c>
+      <c r="C27" s="163" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="183">
-        <v>275641</v>
-      </c>
-      <c r="E24" s="162" t="s">
+      <c r="D27" s="173">
+        <v>23911.9</v>
+      </c>
+      <c r="E27" s="161" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="109" t="s">
+      <c r="F27" s="163" t="s">
         <v>13</v>
       </c>
-      <c r="G24" s="162"/>
-      <c r="H24" s="109" t="s">
-        <v>253</v>
-      </c>
-      <c r="K24" s="163"/>
-      <c r="L24" s="163"/>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" s="109">
-        <v>2013</v>
-      </c>
-      <c r="C25" s="109" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="183">
-        <v>190923</v>
-      </c>
-      <c r="E25" s="162" t="s">
+      <c r="G27" s="163" t="s">
+        <v>230</v>
+      </c>
+      <c r="H27" s="112" t="s">
+        <v>194</v>
+      </c>
+      <c r="L27" s="162"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="163" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="163">
+        <v>2011</v>
+      </c>
+      <c r="C28" s="163" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="173">
+        <v>3618.2</v>
+      </c>
+      <c r="E28" s="161" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="109" t="s">
+      <c r="F28" s="163" t="s">
         <v>13</v>
       </c>
-      <c r="G25" s="162"/>
-      <c r="H25" s="109" t="s">
-        <v>253</v>
-      </c>
-      <c r="K25" s="163"/>
-      <c r="L25" s="163"/>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="164" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="164">
-        <v>2011</v>
-      </c>
-      <c r="C26" s="164" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="184">
-        <v>3423.1</v>
-      </c>
-      <c r="E26" s="162" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" s="164" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" s="164" t="s">
-        <v>227</v>
-      </c>
-      <c r="H26" s="112" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="164" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="164">
-        <v>2011</v>
-      </c>
-      <c r="C27" s="164" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="184">
-        <v>784.7</v>
-      </c>
-      <c r="E27" s="162" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="164" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="164" t="s">
-        <v>228</v>
-      </c>
-      <c r="H27" s="112" t="s">
-        <v>189</v>
-      </c>
-      <c r="L27" s="163"/>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="164" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="164">
-        <v>2011</v>
-      </c>
-      <c r="C28" s="164" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="184">
-        <v>1993.6</v>
-      </c>
-      <c r="E28" s="162" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" s="164" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" s="164" t="s">
-        <v>229</v>
+      <c r="G28" s="163" t="s">
+        <v>231</v>
       </c>
       <c r="H28" s="112" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -3653,25 +3666,25 @@
         <v>0</v>
       </c>
       <c r="B29" s="164">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C29" s="164" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="184">
-        <v>1033.0999999999999</v>
-      </c>
-      <c r="E29" s="162" t="s">
+      <c r="D29" s="174">
+        <v>8113.4</v>
+      </c>
+      <c r="E29" s="161" t="s">
         <v>13</v>
       </c>
       <c r="F29" s="164" t="s">
         <v>13</v>
       </c>
       <c r="G29" s="164" t="s">
-        <v>230</v>
-      </c>
-      <c r="H29" s="112" t="s">
-        <v>191</v>
+        <v>223</v>
+      </c>
+      <c r="H29" s="113" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -3679,25 +3692,25 @@
         <v>0</v>
       </c>
       <c r="B30" s="164">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C30" s="164" t="s">
         <v>9</v>
       </c>
-      <c r="D30" s="184">
-        <v>25527.3</v>
-      </c>
-      <c r="E30" s="162" t="s">
+      <c r="D30" s="174">
+        <v>1100.7</v>
+      </c>
+      <c r="E30" s="161" t="s">
         <v>13</v>
       </c>
       <c r="F30" s="164" t="s">
         <v>13</v>
       </c>
       <c r="G30" s="164" t="s">
-        <v>231</v>
-      </c>
-      <c r="H30" s="112" t="s">
-        <v>192</v>
+        <v>224</v>
+      </c>
+      <c r="H30" s="113" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -3705,25 +3718,25 @@
         <v>0</v>
       </c>
       <c r="B31" s="164">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C31" s="164" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="184">
-        <v>159912.70000000001</v>
-      </c>
-      <c r="E31" s="162" t="s">
+      <c r="D31" s="174">
+        <v>3389.8</v>
+      </c>
+      <c r="E31" s="161" t="s">
         <v>13</v>
       </c>
       <c r="F31" s="164" t="s">
         <v>13</v>
       </c>
       <c r="G31" s="164" t="s">
-        <v>232</v>
-      </c>
-      <c r="H31" s="112" t="s">
-        <v>193</v>
+        <v>225</v>
+      </c>
+      <c r="H31" s="113" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -3731,25 +3744,25 @@
         <v>0</v>
       </c>
       <c r="B32" s="164">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C32" s="164" t="s">
         <v>9</v>
       </c>
-      <c r="D32" s="184">
-        <v>33364.400000000001</v>
-      </c>
-      <c r="E32" s="162" t="s">
+      <c r="D32" s="174">
+        <v>1137.8</v>
+      </c>
+      <c r="E32" s="161" t="s">
         <v>13</v>
       </c>
       <c r="F32" s="164" t="s">
         <v>13</v>
       </c>
       <c r="G32" s="164" t="s">
-        <v>233</v>
-      </c>
-      <c r="H32" s="112" t="s">
-        <v>181</v>
+        <v>226</v>
+      </c>
+      <c r="H32" s="113" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -3757,25 +3770,25 @@
         <v>0</v>
       </c>
       <c r="B33" s="164">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C33" s="164" t="s">
         <v>9</v>
       </c>
-      <c r="D33" s="184">
-        <v>23911.9</v>
-      </c>
-      <c r="E33" s="162" t="s">
+      <c r="D33" s="174">
+        <v>27042.6</v>
+      </c>
+      <c r="E33" s="161" t="s">
         <v>13</v>
       </c>
       <c r="F33" s="164" t="s">
         <v>13</v>
       </c>
       <c r="G33" s="164" t="s">
-        <v>234</v>
-      </c>
-      <c r="H33" s="112" t="s">
-        <v>194</v>
+        <v>227</v>
+      </c>
+      <c r="H33" s="113" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -3783,103 +3796,103 @@
         <v>0</v>
       </c>
       <c r="B34" s="164">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C34" s="164" t="s">
         <v>9</v>
       </c>
-      <c r="D34" s="184">
-        <v>3618.2</v>
-      </c>
-      <c r="E34" s="162" t="s">
+      <c r="D34" s="174">
+        <v>161607.9</v>
+      </c>
+      <c r="E34" s="161" t="s">
         <v>13</v>
       </c>
       <c r="F34" s="164" t="s">
         <v>13</v>
       </c>
       <c r="G34" s="164" t="s">
-        <v>235</v>
-      </c>
-      <c r="H34" s="112" t="s">
+        <v>228</v>
+      </c>
+      <c r="H34" s="113" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="164" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="164">
+        <v>2012</v>
+      </c>
+      <c r="C35" s="164" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="174">
+        <v>25549.5</v>
+      </c>
+      <c r="E35" s="161" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="164" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="164" t="s">
+        <v>229</v>
+      </c>
+      <c r="H35" s="113" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="164" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="164">
+        <v>2012</v>
+      </c>
+      <c r="C36" s="164" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="174">
+        <v>39005.1</v>
+      </c>
+      <c r="E36" s="161" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="164" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" s="164" t="s">
+        <v>230</v>
+      </c>
+      <c r="H36" s="113" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="164" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="164">
+        <v>2012</v>
+      </c>
+      <c r="C37" s="164" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="174">
+        <v>5200.8</v>
+      </c>
+      <c r="E37" s="161" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="164" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" s="164" t="s">
+        <v>231</v>
+      </c>
+      <c r="H37" s="113" t="s">
         <v>195</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="165" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" s="165">
-        <v>2012</v>
-      </c>
-      <c r="C35" s="165" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="185">
-        <v>8113.4</v>
-      </c>
-      <c r="E35" s="162" t="s">
-        <v>13</v>
-      </c>
-      <c r="F35" s="165" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" s="165" t="s">
-        <v>227</v>
-      </c>
-      <c r="H35" s="113" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="165" t="s">
-        <v>0</v>
-      </c>
-      <c r="B36" s="165">
-        <v>2012</v>
-      </c>
-      <c r="C36" s="165" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="185">
-        <v>1100.7</v>
-      </c>
-      <c r="E36" s="162" t="s">
-        <v>13</v>
-      </c>
-      <c r="F36" s="165" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" s="165" t="s">
-        <v>228</v>
-      </c>
-      <c r="H36" s="113" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="165" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" s="165">
-        <v>2012</v>
-      </c>
-      <c r="C37" s="165" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="185">
-        <v>3389.8</v>
-      </c>
-      <c r="E37" s="162" t="s">
-        <v>13</v>
-      </c>
-      <c r="F37" s="165" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" s="165" t="s">
-        <v>229</v>
-      </c>
-      <c r="H37" s="113" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3887,25 +3900,25 @@
         <v>0</v>
       </c>
       <c r="B38" s="165">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C38" s="165" t="s">
         <v>9</v>
       </c>
-      <c r="D38" s="185">
-        <v>1137.8</v>
-      </c>
-      <c r="E38" s="162" t="s">
+      <c r="D38" s="175">
+        <v>7232.8</v>
+      </c>
+      <c r="E38" s="161" t="s">
         <v>13</v>
       </c>
       <c r="F38" s="165" t="s">
         <v>13</v>
       </c>
       <c r="G38" s="165" t="s">
-        <v>230</v>
-      </c>
-      <c r="H38" s="113" t="s">
-        <v>191</v>
+        <v>223</v>
+      </c>
+      <c r="H38" s="114" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3913,25 +3926,25 @@
         <v>0</v>
       </c>
       <c r="B39" s="165">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C39" s="165" t="s">
         <v>9</v>
       </c>
-      <c r="D39" s="185">
-        <v>27042.6</v>
-      </c>
-      <c r="E39" s="162" t="s">
+      <c r="D39" s="175">
+        <v>1208.7</v>
+      </c>
+      <c r="E39" s="161" t="s">
         <v>13</v>
       </c>
       <c r="F39" s="165" t="s">
         <v>13</v>
       </c>
       <c r="G39" s="165" t="s">
-        <v>231</v>
-      </c>
-      <c r="H39" s="113" t="s">
-        <v>192</v>
+        <v>224</v>
+      </c>
+      <c r="H39" s="114" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3939,25 +3952,25 @@
         <v>0</v>
       </c>
       <c r="B40" s="165">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C40" s="165" t="s">
         <v>9</v>
       </c>
-      <c r="D40" s="185">
-        <v>161607.9</v>
-      </c>
-      <c r="E40" s="162" t="s">
+      <c r="D40" s="175">
+        <v>3016.4</v>
+      </c>
+      <c r="E40" s="161" t="s">
         <v>13</v>
       </c>
       <c r="F40" s="165" t="s">
         <v>13</v>
       </c>
       <c r="G40" s="165" t="s">
-        <v>232</v>
-      </c>
-      <c r="H40" s="113" t="s">
-        <v>193</v>
+        <v>225</v>
+      </c>
+      <c r="H40" s="114" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3965,25 +3978,25 @@
         <v>0</v>
       </c>
       <c r="B41" s="165">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C41" s="165" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="185">
-        <v>25549.5</v>
-      </c>
-      <c r="E41" s="162" t="s">
+      <c r="D41" s="175">
+        <v>1051.8</v>
+      </c>
+      <c r="E41" s="161" t="s">
         <v>13</v>
       </c>
       <c r="F41" s="165" t="s">
         <v>13</v>
       </c>
       <c r="G41" s="165" t="s">
-        <v>233</v>
-      </c>
-      <c r="H41" s="113" t="s">
-        <v>181</v>
+        <v>226</v>
+      </c>
+      <c r="H41" s="114" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3991,25 +4004,25 @@
         <v>0</v>
       </c>
       <c r="B42" s="165">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C42" s="165" t="s">
         <v>9</v>
       </c>
-      <c r="D42" s="185">
-        <v>39005.1</v>
-      </c>
-      <c r="E42" s="162" t="s">
+      <c r="D42" s="175">
+        <v>27715.1</v>
+      </c>
+      <c r="E42" s="161" t="s">
         <v>13</v>
       </c>
       <c r="F42" s="165" t="s">
         <v>13</v>
       </c>
       <c r="G42" s="165" t="s">
-        <v>234</v>
-      </c>
-      <c r="H42" s="113" t="s">
-        <v>194</v>
+        <v>227</v>
+      </c>
+      <c r="H42" s="114" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -4017,361 +4030,355 @@
         <v>0</v>
       </c>
       <c r="B43" s="165">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C43" s="165" t="s">
         <v>9</v>
       </c>
-      <c r="D43" s="185">
-        <v>5200.8</v>
-      </c>
-      <c r="E43" s="162" t="s">
+      <c r="D43" s="175">
+        <v>164695.4</v>
+      </c>
+      <c r="E43" s="161" t="s">
         <v>13</v>
       </c>
       <c r="F43" s="165" t="s">
         <v>13</v>
       </c>
       <c r="G43" s="165" t="s">
+        <v>228</v>
+      </c>
+      <c r="H43" s="114" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="165" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" s="165">
+        <v>2013</v>
+      </c>
+      <c r="C44" s="165" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="175">
+        <v>24205.8</v>
+      </c>
+      <c r="E44" s="161" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" s="165" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44" s="165" t="s">
+        <v>229</v>
+      </c>
+      <c r="H44" s="114" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="165" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" s="165">
+        <v>2013</v>
+      </c>
+      <c r="C45" s="165" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="175">
+        <v>33220</v>
+      </c>
+      <c r="E45" s="161" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" s="165" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" s="165" t="s">
+        <v>230</v>
+      </c>
+      <c r="H45" s="114" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="165" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="165">
+        <v>2014</v>
+      </c>
+      <c r="C46" s="165" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="175">
+        <v>13295.2</v>
+      </c>
+      <c r="E46" s="161" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46" s="165" t="s">
+        <v>13</v>
+      </c>
+      <c r="G46" s="165" t="s">
+        <v>231</v>
+      </c>
+      <c r="H46" s="114" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="163" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="163">
+        <v>2011</v>
+      </c>
+      <c r="C47" s="163" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="173">
+        <v>7329.6</v>
+      </c>
+      <c r="E47" s="161" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" s="163" t="s">
+        <v>13</v>
+      </c>
+      <c r="G47" s="163" t="s">
+        <v>232</v>
+      </c>
+      <c r="H47" s="112" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="163" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" s="163">
+        <v>2011</v>
+      </c>
+      <c r="C48" s="163" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="173">
+        <v>13489.9</v>
+      </c>
+      <c r="E48" s="161" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" s="163" t="s">
+        <v>13</v>
+      </c>
+      <c r="G48" s="163" t="s">
+        <v>233</v>
+      </c>
+      <c r="H48" s="112" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="163" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" s="163">
+        <v>2011</v>
+      </c>
+      <c r="C49" s="163" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" s="173"/>
+      <c r="E49" s="161" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" s="163" t="s">
+        <v>13</v>
+      </c>
+      <c r="G49" s="163" t="s">
+        <v>234</v>
+      </c>
+      <c r="H49" s="112" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="163" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" s="163">
+        <v>2011</v>
+      </c>
+      <c r="C50" s="163" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="173">
+        <v>4182.6000000000004</v>
+      </c>
+      <c r="E50" s="161" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" s="163" t="s">
+        <v>13</v>
+      </c>
+      <c r="G50" s="163" t="s">
         <v>235</v>
       </c>
-      <c r="H43" s="113" t="s">
+      <c r="H50" s="112" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="163" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="163">
+        <v>2011</v>
+      </c>
+      <c r="C51" s="163" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="173"/>
+      <c r="E51" s="161" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" s="163" t="s">
+        <v>13</v>
+      </c>
+      <c r="G51" s="163" t="s">
+        <v>236</v>
+      </c>
+      <c r="H51" s="112" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="163" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="163">
+        <v>2011</v>
+      </c>
+      <c r="C52" s="163" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" s="173"/>
+      <c r="E52" s="161" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" s="163" t="s">
+        <v>13</v>
+      </c>
+      <c r="G52" s="163" t="s">
+        <v>237</v>
+      </c>
+      <c r="H52" s="112" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="163" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" s="163">
+        <v>2011</v>
+      </c>
+      <c r="C53" s="163" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="173">
+        <v>665</v>
+      </c>
+      <c r="E53" s="161" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" s="163" t="s">
+        <v>13</v>
+      </c>
+      <c r="G53" s="163" t="s">
+        <v>238</v>
+      </c>
+      <c r="H53" s="112" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="166" t="s">
-        <v>0</v>
-      </c>
-      <c r="B44" s="166">
-        <v>2013</v>
-      </c>
-      <c r="C44" s="166" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="186">
-        <v>7232.8</v>
-      </c>
-      <c r="E44" s="162" t="s">
+    <row r="54" spans="1:8">
+      <c r="A54" s="163" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" s="163">
+        <v>2011</v>
+      </c>
+      <c r="C54" s="163" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" s="173">
+        <v>4443.3999999999996</v>
+      </c>
+      <c r="E54" s="161" t="s">
         <v>13</v>
       </c>
-      <c r="F44" s="166" t="s">
+      <c r="F54" s="163" t="s">
         <v>13</v>
       </c>
-      <c r="G44" s="166" t="s">
-        <v>227</v>
-      </c>
-      <c r="H44" s="114" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="166" t="s">
-        <v>0</v>
-      </c>
-      <c r="B45" s="166">
-        <v>2013</v>
-      </c>
-      <c r="C45" s="166" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" s="186">
-        <v>1208.7</v>
-      </c>
-      <c r="E45" s="162" t="s">
+      <c r="G54" s="163" t="s">
+        <v>239</v>
+      </c>
+      <c r="H54" s="112" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="163" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" s="163">
+        <v>2011</v>
+      </c>
+      <c r="C55" s="163" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" s="173"/>
+      <c r="E55" s="161" t="s">
         <v>13</v>
       </c>
-      <c r="F45" s="166" t="s">
+      <c r="F55" s="163" t="s">
         <v>13</v>
       </c>
-      <c r="G45" s="166" t="s">
-        <v>228</v>
-      </c>
-      <c r="H45" s="114" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="166" t="s">
-        <v>0</v>
-      </c>
-      <c r="B46" s="166">
-        <v>2013</v>
-      </c>
-      <c r="C46" s="166" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="186">
-        <v>3016.4</v>
-      </c>
-      <c r="E46" s="162" t="s">
+      <c r="G55" s="163" t="s">
+        <v>240</v>
+      </c>
+      <c r="H55" s="112" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="166" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" s="166">
+        <v>2012</v>
+      </c>
+      <c r="C56" s="166" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" s="176">
+        <v>189764</v>
+      </c>
+      <c r="E56" s="161" t="s">
         <v>13</v>
       </c>
-      <c r="F46" s="166" t="s">
+      <c r="F56" s="166" t="s">
         <v>13</v>
       </c>
-      <c r="G46" s="166" t="s">
-        <v>229</v>
-      </c>
-      <c r="H46" s="114" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="166" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" s="166">
-        <v>2013</v>
-      </c>
-      <c r="C47" s="166" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="186">
-        <v>1051.8</v>
-      </c>
-      <c r="E47" s="162" t="s">
-        <v>13</v>
-      </c>
-      <c r="F47" s="166" t="s">
-        <v>13</v>
-      </c>
-      <c r="G47" s="166" t="s">
-        <v>230</v>
-      </c>
-      <c r="H47" s="114" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="166" t="s">
-        <v>0</v>
-      </c>
-      <c r="B48" s="166">
-        <v>2013</v>
-      </c>
-      <c r="C48" s="166" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="186">
-        <v>27715.1</v>
-      </c>
-      <c r="E48" s="162" t="s">
-        <v>13</v>
-      </c>
-      <c r="F48" s="166" t="s">
-        <v>13</v>
-      </c>
-      <c r="G48" s="166" t="s">
-        <v>231</v>
-      </c>
-      <c r="H48" s="114" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="166" t="s">
-        <v>0</v>
-      </c>
-      <c r="B49" s="166">
-        <v>2013</v>
-      </c>
-      <c r="C49" s="166" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="186">
-        <v>164695.4</v>
-      </c>
-      <c r="E49" s="162" t="s">
-        <v>13</v>
-      </c>
-      <c r="F49" s="166" t="s">
-        <v>13</v>
-      </c>
-      <c r="G49" s="166" t="s">
-        <v>232</v>
-      </c>
-      <c r="H49" s="114" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="166" t="s">
-        <v>0</v>
-      </c>
-      <c r="B50" s="166">
-        <v>2013</v>
-      </c>
-      <c r="C50" s="166" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="186">
-        <v>24205.8</v>
-      </c>
-      <c r="E50" s="162" t="s">
-        <v>13</v>
-      </c>
-      <c r="F50" s="166" t="s">
-        <v>13</v>
-      </c>
-      <c r="G50" s="166" t="s">
-        <v>233</v>
-      </c>
-      <c r="H50" s="114" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="166" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51" s="166">
-        <v>2013</v>
-      </c>
-      <c r="C51" s="166" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="186">
-        <v>33220</v>
-      </c>
-      <c r="E51" s="162" t="s">
-        <v>13</v>
-      </c>
-      <c r="F51" s="166" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51" s="166" t="s">
-        <v>234</v>
-      </c>
-      <c r="H51" s="114" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="166" t="s">
-        <v>0</v>
-      </c>
-      <c r="B52" s="166">
-        <v>2014</v>
-      </c>
-      <c r="C52" s="166" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" s="186">
-        <v>13295.2</v>
-      </c>
-      <c r="E52" s="162" t="s">
-        <v>13</v>
-      </c>
-      <c r="F52" s="166" t="s">
-        <v>13</v>
-      </c>
-      <c r="G52" s="166" t="s">
-        <v>235</v>
-      </c>
-      <c r="H52" s="114" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" s="164" t="s">
-        <v>0</v>
-      </c>
-      <c r="B53" s="164">
-        <v>2011</v>
-      </c>
-      <c r="C53" s="164" t="s">
-        <v>8</v>
-      </c>
-      <c r="D53" s="184">
-        <v>7329.6</v>
-      </c>
-      <c r="E53" s="162" t="s">
-        <v>13</v>
-      </c>
-      <c r="F53" s="164" t="s">
-        <v>13</v>
-      </c>
-      <c r="G53" s="164" t="s">
-        <v>236</v>
-      </c>
-      <c r="H53" s="112" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="A54" s="164" t="s">
-        <v>0</v>
-      </c>
-      <c r="B54" s="164">
-        <v>2011</v>
-      </c>
-      <c r="C54" s="164" t="s">
-        <v>8</v>
-      </c>
-      <c r="D54" s="184">
-        <v>13489.9</v>
-      </c>
-      <c r="E54" s="162" t="s">
-        <v>13</v>
-      </c>
-      <c r="F54" s="164" t="s">
-        <v>13</v>
-      </c>
-      <c r="G54" s="164" t="s">
-        <v>237</v>
-      </c>
-      <c r="H54" s="112" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55" s="164" t="s">
-        <v>0</v>
-      </c>
-      <c r="B55" s="164">
-        <v>2011</v>
-      </c>
-      <c r="C55" s="164" t="s">
-        <v>8</v>
-      </c>
-      <c r="D55" s="184"/>
-      <c r="E55" s="162" t="s">
-        <v>13</v>
-      </c>
-      <c r="F55" s="164" t="s">
-        <v>13</v>
-      </c>
-      <c r="G55" s="164" t="s">
-        <v>238</v>
-      </c>
-      <c r="H55" s="112" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="A56" s="164" t="s">
-        <v>0</v>
-      </c>
-      <c r="B56" s="164">
-        <v>2011</v>
-      </c>
-      <c r="C56" s="164" t="s">
-        <v>8</v>
-      </c>
-      <c r="D56" s="184">
-        <v>4182.6000000000004</v>
-      </c>
-      <c r="E56" s="162" t="s">
-        <v>13</v>
-      </c>
-      <c r="F56" s="164" t="s">
-        <v>13</v>
-      </c>
-      <c r="G56" s="164" t="s">
-        <v>239</v>
-      </c>
-      <c r="H56" s="112" t="s">
-        <v>191</v>
+      <c r="G56" s="166" t="s">
+        <v>241</v>
+      </c>
+      <c r="H56" s="110" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -4379,23 +4386,25 @@
         <v>0</v>
       </c>
       <c r="B57" s="164">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C57" s="164" t="s">
         <v>8</v>
       </c>
-      <c r="D57" s="184"/>
-      <c r="E57" s="162" t="s">
+      <c r="D57" s="174">
+        <v>10048</v>
+      </c>
+      <c r="E57" s="161" t="s">
         <v>13</v>
       </c>
       <c r="F57" s="164" t="s">
         <v>13</v>
       </c>
       <c r="G57" s="164" t="s">
-        <v>240</v>
-      </c>
-      <c r="H57" s="112" t="s">
-        <v>192</v>
+        <v>232</v>
+      </c>
+      <c r="H57" s="113" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -4403,23 +4412,25 @@
         <v>0</v>
       </c>
       <c r="B58" s="164">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C58" s="164" t="s">
         <v>8</v>
       </c>
-      <c r="D58" s="184"/>
-      <c r="E58" s="162" t="s">
+      <c r="D58" s="174">
+        <v>20072</v>
+      </c>
+      <c r="E58" s="161" t="s">
         <v>13</v>
       </c>
       <c r="F58" s="164" t="s">
         <v>13</v>
       </c>
       <c r="G58" s="164" t="s">
-        <v>241</v>
-      </c>
-      <c r="H58" s="112" t="s">
-        <v>193</v>
+        <v>233</v>
+      </c>
+      <c r="H58" s="113" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -4427,25 +4438,23 @@
         <v>0</v>
       </c>
       <c r="B59" s="164">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C59" s="164" t="s">
         <v>8</v>
       </c>
-      <c r="D59" s="184">
-        <v>665</v>
-      </c>
-      <c r="E59" s="162" t="s">
+      <c r="D59" s="174"/>
+      <c r="E59" s="161" t="s">
         <v>13</v>
       </c>
       <c r="F59" s="164" t="s">
         <v>13</v>
       </c>
       <c r="G59" s="164" t="s">
-        <v>242</v>
-      </c>
-      <c r="H59" s="112" t="s">
-        <v>195</v>
+        <v>234</v>
+      </c>
+      <c r="H59" s="113" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -4453,25 +4462,23 @@
         <v>0</v>
       </c>
       <c r="B60" s="164">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C60" s="164" t="s">
         <v>8</v>
       </c>
-      <c r="D60" s="184">
-        <v>4443.3999999999996</v>
-      </c>
-      <c r="E60" s="162" t="s">
+      <c r="D60" s="174"/>
+      <c r="E60" s="161" t="s">
         <v>13</v>
       </c>
       <c r="F60" s="164" t="s">
         <v>13</v>
       </c>
       <c r="G60" s="164" t="s">
-        <v>243</v>
-      </c>
-      <c r="H60" s="112" t="s">
-        <v>181</v>
+        <v>235</v>
+      </c>
+      <c r="H60" s="113" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -4479,125 +4486,127 @@
         <v>0</v>
       </c>
       <c r="B61" s="164">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C61" s="164" t="s">
         <v>8</v>
       </c>
-      <c r="D61" s="184"/>
-      <c r="E61" s="162" t="s">
+      <c r="D61" s="174">
+        <v>7000</v>
+      </c>
+      <c r="E61" s="161" t="s">
         <v>13</v>
       </c>
       <c r="F61" s="164" t="s">
         <v>13</v>
       </c>
       <c r="G61" s="164" t="s">
-        <v>244</v>
-      </c>
-      <c r="H61" s="112" t="s">
+        <v>236</v>
+      </c>
+      <c r="H61" s="113" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="164" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" s="164">
+        <v>2012</v>
+      </c>
+      <c r="C62" s="164" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" s="174">
+        <v>12200</v>
+      </c>
+      <c r="E62" s="161" t="s">
+        <v>13</v>
+      </c>
+      <c r="F62" s="164" t="s">
+        <v>13</v>
+      </c>
+      <c r="G62" s="164" t="s">
+        <v>237</v>
+      </c>
+      <c r="H62" s="113" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="164" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63" s="164">
+        <v>2012</v>
+      </c>
+      <c r="C63" s="164" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" s="174">
+        <v>30508</v>
+      </c>
+      <c r="E63" s="161" t="s">
+        <v>13</v>
+      </c>
+      <c r="F63" s="164" t="s">
+        <v>13</v>
+      </c>
+      <c r="G63" s="164" t="s">
+        <v>238</v>
+      </c>
+      <c r="H63" s="113" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="164" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" s="164">
+        <v>2012</v>
+      </c>
+      <c r="C64" s="164" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" s="174">
+        <v>185539</v>
+      </c>
+      <c r="E64" s="161" t="s">
+        <v>13</v>
+      </c>
+      <c r="F64" s="164" t="s">
+        <v>13</v>
+      </c>
+      <c r="G64" s="164" t="s">
+        <v>239</v>
+      </c>
+      <c r="H64" s="113" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" s="164" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" s="164">
+        <v>2012</v>
+      </c>
+      <c r="C65" s="164" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" s="174"/>
+      <c r="E65" s="161" t="s">
+        <v>13</v>
+      </c>
+      <c r="F65" s="164" t="s">
+        <v>13</v>
+      </c>
+      <c r="G65" s="164" t="s">
+        <v>240</v>
+      </c>
+      <c r="H65" s="113" t="s">
         <v>196</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="A62" s="167" t="s">
-        <v>0</v>
-      </c>
-      <c r="B62" s="167">
-        <v>2012</v>
-      </c>
-      <c r="C62" s="167" t="s">
-        <v>8</v>
-      </c>
-      <c r="D62" s="187">
-        <v>189764</v>
-      </c>
-      <c r="E62" s="162" t="s">
-        <v>13</v>
-      </c>
-      <c r="F62" s="167" t="s">
-        <v>13</v>
-      </c>
-      <c r="G62" s="167" t="s">
-        <v>245</v>
-      </c>
-      <c r="H62" s="110" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
-      <c r="A63" s="165" t="s">
-        <v>0</v>
-      </c>
-      <c r="B63" s="165">
-        <v>2012</v>
-      </c>
-      <c r="C63" s="165" t="s">
-        <v>8</v>
-      </c>
-      <c r="D63" s="185">
-        <v>10048</v>
-      </c>
-      <c r="E63" s="162" t="s">
-        <v>13</v>
-      </c>
-      <c r="F63" s="165" t="s">
-        <v>13</v>
-      </c>
-      <c r="G63" s="165" t="s">
-        <v>236</v>
-      </c>
-      <c r="H63" s="113" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
-      <c r="A64" s="165" t="s">
-        <v>0</v>
-      </c>
-      <c r="B64" s="165">
-        <v>2012</v>
-      </c>
-      <c r="C64" s="165" t="s">
-        <v>8</v>
-      </c>
-      <c r="D64" s="185">
-        <v>20072</v>
-      </c>
-      <c r="E64" s="162" t="s">
-        <v>13</v>
-      </c>
-      <c r="F64" s="165" t="s">
-        <v>13</v>
-      </c>
-      <c r="G64" s="165" t="s">
-        <v>237</v>
-      </c>
-      <c r="H64" s="113" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11">
-      <c r="A65" s="165" t="s">
-        <v>0</v>
-      </c>
-      <c r="B65" s="165">
-        <v>2012</v>
-      </c>
-      <c r="C65" s="165" t="s">
-        <v>8</v>
-      </c>
-      <c r="D65" s="185"/>
-      <c r="E65" s="162" t="s">
-        <v>13</v>
-      </c>
-      <c r="F65" s="165" t="s">
-        <v>13</v>
-      </c>
-      <c r="G65" s="165" t="s">
-        <v>238</v>
-      </c>
-      <c r="H65" s="113" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -4605,23 +4614,25 @@
         <v>0</v>
       </c>
       <c r="B66" s="165">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C66" s="165" t="s">
         <v>8</v>
       </c>
-      <c r="D66" s="185"/>
-      <c r="E66" s="162" t="s">
+      <c r="D66" s="175">
+        <v>1862</v>
+      </c>
+      <c r="E66" s="161" t="s">
         <v>13</v>
       </c>
       <c r="F66" s="165" t="s">
         <v>13</v>
       </c>
       <c r="G66" s="165" t="s">
-        <v>239</v>
-      </c>
-      <c r="H66" s="113" t="s">
-        <v>191</v>
+        <v>232</v>
+      </c>
+      <c r="H66" s="114" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -4629,25 +4640,23 @@
         <v>0</v>
       </c>
       <c r="B67" s="165">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C67" s="165" t="s">
         <v>8</v>
       </c>
-      <c r="D67" s="185">
-        <v>7000</v>
-      </c>
-      <c r="E67" s="162" t="s">
+      <c r="D67" s="175"/>
+      <c r="E67" s="161" t="s">
         <v>13</v>
       </c>
       <c r="F67" s="165" t="s">
         <v>13</v>
       </c>
       <c r="G67" s="165" t="s">
-        <v>240</v>
-      </c>
-      <c r="H67" s="113" t="s">
-        <v>192</v>
+        <v>233</v>
+      </c>
+      <c r="H67" s="114" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -4655,25 +4664,25 @@
         <v>0</v>
       </c>
       <c r="B68" s="165">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C68" s="165" t="s">
         <v>8</v>
       </c>
-      <c r="D68" s="185">
-        <v>12200</v>
-      </c>
-      <c r="E68" s="162" t="s">
+      <c r="D68" s="175">
+        <v>1591</v>
+      </c>
+      <c r="E68" s="161" t="s">
         <v>13</v>
       </c>
       <c r="F68" s="165" t="s">
         <v>13</v>
       </c>
       <c r="G68" s="165" t="s">
-        <v>241</v>
-      </c>
-      <c r="H68" s="113" t="s">
-        <v>193</v>
+        <v>234</v>
+      </c>
+      <c r="H68" s="114" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -4681,25 +4690,25 @@
         <v>0</v>
       </c>
       <c r="B69" s="165">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C69" s="165" t="s">
         <v>8</v>
       </c>
-      <c r="D69" s="185">
-        <v>30508</v>
-      </c>
-      <c r="E69" s="162" t="s">
+      <c r="D69" s="175">
+        <v>21951</v>
+      </c>
+      <c r="E69" s="161" t="s">
         <v>13</v>
       </c>
       <c r="F69" s="165" t="s">
         <v>13</v>
       </c>
       <c r="G69" s="165" t="s">
-        <v>242</v>
-      </c>
-      <c r="H69" s="113" t="s">
-        <v>195</v>
+        <v>235</v>
+      </c>
+      <c r="H69" s="114" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -4707,25 +4716,25 @@
         <v>0</v>
       </c>
       <c r="B70" s="165">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C70" s="165" t="s">
         <v>8</v>
       </c>
-      <c r="D70" s="185">
-        <v>185539</v>
-      </c>
-      <c r="E70" s="162" t="s">
+      <c r="D70" s="175">
+        <v>6800</v>
+      </c>
+      <c r="E70" s="161" t="s">
         <v>13</v>
       </c>
       <c r="F70" s="165" t="s">
         <v>13</v>
       </c>
       <c r="G70" s="165" t="s">
-        <v>243</v>
-      </c>
-      <c r="H70" s="113" t="s">
-        <v>181</v>
+        <v>236</v>
+      </c>
+      <c r="H70" s="114" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -4733,414 +4742,418 @@
         <v>0</v>
       </c>
       <c r="B71" s="165">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C71" s="165" t="s">
         <v>8</v>
       </c>
-      <c r="D71" s="185"/>
-      <c r="E71" s="162" t="s">
+      <c r="D71" s="175">
+        <v>10000</v>
+      </c>
+      <c r="E71" s="161" t="s">
         <v>13</v>
       </c>
       <c r="F71" s="165" t="s">
         <v>13</v>
       </c>
       <c r="G71" s="165" t="s">
+        <v>237</v>
+      </c>
+      <c r="H71" s="114" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" s="165" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" s="165">
+        <v>2013</v>
+      </c>
+      <c r="C72" s="165" t="s">
+        <v>8</v>
+      </c>
+      <c r="D72" s="175">
+        <v>31035</v>
+      </c>
+      <c r="E72" s="161" t="s">
+        <v>13</v>
+      </c>
+      <c r="F72" s="165" t="s">
+        <v>13</v>
+      </c>
+      <c r="G72" s="165" t="s">
+        <v>238</v>
+      </c>
+      <c r="H72" s="114" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" s="165" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" s="165">
+        <v>2013</v>
+      </c>
+      <c r="C73" s="165" t="s">
+        <v>8</v>
+      </c>
+      <c r="D73" s="175">
+        <v>79392</v>
+      </c>
+      <c r="E73" s="161" t="s">
+        <v>13</v>
+      </c>
+      <c r="F73" s="165" t="s">
+        <v>13</v>
+      </c>
+      <c r="G73" s="165" t="s">
+        <v>239</v>
+      </c>
+      <c r="H73" s="114" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" s="165" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" s="165">
+        <v>2013</v>
+      </c>
+      <c r="C74" s="165" t="s">
+        <v>8</v>
+      </c>
+      <c r="D74" s="175">
+        <v>38292</v>
+      </c>
+      <c r="E74" s="161" t="s">
+        <v>13</v>
+      </c>
+      <c r="F74" s="165" t="s">
+        <v>13</v>
+      </c>
+      <c r="G74" s="165" t="s">
+        <v>240</v>
+      </c>
+      <c r="H74" s="114" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" s="109" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75" s="109">
+        <v>2011</v>
+      </c>
+      <c r="C75" s="109" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" s="172">
+        <v>355776</v>
+      </c>
+      <c r="E75" s="161" t="s">
+        <v>200</v>
+      </c>
+      <c r="F75" s="109" t="s">
+        <v>200</v>
+      </c>
+      <c r="G75" s="161" t="s">
+        <v>242</v>
+      </c>
+      <c r="H75" s="109" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" s="109" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76" s="109">
+        <v>2011</v>
+      </c>
+      <c r="C76" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="D76" s="172">
+        <v>240434</v>
+      </c>
+      <c r="E76" s="161" t="s">
+        <v>200</v>
+      </c>
+      <c r="F76" s="109" t="s">
+        <v>200</v>
+      </c>
+      <c r="G76" s="161" t="s">
+        <v>243</v>
+      </c>
+      <c r="H76" s="109" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" s="109" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77" s="109">
+        <v>2012</v>
+      </c>
+      <c r="C77" s="109" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="172">
+        <v>482238</v>
+      </c>
+      <c r="E77" s="161" t="s">
+        <v>200</v>
+      </c>
+      <c r="F77" s="109" t="s">
+        <v>200</v>
+      </c>
+      <c r="G77" s="161" t="s">
         <v>244</v>
       </c>
-      <c r="H71" s="113" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11">
-      <c r="A72" s="166" t="s">
-        <v>0</v>
-      </c>
-      <c r="B72" s="166">
+      <c r="H77" s="109" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" s="109" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78" s="109">
+        <v>2012</v>
+      </c>
+      <c r="C78" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="D78" s="172">
+        <v>316555</v>
+      </c>
+      <c r="E78" s="161" t="s">
+        <v>200</v>
+      </c>
+      <c r="F78" s="109" t="s">
+        <v>200</v>
+      </c>
+      <c r="G78" s="161" t="s">
+        <v>245</v>
+      </c>
+      <c r="H78" s="109" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79" s="109" t="s">
+        <v>0</v>
+      </c>
+      <c r="B79" s="109">
         <v>2013</v>
       </c>
-      <c r="C72" s="166" t="s">
+      <c r="C79" s="109" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="172">
+        <v>857930</v>
+      </c>
+      <c r="E79" s="161" t="s">
+        <v>200</v>
+      </c>
+      <c r="F79" s="109" t="s">
+        <v>200</v>
+      </c>
+      <c r="G79" s="161" t="s">
+        <v>246</v>
+      </c>
+      <c r="H79" s="109" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80" s="109" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80" s="109">
+        <v>2013</v>
+      </c>
+      <c r="C80" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="D72" s="186">
-        <v>1862</v>
-      </c>
-      <c r="E72" s="162" t="s">
-        <v>13</v>
-      </c>
-      <c r="F72" s="166" t="s">
-        <v>13</v>
-      </c>
-      <c r="G72" s="166" t="s">
-        <v>236</v>
-      </c>
-      <c r="H72" s="114" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11">
-      <c r="A73" s="166" t="s">
-        <v>0</v>
-      </c>
-      <c r="B73" s="166">
-        <v>2013</v>
-      </c>
-      <c r="C73" s="166" t="s">
-        <v>8</v>
-      </c>
-      <c r="D73" s="186"/>
-      <c r="E73" s="162" t="s">
-        <v>13</v>
-      </c>
-      <c r="F73" s="166" t="s">
-        <v>13</v>
-      </c>
-      <c r="G73" s="166" t="s">
-        <v>237</v>
-      </c>
-      <c r="H73" s="114" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11">
-      <c r="A74" s="166" t="s">
-        <v>0</v>
-      </c>
-      <c r="B74" s="166">
-        <v>2013</v>
-      </c>
-      <c r="C74" s="166" t="s">
-        <v>8</v>
-      </c>
-      <c r="D74" s="186">
-        <v>1591</v>
-      </c>
-      <c r="E74" s="162" t="s">
-        <v>13</v>
-      </c>
-      <c r="F74" s="166" t="s">
-        <v>13</v>
-      </c>
-      <c r="G74" s="166" t="s">
-        <v>238</v>
-      </c>
-      <c r="H74" s="114" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11">
-      <c r="A75" s="166" t="s">
-        <v>0</v>
-      </c>
-      <c r="B75" s="166">
-        <v>2013</v>
-      </c>
-      <c r="C75" s="166" t="s">
-        <v>8</v>
-      </c>
-      <c r="D75" s="186">
-        <v>21951</v>
-      </c>
-      <c r="E75" s="162" t="s">
-        <v>13</v>
-      </c>
-      <c r="F75" s="166" t="s">
-        <v>13</v>
-      </c>
-      <c r="G75" s="166" t="s">
-        <v>239</v>
-      </c>
-      <c r="H75" s="114" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11">
-      <c r="A76" s="166" t="s">
-        <v>0</v>
-      </c>
-      <c r="B76" s="166">
-        <v>2013</v>
-      </c>
-      <c r="C76" s="166" t="s">
-        <v>8</v>
-      </c>
-      <c r="D76" s="186">
-        <v>6800</v>
-      </c>
-      <c r="E76" s="162" t="s">
-        <v>13</v>
-      </c>
-      <c r="F76" s="166" t="s">
-        <v>13</v>
-      </c>
-      <c r="G76" s="166" t="s">
-        <v>240</v>
-      </c>
-      <c r="H76" s="114" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11">
-      <c r="A77" s="166" t="s">
-        <v>0</v>
-      </c>
-      <c r="B77" s="166">
-        <v>2013</v>
-      </c>
-      <c r="C77" s="166" t="s">
-        <v>8</v>
-      </c>
-      <c r="D77" s="186">
-        <v>10000</v>
-      </c>
-      <c r="E77" s="162" t="s">
-        <v>13</v>
-      </c>
-      <c r="F77" s="166" t="s">
-        <v>13</v>
-      </c>
-      <c r="G77" s="166" t="s">
-        <v>241</v>
-      </c>
-      <c r="H77" s="114" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11">
-      <c r="A78" s="166" t="s">
-        <v>0</v>
-      </c>
-      <c r="B78" s="166">
-        <v>2013</v>
-      </c>
-      <c r="C78" s="166" t="s">
-        <v>8</v>
-      </c>
-      <c r="D78" s="186">
-        <v>31035</v>
-      </c>
-      <c r="E78" s="162" t="s">
-        <v>13</v>
-      </c>
-      <c r="F78" s="166" t="s">
-        <v>13</v>
-      </c>
-      <c r="G78" s="166" t="s">
-        <v>242</v>
-      </c>
-      <c r="H78" s="114" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11">
-      <c r="A79" s="166" t="s">
-        <v>0</v>
-      </c>
-      <c r="B79" s="166">
-        <v>2013</v>
-      </c>
-      <c r="C79" s="166" t="s">
-        <v>8</v>
-      </c>
-      <c r="D79" s="186">
-        <v>79392</v>
-      </c>
-      <c r="E79" s="162" t="s">
-        <v>13</v>
-      </c>
-      <c r="F79" s="166" t="s">
-        <v>13</v>
-      </c>
-      <c r="G79" s="166" t="s">
-        <v>243</v>
-      </c>
-      <c r="H79" s="114" t="s">
+      <c r="D80" s="172">
+        <v>259947</v>
+      </c>
+      <c r="E80" s="161" t="s">
+        <v>200</v>
+      </c>
+      <c r="F80" s="109" t="s">
+        <v>200</v>
+      </c>
+      <c r="G80" s="161" t="s">
+        <v>247</v>
+      </c>
+      <c r="H80" s="109" t="s">
+        <v>202</v>
+      </c>
+      <c r="K80" s="162"/>
+    </row>
+    <row r="81" spans="1:16">
+      <c r="A81" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B81" s="111">
+        <v>2011</v>
+      </c>
+      <c r="C81" s="111" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="175">
+        <v>463.8</v>
+      </c>
+      <c r="E81" s="161" t="s">
+        <v>200</v>
+      </c>
+      <c r="F81" s="111" t="s">
+        <v>200</v>
+      </c>
+      <c r="G81" s="111" t="s">
+        <v>216</v>
+      </c>
+      <c r="H81" s="111" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16">
+      <c r="A82" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82" s="111">
+        <v>2011</v>
+      </c>
+      <c r="C82" s="111" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="175">
+        <v>29316.3</v>
+      </c>
+      <c r="E82" s="161" t="s">
+        <v>200</v>
+      </c>
+      <c r="F82" s="111" t="s">
+        <v>200</v>
+      </c>
+      <c r="G82" s="111" t="s">
+        <v>217</v>
+      </c>
+      <c r="H82" s="111" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16">
+      <c r="A83" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83" s="111">
+        <v>2011</v>
+      </c>
+      <c r="C83" s="111" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="175">
+        <v>53461.8</v>
+      </c>
+      <c r="E83" s="161" t="s">
+        <v>200</v>
+      </c>
+      <c r="F83" s="111" t="s">
+        <v>200</v>
+      </c>
+      <c r="G83" s="111" t="s">
+        <v>218</v>
+      </c>
+      <c r="H83" s="111" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16">
+      <c r="A84" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B84" s="111">
+        <v>2011</v>
+      </c>
+      <c r="C84" s="111" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="175">
+        <v>36968.9</v>
+      </c>
+      <c r="E84" s="161" t="s">
+        <v>200</v>
+      </c>
+      <c r="F84" s="111" t="s">
+        <v>200</v>
+      </c>
+      <c r="G84" s="111" t="s">
+        <v>219</v>
+      </c>
+      <c r="H84" s="111" t="s">
+        <v>179</v>
+      </c>
+      <c r="P84" s="159"/>
+    </row>
+    <row r="85" spans="1:16">
+      <c r="A85" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B85" s="111">
+        <v>2011</v>
+      </c>
+      <c r="C85" s="111" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="175">
+        <v>192313.3</v>
+      </c>
+      <c r="E85" s="161" t="s">
+        <v>200</v>
+      </c>
+      <c r="F85" s="111" t="s">
+        <v>200</v>
+      </c>
+      <c r="G85" s="111" t="s">
+        <v>220</v>
+      </c>
+      <c r="H85" s="111" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="80" spans="1:11">
-      <c r="A80" s="166" t="s">
-        <v>0</v>
-      </c>
-      <c r="B80" s="166">
-        <v>2013</v>
-      </c>
-      <c r="C80" s="166" t="s">
-        <v>8</v>
-      </c>
-      <c r="D80" s="186">
-        <v>38292</v>
-      </c>
-      <c r="E80" s="162" t="s">
-        <v>13</v>
-      </c>
-      <c r="F80" s="166" t="s">
-        <v>13</v>
-      </c>
-      <c r="G80" s="166" t="s">
-        <v>244</v>
-      </c>
-      <c r="H80" s="114" t="s">
-        <v>196</v>
-      </c>
-      <c r="K80" s="163"/>
-    </row>
-    <row r="81" spans="1:16">
-      <c r="A81" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="B81" s="109">
+      <c r="P85" s="162"/>
+    </row>
+    <row r="86" spans="1:16">
+      <c r="A86" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86" s="111">
         <v>2011</v>
       </c>
-      <c r="C81" s="109" t="s">
+      <c r="C86" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="D81" s="183">
-        <v>355776</v>
-      </c>
-      <c r="E81" s="162" t="s">
+      <c r="D86" s="175">
+        <v>3528.7</v>
+      </c>
+      <c r="E86" s="161" t="s">
+        <v>200</v>
+      </c>
+      <c r="F86" s="111" t="s">
+        <v>200</v>
+      </c>
+      <c r="G86" s="111" t="s">
         <v>204</v>
       </c>
-      <c r="F81" s="109" t="s">
-        <v>204</v>
-      </c>
-      <c r="G81" s="162" t="s">
-        <v>246</v>
-      </c>
-      <c r="H81" s="109" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16">
-      <c r="A82" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="B82" s="109">
-        <v>2011</v>
-      </c>
-      <c r="C82" s="109" t="s">
-        <v>8</v>
-      </c>
-      <c r="D82" s="183">
-        <v>240434</v>
-      </c>
-      <c r="E82" s="162" t="s">
-        <v>204</v>
-      </c>
-      <c r="F82" s="109" t="s">
-        <v>204</v>
-      </c>
-      <c r="G82" s="162" t="s">
-        <v>247</v>
-      </c>
-      <c r="H82" s="109" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="83" spans="1:16">
-      <c r="A83" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="B83" s="109">
-        <v>2012</v>
-      </c>
-      <c r="C83" s="109" t="s">
-        <v>9</v>
-      </c>
-      <c r="D83" s="183">
-        <v>482238</v>
-      </c>
-      <c r="E83" s="162" t="s">
-        <v>204</v>
-      </c>
-      <c r="F83" s="109" t="s">
-        <v>204</v>
-      </c>
-      <c r="G83" s="162" t="s">
-        <v>248</v>
-      </c>
-      <c r="H83" s="109" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="84" spans="1:16">
-      <c r="A84" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="B84" s="109">
-        <v>2012</v>
-      </c>
-      <c r="C84" s="109" t="s">
-        <v>8</v>
-      </c>
-      <c r="D84" s="183">
-        <v>316555</v>
-      </c>
-      <c r="E84" s="162" t="s">
-        <v>204</v>
-      </c>
-      <c r="F84" s="109" t="s">
-        <v>204</v>
-      </c>
-      <c r="G84" s="162" t="s">
-        <v>249</v>
-      </c>
-      <c r="H84" s="109" t="s">
-        <v>206</v>
-      </c>
-      <c r="P84" s="159"/>
-    </row>
-    <row r="85" spans="1:16">
-      <c r="A85" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="B85" s="109">
-        <v>2013</v>
-      </c>
-      <c r="C85" s="109" t="s">
-        <v>9</v>
-      </c>
-      <c r="D85" s="183">
-        <v>857930</v>
-      </c>
-      <c r="E85" s="162" t="s">
-        <v>204</v>
-      </c>
-      <c r="F85" s="109" t="s">
-        <v>204</v>
-      </c>
-      <c r="G85" s="162" t="s">
-        <v>250</v>
-      </c>
-      <c r="H85" s="109" t="s">
-        <v>205</v>
-      </c>
-      <c r="P85" s="163"/>
-    </row>
-    <row r="86" spans="1:16">
-      <c r="A86" s="109" t="s">
-        <v>0</v>
-      </c>
-      <c r="B86" s="109">
-        <v>2013</v>
-      </c>
-      <c r="C86" s="109" t="s">
-        <v>8</v>
-      </c>
-      <c r="D86" s="183">
-        <v>259947</v>
-      </c>
-      <c r="E86" s="162" t="s">
-        <v>204</v>
-      </c>
-      <c r="F86" s="109" t="s">
-        <v>204</v>
-      </c>
-      <c r="G86" s="162" t="s">
-        <v>251</v>
-      </c>
-      <c r="H86" s="109" t="s">
-        <v>206</v>
+      <c r="H86" s="111" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="87" spans="1:16">
@@ -5153,22 +5166,22 @@
       <c r="C87" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="D87" s="186">
-        <v>463.8</v>
-      </c>
-      <c r="E87" s="162" t="s">
-        <v>204</v>
+      <c r="D87" s="175">
+        <v>1804.3</v>
+      </c>
+      <c r="E87" s="161" t="s">
+        <v>200</v>
       </c>
       <c r="F87" s="111" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G87" s="111" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H87" s="111" t="s">
-        <v>175</v>
-      </c>
-      <c r="P87" s="168"/>
+        <v>186</v>
+      </c>
+      <c r="P87" s="167"/>
     </row>
     <row r="88" spans="1:16">
       <c r="A88" s="111" t="s">
@@ -5180,20 +5193,20 @@
       <c r="C88" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="D88" s="186">
-        <v>29316.3</v>
-      </c>
-      <c r="E88" s="162" t="s">
-        <v>204</v>
+      <c r="D88" s="175">
+        <v>19675.400000000001</v>
+      </c>
+      <c r="E88" s="161" t="s">
+        <v>200</v>
       </c>
       <c r="F88" s="111" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G88" s="111" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="H88" s="111" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
     </row>
     <row r="89" spans="1:16">
@@ -5206,20 +5219,20 @@
       <c r="C89" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="D89" s="186">
-        <v>53461.8</v>
-      </c>
-      <c r="E89" s="162" t="s">
-        <v>204</v>
+      <c r="D89" s="175">
+        <v>15707.2</v>
+      </c>
+      <c r="E89" s="161" t="s">
+        <v>200</v>
       </c>
       <c r="F89" s="111" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G89" s="111" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="H89" s="111" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
     </row>
     <row r="90" spans="1:16">
@@ -5232,176 +5245,176 @@
       <c r="C90" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="D90" s="186">
-        <v>36968.9</v>
-      </c>
-      <c r="E90" s="162" t="s">
+      <c r="D90" s="175">
+        <v>2535.5</v>
+      </c>
+      <c r="E90" s="161" t="s">
+        <v>200</v>
+      </c>
+      <c r="F90" s="111" t="s">
+        <v>200</v>
+      </c>
+      <c r="G90" s="111" t="s">
+        <v>222</v>
+      </c>
+      <c r="H90" s="111" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16">
+      <c r="A91" s="115" t="s">
+        <v>0</v>
+      </c>
+      <c r="B91" s="115">
+        <v>2012</v>
+      </c>
+      <c r="C91" s="115" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="173">
+        <v>492.1</v>
+      </c>
+      <c r="E91" s="161" t="s">
+        <v>200</v>
+      </c>
+      <c r="F91" s="115" t="s">
+        <v>200</v>
+      </c>
+      <c r="G91" s="115" t="s">
+        <v>216</v>
+      </c>
+      <c r="H91" s="115" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16">
+      <c r="A92" s="115" t="s">
+        <v>0</v>
+      </c>
+      <c r="B92" s="115">
+        <v>2012</v>
+      </c>
+      <c r="C92" s="115" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="173">
+        <v>23212.5</v>
+      </c>
+      <c r="E92" s="161" t="s">
+        <v>200</v>
+      </c>
+      <c r="F92" s="115" t="s">
+        <v>200</v>
+      </c>
+      <c r="G92" s="115" t="s">
+        <v>217</v>
+      </c>
+      <c r="H92" s="115" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16">
+      <c r="A93" s="115" t="s">
+        <v>0</v>
+      </c>
+      <c r="B93" s="115">
+        <v>2012</v>
+      </c>
+      <c r="C93" s="115" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="173">
+        <v>44124.800000000003</v>
+      </c>
+      <c r="E93" s="161" t="s">
+        <v>200</v>
+      </c>
+      <c r="F93" s="115" t="s">
+        <v>200</v>
+      </c>
+      <c r="G93" s="115" t="s">
+        <v>218</v>
+      </c>
+      <c r="H93" s="115" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16">
+      <c r="A94" s="115" t="s">
+        <v>0</v>
+      </c>
+      <c r="B94" s="115">
+        <v>2012</v>
+      </c>
+      <c r="C94" s="115" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="173">
+        <v>42778.2</v>
+      </c>
+      <c r="E94" s="161" t="s">
+        <v>200</v>
+      </c>
+      <c r="F94" s="115" t="s">
+        <v>200</v>
+      </c>
+      <c r="G94" s="115" t="s">
+        <v>219</v>
+      </c>
+      <c r="H94" s="115" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16">
+      <c r="A95" s="115" t="s">
+        <v>0</v>
+      </c>
+      <c r="B95" s="115">
+        <v>2012</v>
+      </c>
+      <c r="C95" s="115" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="173">
+        <v>317539.90000000002</v>
+      </c>
+      <c r="E95" s="161" t="s">
+        <v>200</v>
+      </c>
+      <c r="F95" s="115" t="s">
+        <v>200</v>
+      </c>
+      <c r="G95" s="115" t="s">
+        <v>220</v>
+      </c>
+      <c r="H95" s="115" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16">
+      <c r="A96" s="115" t="s">
+        <v>0</v>
+      </c>
+      <c r="B96" s="115">
+        <v>2012</v>
+      </c>
+      <c r="C96" s="115" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="173">
+        <v>4090.3</v>
+      </c>
+      <c r="E96" s="161" t="s">
+        <v>200</v>
+      </c>
+      <c r="F96" s="115" t="s">
+        <v>200</v>
+      </c>
+      <c r="G96" s="115" t="s">
         <v>204</v>
       </c>
-      <c r="F90" s="111" t="s">
-        <v>204</v>
-      </c>
-      <c r="G90" s="111" t="s">
-        <v>223</v>
-      </c>
-      <c r="H90" s="111" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="91" spans="1:16">
-      <c r="A91" s="111" t="s">
-        <v>0</v>
-      </c>
-      <c r="B91" s="111">
-        <v>2011</v>
-      </c>
-      <c r="C91" s="111" t="s">
-        <v>9</v>
-      </c>
-      <c r="D91" s="186">
-        <v>192313.3</v>
-      </c>
-      <c r="E91" s="162" t="s">
-        <v>204</v>
-      </c>
-      <c r="F91" s="111" t="s">
-        <v>204</v>
-      </c>
-      <c r="G91" s="111" t="s">
-        <v>224</v>
-      </c>
-      <c r="H91" s="111" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="92" spans="1:16">
-      <c r="A92" s="111" t="s">
-        <v>0</v>
-      </c>
-      <c r="B92" s="111">
-        <v>2011</v>
-      </c>
-      <c r="C92" s="111" t="s">
-        <v>9</v>
-      </c>
-      <c r="D92" s="186">
-        <v>3528.7</v>
-      </c>
-      <c r="E92" s="162" t="s">
-        <v>204</v>
-      </c>
-      <c r="F92" s="111" t="s">
-        <v>204</v>
-      </c>
-      <c r="G92" s="111" t="s">
-        <v>208</v>
-      </c>
-      <c r="H92" s="111" t="s">
+      <c r="H96" s="115" t="s">
         <v>182</v>
-      </c>
-    </row>
-    <row r="93" spans="1:16">
-      <c r="A93" s="111" t="s">
-        <v>0</v>
-      </c>
-      <c r="B93" s="111">
-        <v>2011</v>
-      </c>
-      <c r="C93" s="111" t="s">
-        <v>9</v>
-      </c>
-      <c r="D93" s="186">
-        <v>1804.3</v>
-      </c>
-      <c r="E93" s="162" t="s">
-        <v>204</v>
-      </c>
-      <c r="F93" s="111" t="s">
-        <v>204</v>
-      </c>
-      <c r="G93" s="111" t="s">
-        <v>225</v>
-      </c>
-      <c r="H93" s="111" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="94" spans="1:16">
-      <c r="A94" s="111" t="s">
-        <v>0</v>
-      </c>
-      <c r="B94" s="111">
-        <v>2011</v>
-      </c>
-      <c r="C94" s="111" t="s">
-        <v>9</v>
-      </c>
-      <c r="D94" s="186">
-        <v>19675.400000000001</v>
-      </c>
-      <c r="E94" s="162" t="s">
-        <v>204</v>
-      </c>
-      <c r="F94" s="111" t="s">
-        <v>204</v>
-      </c>
-      <c r="G94" s="111" t="s">
-        <v>209</v>
-      </c>
-      <c r="H94" s="111" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="95" spans="1:16">
-      <c r="A95" s="111" t="s">
-        <v>0</v>
-      </c>
-      <c r="B95" s="111">
-        <v>2011</v>
-      </c>
-      <c r="C95" s="111" t="s">
-        <v>9</v>
-      </c>
-      <c r="D95" s="186">
-        <v>15707.2</v>
-      </c>
-      <c r="E95" s="162" t="s">
-        <v>204</v>
-      </c>
-      <c r="F95" s="111" t="s">
-        <v>204</v>
-      </c>
-      <c r="G95" s="111" t="s">
-        <v>210</v>
-      </c>
-      <c r="H95" s="111" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="96" spans="1:16">
-      <c r="A96" s="111" t="s">
-        <v>0</v>
-      </c>
-      <c r="B96" s="111">
-        <v>2011</v>
-      </c>
-      <c r="C96" s="111" t="s">
-        <v>9</v>
-      </c>
-      <c r="D96" s="186">
-        <v>2535.5</v>
-      </c>
-      <c r="E96" s="162" t="s">
-        <v>204</v>
-      </c>
-      <c r="F96" s="111" t="s">
-        <v>204</v>
-      </c>
-      <c r="G96" s="111" t="s">
-        <v>226</v>
-      </c>
-      <c r="H96" s="111" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -5414,20 +5427,20 @@
       <c r="C97" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="D97" s="184">
-        <v>492.1</v>
-      </c>
-      <c r="E97" s="162" t="s">
-        <v>204</v>
+      <c r="D97" s="173">
+        <v>1496.4</v>
+      </c>
+      <c r="E97" s="161" t="s">
+        <v>200</v>
       </c>
       <c r="F97" s="115" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G97" s="115" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H97" s="115" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -5440,20 +5453,20 @@
       <c r="C98" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="D98" s="184">
-        <v>23212.5</v>
-      </c>
-      <c r="E98" s="162" t="s">
-        <v>204</v>
+      <c r="D98" s="173">
+        <v>28875</v>
+      </c>
+      <c r="E98" s="161" t="s">
+        <v>200</v>
       </c>
       <c r="F98" s="115" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G98" s="115" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="H98" s="115" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -5466,20 +5479,20 @@
       <c r="C99" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="D99" s="184">
-        <v>44124.800000000003</v>
-      </c>
-      <c r="E99" s="162" t="s">
-        <v>204</v>
+      <c r="D99" s="173">
+        <v>17704.099999999999</v>
+      </c>
+      <c r="E99" s="161" t="s">
+        <v>200</v>
       </c>
       <c r="F99" s="115" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G99" s="115" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="H99" s="115" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -5492,176 +5505,176 @@
       <c r="C100" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="D100" s="184">
-        <v>42778.2</v>
-      </c>
-      <c r="E100" s="162" t="s">
+      <c r="D100" s="173">
+        <v>1924.3</v>
+      </c>
+      <c r="E100" s="161" t="s">
+        <v>200</v>
+      </c>
+      <c r="F100" s="115" t="s">
+        <v>200</v>
+      </c>
+      <c r="G100" s="115" t="s">
+        <v>222</v>
+      </c>
+      <c r="H100" s="115" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="116" t="s">
+        <v>0</v>
+      </c>
+      <c r="B101" s="116">
+        <v>2013</v>
+      </c>
+      <c r="C101" s="116" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="177">
+        <v>629</v>
+      </c>
+      <c r="E101" s="161" t="s">
+        <v>200</v>
+      </c>
+      <c r="F101" s="116" t="s">
+        <v>200</v>
+      </c>
+      <c r="G101" s="116" t="s">
+        <v>216</v>
+      </c>
+      <c r="H101" s="116" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="116" t="s">
+        <v>0</v>
+      </c>
+      <c r="B102" s="116">
+        <v>2013</v>
+      </c>
+      <c r="C102" s="116" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="177">
+        <v>33248.199999999997</v>
+      </c>
+      <c r="E102" s="161" t="s">
+        <v>200</v>
+      </c>
+      <c r="F102" s="116" t="s">
+        <v>200</v>
+      </c>
+      <c r="G102" s="116" t="s">
+        <v>217</v>
+      </c>
+      <c r="H102" s="116" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="116" t="s">
+        <v>0</v>
+      </c>
+      <c r="B103" s="116">
+        <v>2013</v>
+      </c>
+      <c r="C103" s="116" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="177">
+        <v>50615.4</v>
+      </c>
+      <c r="E103" s="161" t="s">
+        <v>200</v>
+      </c>
+      <c r="F103" s="116" t="s">
+        <v>200</v>
+      </c>
+      <c r="G103" s="116" t="s">
+        <v>218</v>
+      </c>
+      <c r="H103" s="116" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" s="116" t="s">
+        <v>0</v>
+      </c>
+      <c r="B104" s="116">
+        <v>2013</v>
+      </c>
+      <c r="C104" s="116" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="177">
+        <v>43332</v>
+      </c>
+      <c r="E104" s="161" t="s">
+        <v>200</v>
+      </c>
+      <c r="F104" s="116" t="s">
+        <v>200</v>
+      </c>
+      <c r="G104" s="116" t="s">
+        <v>219</v>
+      </c>
+      <c r="H104" s="116" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="116" t="s">
+        <v>0</v>
+      </c>
+      <c r="B105" s="116">
+        <v>2013</v>
+      </c>
+      <c r="C105" s="116" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="177">
+        <v>669805.9</v>
+      </c>
+      <c r="E105" s="161" t="s">
+        <v>200</v>
+      </c>
+      <c r="F105" s="116" t="s">
+        <v>200</v>
+      </c>
+      <c r="G105" s="116" t="s">
+        <v>220</v>
+      </c>
+      <c r="H105" s="116" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="116" t="s">
+        <v>0</v>
+      </c>
+      <c r="B106" s="116">
+        <v>2013</v>
+      </c>
+      <c r="C106" s="116" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="177">
+        <v>4575.3</v>
+      </c>
+      <c r="E106" s="161" t="s">
+        <v>200</v>
+      </c>
+      <c r="F106" s="116" t="s">
+        <v>200</v>
+      </c>
+      <c r="G106" s="116" t="s">
         <v>204</v>
       </c>
-      <c r="F100" s="115" t="s">
-        <v>204</v>
-      </c>
-      <c r="G100" s="115" t="s">
-        <v>223</v>
-      </c>
-      <c r="H100" s="115" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
-      <c r="A101" s="115" t="s">
-        <v>0</v>
-      </c>
-      <c r="B101" s="115">
-        <v>2012</v>
-      </c>
-      <c r="C101" s="115" t="s">
-        <v>9</v>
-      </c>
-      <c r="D101" s="184">
-        <v>317539.90000000002</v>
-      </c>
-      <c r="E101" s="162" t="s">
-        <v>204</v>
-      </c>
-      <c r="F101" s="115" t="s">
-        <v>204</v>
-      </c>
-      <c r="G101" s="115" t="s">
-        <v>224</v>
-      </c>
-      <c r="H101" s="115" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
-      <c r="A102" s="115" t="s">
-        <v>0</v>
-      </c>
-      <c r="B102" s="115">
-        <v>2012</v>
-      </c>
-      <c r="C102" s="115" t="s">
-        <v>9</v>
-      </c>
-      <c r="D102" s="184">
-        <v>4090.3</v>
-      </c>
-      <c r="E102" s="162" t="s">
-        <v>204</v>
-      </c>
-      <c r="F102" s="115" t="s">
-        <v>204</v>
-      </c>
-      <c r="G102" s="115" t="s">
-        <v>208</v>
-      </c>
-      <c r="H102" s="115" t="s">
+      <c r="H106" s="116" t="s">
         <v>182</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
-      <c r="A103" s="115" t="s">
-        <v>0</v>
-      </c>
-      <c r="B103" s="115">
-        <v>2012</v>
-      </c>
-      <c r="C103" s="115" t="s">
-        <v>9</v>
-      </c>
-      <c r="D103" s="184">
-        <v>1496.4</v>
-      </c>
-      <c r="E103" s="162" t="s">
-        <v>204</v>
-      </c>
-      <c r="F103" s="115" t="s">
-        <v>204</v>
-      </c>
-      <c r="G103" s="115" t="s">
-        <v>225</v>
-      </c>
-      <c r="H103" s="115" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
-      <c r="A104" s="115" t="s">
-        <v>0</v>
-      </c>
-      <c r="B104" s="115">
-        <v>2012</v>
-      </c>
-      <c r="C104" s="115" t="s">
-        <v>9</v>
-      </c>
-      <c r="D104" s="184">
-        <v>28875</v>
-      </c>
-      <c r="E104" s="162" t="s">
-        <v>204</v>
-      </c>
-      <c r="F104" s="115" t="s">
-        <v>204</v>
-      </c>
-      <c r="G104" s="115" t="s">
-        <v>209</v>
-      </c>
-      <c r="H104" s="115" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
-      <c r="A105" s="115" t="s">
-        <v>0</v>
-      </c>
-      <c r="B105" s="115">
-        <v>2012</v>
-      </c>
-      <c r="C105" s="115" t="s">
-        <v>9</v>
-      </c>
-      <c r="D105" s="184">
-        <v>17704.099999999999</v>
-      </c>
-      <c r="E105" s="162" t="s">
-        <v>204</v>
-      </c>
-      <c r="F105" s="115" t="s">
-        <v>204</v>
-      </c>
-      <c r="G105" s="115" t="s">
-        <v>210</v>
-      </c>
-      <c r="H105" s="115" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
-      <c r="A106" s="115" t="s">
-        <v>0</v>
-      </c>
-      <c r="B106" s="115">
-        <v>2012</v>
-      </c>
-      <c r="C106" s="115" t="s">
-        <v>9</v>
-      </c>
-      <c r="D106" s="184">
-        <v>1924.3</v>
-      </c>
-      <c r="E106" s="162" t="s">
-        <v>204</v>
-      </c>
-      <c r="F106" s="115" t="s">
-        <v>204</v>
-      </c>
-      <c r="G106" s="115" t="s">
-        <v>226</v>
-      </c>
-      <c r="H106" s="115" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -5674,20 +5687,20 @@
       <c r="C107" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="D107" s="188">
-        <v>629</v>
-      </c>
-      <c r="E107" s="162" t="s">
-        <v>204</v>
+      <c r="D107" s="177">
+        <v>1671.5</v>
+      </c>
+      <c r="E107" s="161" t="s">
+        <v>200</v>
       </c>
       <c r="F107" s="116" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G107" s="116" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H107" s="116" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -5700,20 +5713,20 @@
       <c r="C108" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="D108" s="188">
-        <v>33248.199999999997</v>
-      </c>
-      <c r="E108" s="162" t="s">
-        <v>204</v>
+      <c r="D108" s="177">
+        <v>31229</v>
+      </c>
+      <c r="E108" s="161" t="s">
+        <v>200</v>
       </c>
       <c r="F108" s="116" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G108" s="116" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="H108" s="116" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -5726,20 +5739,20 @@
       <c r="C109" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="D109" s="188">
-        <v>50615.4</v>
-      </c>
-      <c r="E109" s="162" t="s">
-        <v>204</v>
+      <c r="D109" s="177">
+        <v>19844.900000000001</v>
+      </c>
+      <c r="E109" s="161" t="s">
+        <v>200</v>
       </c>
       <c r="F109" s="116" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G109" s="116" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="H109" s="116" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -5752,176 +5765,168 @@
       <c r="C110" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="D110" s="188">
-        <v>43332</v>
-      </c>
-      <c r="E110" s="162" t="s">
-        <v>204</v>
+      <c r="D110" s="177">
+        <v>2978.6</v>
+      </c>
+      <c r="E110" s="161" t="s">
+        <v>200</v>
       </c>
       <c r="F110" s="116" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G110" s="116" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H110" s="116" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B111" s="111">
+        <v>2011</v>
+      </c>
+      <c r="C111" s="111" t="s">
+        <v>8</v>
+      </c>
+      <c r="D111" s="178"/>
+      <c r="E111" s="161" t="s">
+        <v>200</v>
+      </c>
+      <c r="F111" s="111" t="s">
+        <v>200</v>
+      </c>
+      <c r="G111" s="111" t="s">
+        <v>207</v>
+      </c>
+      <c r="H111" s="111" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B112" s="111">
+        <v>2011</v>
+      </c>
+      <c r="C112" s="111" t="s">
+        <v>8</v>
+      </c>
+      <c r="D112" s="178">
+        <v>9371.4</v>
+      </c>
+      <c r="E112" s="161" t="s">
+        <v>200</v>
+      </c>
+      <c r="F112" s="111" t="s">
+        <v>200</v>
+      </c>
+      <c r="G112" s="111" t="s">
+        <v>203</v>
+      </c>
+      <c r="H112" s="111" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B113" s="111">
+        <v>2011</v>
+      </c>
+      <c r="C113" s="111" t="s">
+        <v>8</v>
+      </c>
+      <c r="D113" s="178"/>
+      <c r="E113" s="161" t="s">
+        <v>200</v>
+      </c>
+      <c r="F113" s="111" t="s">
+        <v>200</v>
+      </c>
+      <c r="G113" s="111" t="s">
+        <v>213</v>
+      </c>
+      <c r="H113" s="111" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
-      <c r="A111" s="116" t="s">
-        <v>0</v>
-      </c>
-      <c r="B111" s="116">
-        <v>2013</v>
-      </c>
-      <c r="C111" s="116" t="s">
-        <v>9</v>
-      </c>
-      <c r="D111" s="188">
-        <v>669805.9</v>
-      </c>
-      <c r="E111" s="162" t="s">
-        <v>204</v>
-      </c>
-      <c r="F111" s="116" t="s">
-        <v>204</v>
-      </c>
-      <c r="G111" s="116" t="s">
-        <v>224</v>
-      </c>
-      <c r="H111" s="116" t="s">
+    <row r="114" spans="1:8">
+      <c r="A114" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B114" s="111">
+        <v>2011</v>
+      </c>
+      <c r="C114" s="111" t="s">
+        <v>8</v>
+      </c>
+      <c r="D114" s="178"/>
+      <c r="E114" s="161" t="s">
+        <v>200</v>
+      </c>
+      <c r="F114" s="111" t="s">
+        <v>200</v>
+      </c>
+      <c r="G114" s="111" t="s">
+        <v>214</v>
+      </c>
+      <c r="H114" s="111" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B115" s="111">
+        <v>2011</v>
+      </c>
+      <c r="C115" s="111" t="s">
+        <v>8</v>
+      </c>
+      <c r="D115" s="178">
+        <v>5396.1</v>
+      </c>
+      <c r="E115" s="161" t="s">
+        <v>200</v>
+      </c>
+      <c r="F115" s="111" t="s">
+        <v>200</v>
+      </c>
+      <c r="G115" s="111" t="s">
+        <v>208</v>
+      </c>
+      <c r="H115" s="111" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
-      <c r="A112" s="116" t="s">
-        <v>0</v>
-      </c>
-      <c r="B112" s="116">
-        <v>2013</v>
-      </c>
-      <c r="C112" s="116" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112" s="188">
-        <v>4575.3</v>
-      </c>
-      <c r="E112" s="162" t="s">
-        <v>204</v>
-      </c>
-      <c r="F112" s="116" t="s">
-        <v>204</v>
-      </c>
-      <c r="G112" s="116" t="s">
-        <v>208</v>
-      </c>
-      <c r="H112" s="116" t="s">
+    <row r="116" spans="1:8">
+      <c r="A116" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B116" s="111">
+        <v>2011</v>
+      </c>
+      <c r="C116" s="111" t="s">
+        <v>8</v>
+      </c>
+      <c r="D116" s="178"/>
+      <c r="E116" s="161" t="s">
+        <v>200</v>
+      </c>
+      <c r="F116" s="111" t="s">
+        <v>200</v>
+      </c>
+      <c r="G116" s="111" t="s">
+        <v>209</v>
+      </c>
+      <c r="H116" s="111" t="s">
         <v>182</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
-      <c r="A113" s="116" t="s">
-        <v>0</v>
-      </c>
-      <c r="B113" s="116">
-        <v>2013</v>
-      </c>
-      <c r="C113" s="116" t="s">
-        <v>9</v>
-      </c>
-      <c r="D113" s="188">
-        <v>1671.5</v>
-      </c>
-      <c r="E113" s="162" t="s">
-        <v>204</v>
-      </c>
-      <c r="F113" s="116" t="s">
-        <v>204</v>
-      </c>
-      <c r="G113" s="116" t="s">
-        <v>225</v>
-      </c>
-      <c r="H113" s="116" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
-      <c r="A114" s="116" t="s">
-        <v>0</v>
-      </c>
-      <c r="B114" s="116">
-        <v>2013</v>
-      </c>
-      <c r="C114" s="116" t="s">
-        <v>9</v>
-      </c>
-      <c r="D114" s="188">
-        <v>31229</v>
-      </c>
-      <c r="E114" s="162" t="s">
-        <v>204</v>
-      </c>
-      <c r="F114" s="116" t="s">
-        <v>204</v>
-      </c>
-      <c r="G114" s="116" t="s">
-        <v>209</v>
-      </c>
-      <c r="H114" s="116" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
-      <c r="A115" s="116" t="s">
-        <v>0</v>
-      </c>
-      <c r="B115" s="116">
-        <v>2013</v>
-      </c>
-      <c r="C115" s="116" t="s">
-        <v>9</v>
-      </c>
-      <c r="D115" s="188">
-        <v>19844.900000000001</v>
-      </c>
-      <c r="E115" s="162" t="s">
-        <v>204</v>
-      </c>
-      <c r="F115" s="116" t="s">
-        <v>204</v>
-      </c>
-      <c r="G115" s="116" t="s">
-        <v>210</v>
-      </c>
-      <c r="H115" s="116" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
-      <c r="A116" s="116" t="s">
-        <v>0</v>
-      </c>
-      <c r="B116" s="116">
-        <v>2013</v>
-      </c>
-      <c r="C116" s="116" t="s">
-        <v>9</v>
-      </c>
-      <c r="D116" s="188">
-        <v>2978.6</v>
-      </c>
-      <c r="E116" s="162" t="s">
-        <v>204</v>
-      </c>
-      <c r="F116" s="116" t="s">
-        <v>204</v>
-      </c>
-      <c r="G116" s="116" t="s">
-        <v>226</v>
-      </c>
-      <c r="H116" s="116" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5934,18 +5939,18 @@
       <c r="C117" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="D117" s="189"/>
-      <c r="E117" s="162" t="s">
-        <v>204</v>
+      <c r="D117" s="178"/>
+      <c r="E117" s="161" t="s">
+        <v>200</v>
       </c>
       <c r="F117" s="111" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G117" s="111" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H117" s="111" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5958,20 +5963,20 @@
       <c r="C118" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="D118" s="189">
-        <v>9371.4</v>
-      </c>
-      <c r="E118" s="162" t="s">
-        <v>204</v>
+      <c r="D118" s="178">
+        <v>651.70000000000005</v>
+      </c>
+      <c r="E118" s="161" t="s">
+        <v>200</v>
       </c>
       <c r="F118" s="111" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G118" s="111" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="H118" s="111" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5984,192 +5989,200 @@
       <c r="C119" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="D119" s="189"/>
-      <c r="E119" s="162" t="s">
-        <v>204</v>
+      <c r="D119" s="178"/>
+      <c r="E119" s="161" t="s">
+        <v>200</v>
       </c>
       <c r="F119" s="111" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G119" s="111" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="H119" s="111" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" s="168" t="s">
+        <v>0</v>
+      </c>
+      <c r="B120" s="168">
+        <v>2011</v>
+      </c>
+      <c r="C120" s="168" t="s">
+        <v>8</v>
+      </c>
+      <c r="D120" s="179">
+        <v>225016</v>
+      </c>
+      <c r="E120" s="161" t="s">
+        <v>200</v>
+      </c>
+      <c r="F120" s="168" t="s">
+        <v>200</v>
+      </c>
+      <c r="G120" s="168" t="s">
+        <v>215</v>
+      </c>
+      <c r="H120" s="168" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121" s="115" t="s">
+        <v>0</v>
+      </c>
+      <c r="B121" s="115">
+        <v>2012</v>
+      </c>
+      <c r="C121" s="115" t="s">
+        <v>8</v>
+      </c>
+      <c r="D121" s="180">
+        <v>18639</v>
+      </c>
+      <c r="E121" s="161" t="s">
+        <v>200</v>
+      </c>
+      <c r="F121" s="115" t="s">
+        <v>200</v>
+      </c>
+      <c r="G121" s="111" t="s">
+        <v>207</v>
+      </c>
+      <c r="H121" s="115" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122" s="115" t="s">
+        <v>0</v>
+      </c>
+      <c r="B122" s="115">
+        <v>2012</v>
+      </c>
+      <c r="C122" s="115" t="s">
+        <v>8</v>
+      </c>
+      <c r="D122" s="180">
+        <v>10336</v>
+      </c>
+      <c r="E122" s="161" t="s">
+        <v>200</v>
+      </c>
+      <c r="F122" s="115" t="s">
+        <v>200</v>
+      </c>
+      <c r="G122" s="111" t="s">
+        <v>203</v>
+      </c>
+      <c r="H122" s="115" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" s="115" t="s">
+        <v>0</v>
+      </c>
+      <c r="B123" s="115">
+        <v>2012</v>
+      </c>
+      <c r="C123" s="115" t="s">
+        <v>8</v>
+      </c>
+      <c r="D123" s="180">
+        <v>13376</v>
+      </c>
+      <c r="E123" s="161" t="s">
+        <v>200</v>
+      </c>
+      <c r="F123" s="115" t="s">
+        <v>200</v>
+      </c>
+      <c r="G123" s="111" t="s">
+        <v>213</v>
+      </c>
+      <c r="H123" s="115" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
-      <c r="A120" s="111" t="s">
-        <v>0</v>
-      </c>
-      <c r="B120" s="111">
-        <v>2011</v>
-      </c>
-      <c r="C120" s="111" t="s">
+    <row r="124" spans="1:8">
+      <c r="A124" s="115" t="s">
+        <v>0</v>
+      </c>
+      <c r="B124" s="115">
+        <v>2012</v>
+      </c>
+      <c r="C124" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="D120" s="189"/>
-      <c r="E120" s="162" t="s">
-        <v>204</v>
-      </c>
-      <c r="F120" s="111" t="s">
-        <v>204</v>
-      </c>
-      <c r="G120" s="111" t="s">
-        <v>218</v>
-      </c>
-      <c r="H120" s="111" t="s">
+      <c r="D124" s="180">
+        <v>8000</v>
+      </c>
+      <c r="E124" s="161" t="s">
+        <v>200</v>
+      </c>
+      <c r="F124" s="115" t="s">
+        <v>200</v>
+      </c>
+      <c r="G124" s="111" t="s">
+        <v>214</v>
+      </c>
+      <c r="H124" s="115" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
-      <c r="A121" s="111" t="s">
-        <v>0</v>
-      </c>
-      <c r="B121" s="111">
-        <v>2011</v>
-      </c>
-      <c r="C121" s="111" t="s">
+    <row r="125" spans="1:8">
+      <c r="A125" s="115" t="s">
+        <v>0</v>
+      </c>
+      <c r="B125" s="115">
+        <v>2012</v>
+      </c>
+      <c r="C125" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="D121" s="189">
-        <v>5396.1</v>
-      </c>
-      <c r="E121" s="162" t="s">
-        <v>204</v>
-      </c>
-      <c r="F121" s="111" t="s">
-        <v>204</v>
-      </c>
-      <c r="G121" s="111" t="s">
-        <v>212</v>
-      </c>
-      <c r="H121" s="111" t="s">
+      <c r="D125" s="180">
+        <v>44424</v>
+      </c>
+      <c r="E125" s="161" t="s">
+        <v>200</v>
+      </c>
+      <c r="F125" s="115" t="s">
+        <v>200</v>
+      </c>
+      <c r="G125" s="111" t="s">
+        <v>208</v>
+      </c>
+      <c r="H125" s="115" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
-      <c r="A122" s="111" t="s">
-        <v>0</v>
-      </c>
-      <c r="B122" s="111">
-        <v>2011</v>
-      </c>
-      <c r="C122" s="111" t="s">
+    <row r="126" spans="1:8">
+      <c r="A126" s="115" t="s">
+        <v>0</v>
+      </c>
+      <c r="B126" s="115">
+        <v>2012</v>
+      </c>
+      <c r="C126" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="D122" s="189"/>
-      <c r="E122" s="162" t="s">
-        <v>204</v>
-      </c>
-      <c r="F122" s="111" t="s">
-        <v>204</v>
-      </c>
-      <c r="G122" s="111" t="s">
-        <v>213</v>
-      </c>
-      <c r="H122" s="111" t="s">
+      <c r="D126" s="180">
+        <v>210572</v>
+      </c>
+      <c r="E126" s="161" t="s">
+        <v>200</v>
+      </c>
+      <c r="F126" s="115" t="s">
+        <v>200</v>
+      </c>
+      <c r="G126" s="111" t="s">
+        <v>209</v>
+      </c>
+      <c r="H126" s="115" t="s">
         <v>182</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
-      <c r="A123" s="111" t="s">
-        <v>0</v>
-      </c>
-      <c r="B123" s="111">
-        <v>2011</v>
-      </c>
-      <c r="C123" s="111" t="s">
-        <v>8</v>
-      </c>
-      <c r="D123" s="189"/>
-      <c r="E123" s="162" t="s">
-        <v>204</v>
-      </c>
-      <c r="F123" s="111" t="s">
-        <v>204</v>
-      </c>
-      <c r="G123" s="111" t="s">
-        <v>214</v>
-      </c>
-      <c r="H123" s="111" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
-      <c r="A124" s="111" t="s">
-        <v>0</v>
-      </c>
-      <c r="B124" s="111">
-        <v>2011</v>
-      </c>
-      <c r="C124" s="111" t="s">
-        <v>8</v>
-      </c>
-      <c r="D124" s="189">
-        <v>651.70000000000005</v>
-      </c>
-      <c r="E124" s="162" t="s">
-        <v>204</v>
-      </c>
-      <c r="F124" s="111" t="s">
-        <v>204</v>
-      </c>
-      <c r="G124" s="111" t="s">
-        <v>215</v>
-      </c>
-      <c r="H124" s="111" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
-      <c r="A125" s="111" t="s">
-        <v>0</v>
-      </c>
-      <c r="B125" s="111">
-        <v>2011</v>
-      </c>
-      <c r="C125" s="111" t="s">
-        <v>8</v>
-      </c>
-      <c r="D125" s="189"/>
-      <c r="E125" s="162" t="s">
-        <v>204</v>
-      </c>
-      <c r="F125" s="111" t="s">
-        <v>204</v>
-      </c>
-      <c r="G125" s="111" t="s">
-        <v>216</v>
-      </c>
-      <c r="H125" s="111" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
-      <c r="A126" s="169" t="s">
-        <v>0</v>
-      </c>
-      <c r="B126" s="169">
-        <v>2011</v>
-      </c>
-      <c r="C126" s="169" t="s">
-        <v>8</v>
-      </c>
-      <c r="D126" s="190">
-        <v>225016</v>
-      </c>
-      <c r="E126" s="162" t="s">
-        <v>204</v>
-      </c>
-      <c r="F126" s="169" t="s">
-        <v>204</v>
-      </c>
-      <c r="G126" s="169" t="s">
-        <v>219</v>
-      </c>
-      <c r="H126" s="169" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -6182,20 +6195,20 @@
       <c r="C127" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="D127" s="191">
-        <v>18639</v>
-      </c>
-      <c r="E127" s="162" t="s">
-        <v>204</v>
+      <c r="D127" s="180">
+        <v>3960</v>
+      </c>
+      <c r="E127" s="161" t="s">
+        <v>200</v>
       </c>
       <c r="F127" s="115" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G127" s="111" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H127" s="115" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -6208,20 +6221,20 @@
       <c r="C128" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="D128" s="191">
-        <v>10336</v>
-      </c>
-      <c r="E128" s="162" t="s">
-        <v>204</v>
+      <c r="D128" s="180">
+        <v>7248</v>
+      </c>
+      <c r="E128" s="161" t="s">
+        <v>200</v>
       </c>
       <c r="F128" s="115" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G128" s="111" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="H128" s="115" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -6234,174 +6247,172 @@
       <c r="C129" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="D129" s="191">
-        <v>13376</v>
-      </c>
-      <c r="E129" s="162" t="s">
-        <v>204</v>
+      <c r="D129" s="180"/>
+      <c r="E129" s="161" t="s">
+        <v>200</v>
       </c>
       <c r="F129" s="115" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G129" s="111" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="H129" s="115" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130" s="117" t="s">
+        <v>0</v>
+      </c>
+      <c r="B130" s="117">
+        <v>2013</v>
+      </c>
+      <c r="C130" s="117" t="s">
+        <v>8</v>
+      </c>
+      <c r="D130" s="174">
+        <v>22691</v>
+      </c>
+      <c r="E130" s="161" t="s">
+        <v>200</v>
+      </c>
+      <c r="F130" s="117" t="s">
+        <v>200</v>
+      </c>
+      <c r="G130" s="117" t="s">
+        <v>207</v>
+      </c>
+      <c r="H130" s="117" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="A131" s="117" t="s">
+        <v>0</v>
+      </c>
+      <c r="B131" s="117">
+        <v>2013</v>
+      </c>
+      <c r="C131" s="117" t="s">
+        <v>8</v>
+      </c>
+      <c r="D131" s="174">
+        <v>19925</v>
+      </c>
+      <c r="E131" s="161" t="s">
+        <v>200</v>
+      </c>
+      <c r="F131" s="117" t="s">
+        <v>200</v>
+      </c>
+      <c r="G131" s="117" t="s">
+        <v>203</v>
+      </c>
+      <c r="H131" s="117" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="A132" s="117" t="s">
+        <v>0</v>
+      </c>
+      <c r="B132" s="117">
+        <v>2013</v>
+      </c>
+      <c r="C132" s="117" t="s">
+        <v>8</v>
+      </c>
+      <c r="D132" s="174">
+        <v>4074</v>
+      </c>
+      <c r="E132" s="161" t="s">
+        <v>200</v>
+      </c>
+      <c r="F132" s="117" t="s">
+        <v>200</v>
+      </c>
+      <c r="G132" s="117" t="s">
+        <v>213</v>
+      </c>
+      <c r="H132" s="117" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
-      <c r="A130" s="115" t="s">
-        <v>0</v>
-      </c>
-      <c r="B130" s="115">
-        <v>2012</v>
-      </c>
-      <c r="C130" s="115" t="s">
+    <row r="133" spans="1:8">
+      <c r="A133" s="117" t="s">
+        <v>0</v>
+      </c>
+      <c r="B133" s="117">
+        <v>2013</v>
+      </c>
+      <c r="C133" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="D130" s="191">
-        <v>8000</v>
-      </c>
-      <c r="E130" s="162" t="s">
-        <v>204</v>
-      </c>
-      <c r="F130" s="115" t="s">
-        <v>204</v>
-      </c>
-      <c r="G130" s="111" t="s">
-        <v>218</v>
-      </c>
-      <c r="H130" s="115" t="s">
+      <c r="D133" s="174"/>
+      <c r="E133" s="161" t="s">
+        <v>200</v>
+      </c>
+      <c r="F133" s="117" t="s">
+        <v>200</v>
+      </c>
+      <c r="G133" s="117" t="s">
+        <v>214</v>
+      </c>
+      <c r="H133" s="117" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
-      <c r="A131" s="115" t="s">
-        <v>0</v>
-      </c>
-      <c r="B131" s="115">
-        <v>2012</v>
-      </c>
-      <c r="C131" s="115" t="s">
+    <row r="134" spans="1:8">
+      <c r="A134" s="117" t="s">
+        <v>0</v>
+      </c>
+      <c r="B134" s="117">
+        <v>2013</v>
+      </c>
+      <c r="C134" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="D131" s="191">
-        <v>44424</v>
-      </c>
-      <c r="E131" s="162" t="s">
-        <v>204</v>
-      </c>
-      <c r="F131" s="115" t="s">
-        <v>204</v>
-      </c>
-      <c r="G131" s="111" t="s">
-        <v>212</v>
-      </c>
-      <c r="H131" s="115" t="s">
+      <c r="D134" s="174">
+        <v>10825</v>
+      </c>
+      <c r="E134" s="161" t="s">
+        <v>200</v>
+      </c>
+      <c r="F134" s="117" t="s">
+        <v>200</v>
+      </c>
+      <c r="G134" s="117" t="s">
+        <v>208</v>
+      </c>
+      <c r="H134" s="117" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
-      <c r="A132" s="115" t="s">
-        <v>0</v>
-      </c>
-      <c r="B132" s="115">
-        <v>2012</v>
-      </c>
-      <c r="C132" s="115" t="s">
+    <row r="135" spans="1:8">
+      <c r="A135" s="117" t="s">
+        <v>0</v>
+      </c>
+      <c r="B135" s="117">
+        <v>2013</v>
+      </c>
+      <c r="C135" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="D132" s="191">
-        <v>210572</v>
-      </c>
-      <c r="E132" s="162" t="s">
-        <v>204</v>
-      </c>
-      <c r="F132" s="115" t="s">
-        <v>204</v>
-      </c>
-      <c r="G132" s="111" t="s">
-        <v>213</v>
-      </c>
-      <c r="H132" s="115" t="s">
+      <c r="D135" s="174">
+        <v>173817</v>
+      </c>
+      <c r="E135" s="161" t="s">
+        <v>200</v>
+      </c>
+      <c r="F135" s="117" t="s">
+        <v>200</v>
+      </c>
+      <c r="G135" s="117" t="s">
+        <v>209</v>
+      </c>
+      <c r="H135" s="117" t="s">
         <v>182</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
-      <c r="A133" s="115" t="s">
-        <v>0</v>
-      </c>
-      <c r="B133" s="115">
-        <v>2012</v>
-      </c>
-      <c r="C133" s="115" t="s">
-        <v>8</v>
-      </c>
-      <c r="D133" s="191">
-        <v>3960</v>
-      </c>
-      <c r="E133" s="162" t="s">
-        <v>204</v>
-      </c>
-      <c r="F133" s="115" t="s">
-        <v>204</v>
-      </c>
-      <c r="G133" s="111" t="s">
-        <v>214</v>
-      </c>
-      <c r="H133" s="115" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
-      <c r="A134" s="115" t="s">
-        <v>0</v>
-      </c>
-      <c r="B134" s="115">
-        <v>2012</v>
-      </c>
-      <c r="C134" s="115" t="s">
-        <v>8</v>
-      </c>
-      <c r="D134" s="191">
-        <v>7248</v>
-      </c>
-      <c r="E134" s="162" t="s">
-        <v>204</v>
-      </c>
-      <c r="F134" s="115" t="s">
-        <v>204</v>
-      </c>
-      <c r="G134" s="111" t="s">
-        <v>215</v>
-      </c>
-      <c r="H134" s="115" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
-      <c r="A135" s="115" t="s">
-        <v>0</v>
-      </c>
-      <c r="B135" s="115">
-        <v>2012</v>
-      </c>
-      <c r="C135" s="115" t="s">
-        <v>8</v>
-      </c>
-      <c r="D135" s="191"/>
-      <c r="E135" s="162" t="s">
-        <v>204</v>
-      </c>
-      <c r="F135" s="115" t="s">
-        <v>204</v>
-      </c>
-      <c r="G135" s="111" t="s">
-        <v>216</v>
-      </c>
-      <c r="H135" s="115" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -6414,20 +6425,20 @@
       <c r="C136" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="D136" s="185">
-        <v>22691</v>
-      </c>
-      <c r="E136" s="162" t="s">
-        <v>204</v>
+      <c r="D136" s="174">
+        <v>508</v>
+      </c>
+      <c r="E136" s="161" t="s">
+        <v>200</v>
       </c>
       <c r="F136" s="117" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G136" s="117" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H136" s="117" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -6440,20 +6451,20 @@
       <c r="C137" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="D137" s="185">
-        <v>19925</v>
-      </c>
-      <c r="E137" s="162" t="s">
-        <v>204</v>
+      <c r="D137" s="174">
+        <v>24890</v>
+      </c>
+      <c r="E137" s="161" t="s">
+        <v>200</v>
       </c>
       <c r="F137" s="117" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G137" s="117" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="H137" s="117" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -6466,173 +6477,19 @@
       <c r="C138" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="D138" s="185">
-        <v>4074</v>
-      </c>
-      <c r="E138" s="162" t="s">
-        <v>204</v>
+      <c r="D138" s="174">
+        <v>3217</v>
+      </c>
+      <c r="E138" s="161" t="s">
+        <v>200</v>
       </c>
       <c r="F138" s="117" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G138" s="117" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="H138" s="117" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
-      <c r="A139" s="117" t="s">
-        <v>0</v>
-      </c>
-      <c r="B139" s="117">
-        <v>2013</v>
-      </c>
-      <c r="C139" s="117" t="s">
-        <v>8</v>
-      </c>
-      <c r="D139" s="185"/>
-      <c r="E139" s="162" t="s">
-        <v>204</v>
-      </c>
-      <c r="F139" s="117" t="s">
-        <v>204</v>
-      </c>
-      <c r="G139" s="117" t="s">
-        <v>218</v>
-      </c>
-      <c r="H139" s="117" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
-      <c r="A140" s="117" t="s">
-        <v>0</v>
-      </c>
-      <c r="B140" s="117">
-        <v>2013</v>
-      </c>
-      <c r="C140" s="117" t="s">
-        <v>8</v>
-      </c>
-      <c r="D140" s="185">
-        <v>10825</v>
-      </c>
-      <c r="E140" s="162" t="s">
-        <v>204</v>
-      </c>
-      <c r="F140" s="117" t="s">
-        <v>204</v>
-      </c>
-      <c r="G140" s="117" t="s">
-        <v>212</v>
-      </c>
-      <c r="H140" s="117" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
-      <c r="A141" s="117" t="s">
-        <v>0</v>
-      </c>
-      <c r="B141" s="117">
-        <v>2013</v>
-      </c>
-      <c r="C141" s="117" t="s">
-        <v>8</v>
-      </c>
-      <c r="D141" s="185">
-        <v>173817</v>
-      </c>
-      <c r="E141" s="162" t="s">
-        <v>204</v>
-      </c>
-      <c r="F141" s="117" t="s">
-        <v>204</v>
-      </c>
-      <c r="G141" s="117" t="s">
-        <v>213</v>
-      </c>
-      <c r="H141" s="117" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
-      <c r="A142" s="117" t="s">
-        <v>0</v>
-      </c>
-      <c r="B142" s="117">
-        <v>2013</v>
-      </c>
-      <c r="C142" s="117" t="s">
-        <v>8</v>
-      </c>
-      <c r="D142" s="185">
-        <v>508</v>
-      </c>
-      <c r="E142" s="162" t="s">
-        <v>204</v>
-      </c>
-      <c r="F142" s="117" t="s">
-        <v>204</v>
-      </c>
-      <c r="G142" s="117" t="s">
-        <v>214</v>
-      </c>
-      <c r="H142" s="117" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
-      <c r="A143" s="117" t="s">
-        <v>0</v>
-      </c>
-      <c r="B143" s="117">
-        <v>2013</v>
-      </c>
-      <c r="C143" s="117" t="s">
-        <v>8</v>
-      </c>
-      <c r="D143" s="185">
-        <v>24890</v>
-      </c>
-      <c r="E143" s="162" t="s">
-        <v>204</v>
-      </c>
-      <c r="F143" s="117" t="s">
-        <v>204</v>
-      </c>
-      <c r="G143" s="117" t="s">
-        <v>215</v>
-      </c>
-      <c r="H143" s="117" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
-      <c r="A144" s="117" t="s">
-        <v>0</v>
-      </c>
-      <c r="B144" s="117">
-        <v>2013</v>
-      </c>
-      <c r="C144" s="117" t="s">
-        <v>8</v>
-      </c>
-      <c r="D144" s="185">
-        <v>3217</v>
-      </c>
-      <c r="E144" s="162" t="s">
-        <v>204</v>
-      </c>
-      <c r="F144" s="117" t="s">
-        <v>204</v>
-      </c>
-      <c r="G144" s="117" t="s">
-        <v>216</v>
-      </c>
-      <c r="H144" s="117" t="s">
         <v>185</v>
       </c>
     </row>
@@ -6880,12 +6737,12 @@
       <c r="G17" s="49"/>
     </row>
     <row r="18" spans="3:7">
-      <c r="C18" s="171"/>
+      <c r="C18" s="181"/>
       <c r="E18" s="49"/>
       <c r="F18" s="49"/>
     </row>
     <row r="19" spans="3:7">
-      <c r="C19" s="171"/>
+      <c r="C19" s="181"/>
       <c r="E19" s="49"/>
       <c r="F19" s="49"/>
       <c r="G19" s="49"/>
@@ -12200,11 +12057,11 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="138"/>
-      <c r="B1" s="172"/>
-      <c r="C1" s="172"/>
+      <c r="B1" s="182"/>
+      <c r="C1" s="182"/>
       <c r="D1" s="139"/>
-      <c r="E1" s="173"/>
-      <c r="F1" s="173"/>
+      <c r="E1" s="183"/>
+      <c r="F1" s="183"/>
       <c r="G1" s="138"/>
     </row>
     <row r="2" spans="1:13">
@@ -12232,17 +12089,17 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="138"/>
-      <c r="B4" s="172" t="s">
+      <c r="B4" s="182" t="s">
         <v>166</v>
       </c>
-      <c r="C4" s="172"/>
+      <c r="C4" s="182"/>
       <c r="D4" s="139" t="s">
         <v>167</v>
       </c>
-      <c r="E4" s="173" t="s">
+      <c r="E4" s="183" t="s">
         <v>168</v>
       </c>
-      <c r="F4" s="173"/>
+      <c r="F4" s="183"/>
       <c r="G4" s="138"/>
     </row>
     <row r="5" spans="1:13">
@@ -12298,10 +12155,10 @@
       <c r="K7" s="94" t="s">
         <v>167</v>
       </c>
-      <c r="L7" s="174" t="s">
+      <c r="L7" s="184" t="s">
         <v>168</v>
       </c>
-      <c r="M7" s="175"/>
+      <c r="M7" s="185"/>
     </row>
     <row r="8" spans="1:13" ht="21" thickBot="1">
       <c r="A8" s="138"/>
@@ -12718,17 +12575,17 @@
       </c>
     </row>
     <row r="6" spans="7:20" ht="16" thickBot="1">
-      <c r="G6" s="176" t="s">
+      <c r="G6" s="186" t="s">
         <v>166</v>
       </c>
-      <c r="H6" s="177"/>
+      <c r="H6" s="187"/>
       <c r="I6" s="118" t="s">
         <v>167</v>
       </c>
-      <c r="J6" s="178" t="s">
+      <c r="J6" s="188" t="s">
         <v>168</v>
       </c>
-      <c r="K6" s="179"/>
+      <c r="K6" s="189"/>
       <c r="P6" s="127"/>
       <c r="Q6" s="128" t="s">
         <v>169</v>

--- a/db/budgie-sample-data.xlsx
+++ b/db/budgie-sample-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6140" yWindow="0" windowWidth="42000" windowHeight="25040" tabRatio="500"/>
+    <workbookView xWindow="4160" yWindow="40" windowWidth="42000" windowHeight="25040" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="budgie-sample-data.csv" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="247">
   <si>
     <t>Papua New Guinea</t>
   </si>
@@ -66,9 +66,6 @@
     <t>Recurrent Spending</t>
   </si>
   <si>
-    <t>health</t>
-  </si>
-  <si>
     <t>Change</t>
   </si>
   <si>
@@ -627,9 +624,6 @@
     <t>Provincial Government-Development Spending</t>
   </si>
   <si>
-    <t>education</t>
-  </si>
-  <si>
     <t>Dept of Education- Recurrent Spending</t>
   </si>
   <si>
@@ -753,31 +747,25 @@
     <t>dmissheal</t>
   </si>
   <si>
-    <t>redone</t>
-  </si>
-  <si>
-    <t>dedone</t>
-  </si>
-  <si>
-    <t>redltwo</t>
-  </si>
-  <si>
-    <t>dedwo</t>
-  </si>
-  <si>
-    <t>redthree</t>
-  </si>
-  <si>
-    <t>dedthree</t>
-  </si>
-  <si>
     <t>Sector</t>
   </si>
   <si>
     <t>Dept of Health</t>
   </si>
   <si>
-    <t>provinces</t>
+    <t>01-provincial-sector</t>
+  </si>
+  <si>
+    <t>02-health-sector</t>
+  </si>
+  <si>
+    <t>03-education-sector</t>
+  </si>
+  <si>
+    <t>02.1-health-dept</t>
+  </si>
+  <si>
+    <t>03.1-education-dept</t>
   </si>
 </sst>
 </file>
@@ -2988,8 +2976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P138"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="D140" sqref="D140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -2997,7 +2985,7 @@
     <col min="1" max="1" width="18.83203125" style="106" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="10.83203125" style="106"/>
     <col min="4" max="4" width="13.5" style="106" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5" style="106" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28" style="106" customWidth="1"/>
     <col min="6" max="6" width="22.6640625" style="106" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="30.1640625" style="106" customWidth="1"/>
     <col min="8" max="8" width="54.83203125" style="106" bestFit="1" customWidth="1"/>
@@ -3020,7 +3008,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="169" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="F1" s="169" t="s">
         <v>6</v>
@@ -3035,7 +3023,7 @@
         <v>4</v>
       </c>
       <c r="J1" s="169" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -3160,12 +3148,12 @@
         <v>1318411</v>
       </c>
       <c r="E8" s="160" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="F8" s="108"/>
       <c r="G8" s="107"/>
       <c r="H8" s="108" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -3182,12 +3170,12 @@
         <v>313140</v>
       </c>
       <c r="E9" s="160" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="F9" s="108"/>
       <c r="G9" s="107"/>
       <c r="H9" s="108" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -3204,12 +3192,12 @@
         <v>1304374</v>
       </c>
       <c r="E10" s="160" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="F10" s="108"/>
       <c r="G10" s="107"/>
       <c r="H10" s="108" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -3226,12 +3214,12 @@
         <v>365104</v>
       </c>
       <c r="E11" s="160" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="F11" s="108"/>
       <c r="G11" s="107"/>
       <c r="H11" s="108" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -3248,12 +3236,12 @@
         <v>1501457</v>
       </c>
       <c r="E12" s="160" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="F12" s="108"/>
       <c r="G12" s="107"/>
       <c r="H12" s="108" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -3270,12 +3258,12 @@
         <v>1955953</v>
       </c>
       <c r="E13" s="160" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="F13" s="108"/>
       <c r="G13" s="107"/>
       <c r="H13" s="108" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -3292,14 +3280,14 @@
         <v>253569</v>
       </c>
       <c r="E14" s="161" t="s">
-        <v>13</v>
+        <v>243</v>
       </c>
       <c r="F14" s="109" t="s">
-        <v>13</v>
+        <v>245</v>
       </c>
       <c r="G14" s="161"/>
       <c r="H14" s="109" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -3316,14 +3304,14 @@
         <v>219874</v>
       </c>
       <c r="E15" s="161" t="s">
-        <v>13</v>
+        <v>243</v>
       </c>
       <c r="F15" s="109" t="s">
-        <v>13</v>
+        <v>245</v>
       </c>
       <c r="G15" s="161"/>
       <c r="H15" s="109" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -3340,14 +3328,14 @@
         <v>272148</v>
       </c>
       <c r="E16" s="161" t="s">
-        <v>13</v>
+        <v>243</v>
       </c>
       <c r="F16" s="109" t="s">
-        <v>13</v>
+        <v>245</v>
       </c>
       <c r="G16" s="161"/>
       <c r="H16" s="109" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -3364,14 +3352,14 @@
         <v>265367</v>
       </c>
       <c r="E17" s="161" t="s">
-        <v>13</v>
+        <v>243</v>
       </c>
       <c r="F17" s="109" t="s">
-        <v>13</v>
+        <v>245</v>
       </c>
       <c r="G17" s="161"/>
       <c r="H17" s="109" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -3388,14 +3376,14 @@
         <v>275641</v>
       </c>
       <c r="E18" s="161" t="s">
-        <v>13</v>
+        <v>243</v>
       </c>
       <c r="F18" s="109" t="s">
-        <v>13</v>
+        <v>245</v>
       </c>
       <c r="G18" s="161"/>
       <c r="H18" s="109" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -3412,14 +3400,14 @@
         <v>190923</v>
       </c>
       <c r="E19" s="161" t="s">
-        <v>13</v>
+        <v>243</v>
       </c>
       <c r="F19" s="109" t="s">
-        <v>13</v>
+        <v>245</v>
       </c>
       <c r="G19" s="161"/>
       <c r="H19" s="109" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -3436,16 +3424,16 @@
         <v>3423.1</v>
       </c>
       <c r="E20" s="161" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="163" t="s">
-        <v>13</v>
+        <v>243</v>
+      </c>
+      <c r="F20" s="109" t="s">
+        <v>245</v>
       </c>
       <c r="G20" s="163" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H20" s="112" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -3462,16 +3450,16 @@
         <v>784.7</v>
       </c>
       <c r="E21" s="161" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="163" t="s">
-        <v>13</v>
+        <v>243</v>
+      </c>
+      <c r="F21" s="109" t="s">
+        <v>245</v>
       </c>
       <c r="G21" s="163" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H21" s="112" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -3488,16 +3476,16 @@
         <v>1993.6</v>
       </c>
       <c r="E22" s="161" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="163" t="s">
-        <v>13</v>
+        <v>243</v>
+      </c>
+      <c r="F22" s="109" t="s">
+        <v>245</v>
       </c>
       <c r="G22" s="163" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H22" s="112" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -3514,16 +3502,16 @@
         <v>1033.0999999999999</v>
       </c>
       <c r="E23" s="161" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="163" t="s">
-        <v>13</v>
+        <v>243</v>
+      </c>
+      <c r="F23" s="109" t="s">
+        <v>245</v>
       </c>
       <c r="G23" s="163" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H23" s="112" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -3540,16 +3528,16 @@
         <v>25527.3</v>
       </c>
       <c r="E24" s="161" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="163" t="s">
-        <v>13</v>
+        <v>243</v>
+      </c>
+      <c r="F24" s="109" t="s">
+        <v>245</v>
       </c>
       <c r="G24" s="163" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H24" s="112" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K24" s="162"/>
       <c r="L24" s="162"/>
@@ -3568,16 +3556,16 @@
         <v>159912.70000000001</v>
       </c>
       <c r="E25" s="161" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="163" t="s">
-        <v>13</v>
+        <v>243</v>
+      </c>
+      <c r="F25" s="109" t="s">
+        <v>245</v>
       </c>
       <c r="G25" s="163" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H25" s="112" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K25" s="162"/>
       <c r="L25" s="162"/>
@@ -3596,16 +3584,16 @@
         <v>33364.400000000001</v>
       </c>
       <c r="E26" s="161" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" s="163" t="s">
-        <v>13</v>
+        <v>243</v>
+      </c>
+      <c r="F26" s="109" t="s">
+        <v>245</v>
       </c>
       <c r="G26" s="163" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H26" s="112" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -3622,16 +3610,16 @@
         <v>23911.9</v>
       </c>
       <c r="E27" s="161" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="163" t="s">
-        <v>13</v>
+        <v>243</v>
+      </c>
+      <c r="F27" s="109" t="s">
+        <v>245</v>
       </c>
       <c r="G27" s="163" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H27" s="112" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L27" s="162"/>
     </row>
@@ -3649,16 +3637,16 @@
         <v>3618.2</v>
       </c>
       <c r="E28" s="161" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" s="163" t="s">
-        <v>13</v>
+        <v>243</v>
+      </c>
+      <c r="F28" s="109" t="s">
+        <v>245</v>
       </c>
       <c r="G28" s="163" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H28" s="112" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -3675,16 +3663,16 @@
         <v>8113.4</v>
       </c>
       <c r="E29" s="161" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29" s="164" t="s">
-        <v>13</v>
+        <v>243</v>
+      </c>
+      <c r="F29" s="109" t="s">
+        <v>245</v>
       </c>
       <c r="G29" s="164" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H29" s="113" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -3701,16 +3689,16 @@
         <v>1100.7</v>
       </c>
       <c r="E30" s="161" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" s="164" t="s">
-        <v>13</v>
+        <v>243</v>
+      </c>
+      <c r="F30" s="109" t="s">
+        <v>245</v>
       </c>
       <c r="G30" s="164" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H30" s="113" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -3727,16 +3715,16 @@
         <v>3389.8</v>
       </c>
       <c r="E31" s="161" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" s="164" t="s">
-        <v>13</v>
+        <v>243</v>
+      </c>
+      <c r="F31" s="109" t="s">
+        <v>245</v>
       </c>
       <c r="G31" s="164" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H31" s="113" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -3753,16 +3741,16 @@
         <v>1137.8</v>
       </c>
       <c r="E32" s="161" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" s="164" t="s">
-        <v>13</v>
+        <v>243</v>
+      </c>
+      <c r="F32" s="109" t="s">
+        <v>245</v>
       </c>
       <c r="G32" s="164" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H32" s="113" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -3779,16 +3767,16 @@
         <v>27042.6</v>
       </c>
       <c r="E33" s="161" t="s">
-        <v>13</v>
-      </c>
-      <c r="F33" s="164" t="s">
-        <v>13</v>
+        <v>243</v>
+      </c>
+      <c r="F33" s="109" t="s">
+        <v>245</v>
       </c>
       <c r="G33" s="164" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H33" s="113" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -3805,16 +3793,16 @@
         <v>161607.9</v>
       </c>
       <c r="E34" s="161" t="s">
-        <v>13</v>
-      </c>
-      <c r="F34" s="164" t="s">
-        <v>13</v>
+        <v>243</v>
+      </c>
+      <c r="F34" s="109" t="s">
+        <v>245</v>
       </c>
       <c r="G34" s="164" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H34" s="113" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3831,16 +3819,16 @@
         <v>25549.5</v>
       </c>
       <c r="E35" s="161" t="s">
-        <v>13</v>
-      </c>
-      <c r="F35" s="164" t="s">
-        <v>13</v>
+        <v>243</v>
+      </c>
+      <c r="F35" s="109" t="s">
+        <v>245</v>
       </c>
       <c r="G35" s="164" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H35" s="113" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3857,16 +3845,16 @@
         <v>39005.1</v>
       </c>
       <c r="E36" s="161" t="s">
-        <v>13</v>
-      </c>
-      <c r="F36" s="164" t="s">
-        <v>13</v>
+        <v>243</v>
+      </c>
+      <c r="F36" s="109" t="s">
+        <v>245</v>
       </c>
       <c r="G36" s="164" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H36" s="113" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3883,16 +3871,16 @@
         <v>5200.8</v>
       </c>
       <c r="E37" s="161" t="s">
-        <v>13</v>
-      </c>
-      <c r="F37" s="164" t="s">
-        <v>13</v>
+        <v>243</v>
+      </c>
+      <c r="F37" s="109" t="s">
+        <v>245</v>
       </c>
       <c r="G37" s="164" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H37" s="113" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3909,16 +3897,16 @@
         <v>7232.8</v>
       </c>
       <c r="E38" s="161" t="s">
-        <v>13</v>
-      </c>
-      <c r="F38" s="165" t="s">
-        <v>13</v>
+        <v>243</v>
+      </c>
+      <c r="F38" s="109" t="s">
+        <v>245</v>
       </c>
       <c r="G38" s="165" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H38" s="114" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3935,16 +3923,16 @@
         <v>1208.7</v>
       </c>
       <c r="E39" s="161" t="s">
-        <v>13</v>
-      </c>
-      <c r="F39" s="165" t="s">
-        <v>13</v>
+        <v>243</v>
+      </c>
+      <c r="F39" s="109" t="s">
+        <v>245</v>
       </c>
       <c r="G39" s="165" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H39" s="114" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3961,16 +3949,16 @@
         <v>3016.4</v>
       </c>
       <c r="E40" s="161" t="s">
-        <v>13</v>
-      </c>
-      <c r="F40" s="165" t="s">
-        <v>13</v>
+        <v>243</v>
+      </c>
+      <c r="F40" s="109" t="s">
+        <v>245</v>
       </c>
       <c r="G40" s="165" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H40" s="114" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3987,16 +3975,16 @@
         <v>1051.8</v>
       </c>
       <c r="E41" s="161" t="s">
-        <v>13</v>
-      </c>
-      <c r="F41" s="165" t="s">
-        <v>13</v>
+        <v>243</v>
+      </c>
+      <c r="F41" s="109" t="s">
+        <v>245</v>
       </c>
       <c r="G41" s="165" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H41" s="114" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -4013,16 +4001,16 @@
         <v>27715.1</v>
       </c>
       <c r="E42" s="161" t="s">
-        <v>13</v>
-      </c>
-      <c r="F42" s="165" t="s">
-        <v>13</v>
+        <v>243</v>
+      </c>
+      <c r="F42" s="109" t="s">
+        <v>245</v>
       </c>
       <c r="G42" s="165" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H42" s="114" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -4039,16 +4027,16 @@
         <v>164695.4</v>
       </c>
       <c r="E43" s="161" t="s">
-        <v>13</v>
-      </c>
-      <c r="F43" s="165" t="s">
-        <v>13</v>
+        <v>243</v>
+      </c>
+      <c r="F43" s="109" t="s">
+        <v>245</v>
       </c>
       <c r="G43" s="165" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H43" s="114" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -4065,16 +4053,16 @@
         <v>24205.8</v>
       </c>
       <c r="E44" s="161" t="s">
-        <v>13</v>
-      </c>
-      <c r="F44" s="165" t="s">
-        <v>13</v>
+        <v>243</v>
+      </c>
+      <c r="F44" s="109" t="s">
+        <v>245</v>
       </c>
       <c r="G44" s="165" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H44" s="114" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -4091,16 +4079,16 @@
         <v>33220</v>
       </c>
       <c r="E45" s="161" t="s">
-        <v>13</v>
-      </c>
-      <c r="F45" s="165" t="s">
-        <v>13</v>
+        <v>243</v>
+      </c>
+      <c r="F45" s="109" t="s">
+        <v>245</v>
       </c>
       <c r="G45" s="165" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H45" s="114" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -4117,16 +4105,16 @@
         <v>13295.2</v>
       </c>
       <c r="E46" s="161" t="s">
-        <v>13</v>
-      </c>
-      <c r="F46" s="165" t="s">
-        <v>13</v>
+        <v>243</v>
+      </c>
+      <c r="F46" s="109" t="s">
+        <v>245</v>
       </c>
       <c r="G46" s="165" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H46" s="114" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -4143,16 +4131,16 @@
         <v>7329.6</v>
       </c>
       <c r="E47" s="161" t="s">
-        <v>13</v>
-      </c>
-      <c r="F47" s="163" t="s">
-        <v>13</v>
+        <v>243</v>
+      </c>
+      <c r="F47" s="109" t="s">
+        <v>245</v>
       </c>
       <c r="G47" s="163" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H47" s="112" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -4169,16 +4157,16 @@
         <v>13489.9</v>
       </c>
       <c r="E48" s="161" t="s">
-        <v>13</v>
-      </c>
-      <c r="F48" s="163" t="s">
-        <v>13</v>
+        <v>243</v>
+      </c>
+      <c r="F48" s="109" t="s">
+        <v>245</v>
       </c>
       <c r="G48" s="163" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H48" s="112" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -4191,18 +4179,20 @@
       <c r="C49" s="163" t="s">
         <v>8</v>
       </c>
-      <c r="D49" s="173"/>
+      <c r="D49" s="173">
+        <v>0</v>
+      </c>
       <c r="E49" s="161" t="s">
-        <v>13</v>
-      </c>
-      <c r="F49" s="163" t="s">
-        <v>13</v>
+        <v>243</v>
+      </c>
+      <c r="F49" s="109" t="s">
+        <v>245</v>
       </c>
       <c r="G49" s="163" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H49" s="112" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -4219,16 +4209,16 @@
         <v>4182.6000000000004</v>
       </c>
       <c r="E50" s="161" t="s">
-        <v>13</v>
-      </c>
-      <c r="F50" s="163" t="s">
-        <v>13</v>
+        <v>243</v>
+      </c>
+      <c r="F50" s="109" t="s">
+        <v>245</v>
       </c>
       <c r="G50" s="163" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H50" s="112" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -4241,18 +4231,20 @@
       <c r="C51" s="163" t="s">
         <v>8</v>
       </c>
-      <c r="D51" s="173"/>
+      <c r="D51" s="173">
+        <v>0</v>
+      </c>
       <c r="E51" s="161" t="s">
-        <v>13</v>
-      </c>
-      <c r="F51" s="163" t="s">
-        <v>13</v>
+        <v>243</v>
+      </c>
+      <c r="F51" s="109" t="s">
+        <v>245</v>
       </c>
       <c r="G51" s="163" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H51" s="112" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -4265,18 +4257,20 @@
       <c r="C52" s="163" t="s">
         <v>8</v>
       </c>
-      <c r="D52" s="173"/>
+      <c r="D52" s="173">
+        <v>0</v>
+      </c>
       <c r="E52" s="161" t="s">
-        <v>13</v>
-      </c>
-      <c r="F52" s="163" t="s">
-        <v>13</v>
+        <v>243</v>
+      </c>
+      <c r="F52" s="109" t="s">
+        <v>245</v>
       </c>
       <c r="G52" s="163" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H52" s="112" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -4293,16 +4287,16 @@
         <v>665</v>
       </c>
       <c r="E53" s="161" t="s">
-        <v>13</v>
-      </c>
-      <c r="F53" s="163" t="s">
-        <v>13</v>
+        <v>243</v>
+      </c>
+      <c r="F53" s="109" t="s">
+        <v>245</v>
       </c>
       <c r="G53" s="163" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H53" s="112" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -4319,16 +4313,16 @@
         <v>4443.3999999999996</v>
       </c>
       <c r="E54" s="161" t="s">
-        <v>13</v>
-      </c>
-      <c r="F54" s="163" t="s">
-        <v>13</v>
+        <v>243</v>
+      </c>
+      <c r="F54" s="109" t="s">
+        <v>245</v>
       </c>
       <c r="G54" s="163" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H54" s="112" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -4341,18 +4335,20 @@
       <c r="C55" s="163" t="s">
         <v>8</v>
       </c>
-      <c r="D55" s="173"/>
+      <c r="D55" s="173">
+        <v>0</v>
+      </c>
       <c r="E55" s="161" t="s">
-        <v>13</v>
-      </c>
-      <c r="F55" s="163" t="s">
-        <v>13</v>
+        <v>243</v>
+      </c>
+      <c r="F55" s="109" t="s">
+        <v>245</v>
       </c>
       <c r="G55" s="163" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H55" s="112" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -4369,16 +4365,16 @@
         <v>189764</v>
       </c>
       <c r="E56" s="161" t="s">
-        <v>13</v>
-      </c>
-      <c r="F56" s="166" t="s">
-        <v>13</v>
+        <v>243</v>
+      </c>
+      <c r="F56" s="109" t="s">
+        <v>245</v>
       </c>
       <c r="G56" s="166" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H56" s="110" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -4395,16 +4391,16 @@
         <v>10048</v>
       </c>
       <c r="E57" s="161" t="s">
-        <v>13</v>
-      </c>
-      <c r="F57" s="164" t="s">
-        <v>13</v>
+        <v>243</v>
+      </c>
+      <c r="F57" s="109" t="s">
+        <v>245</v>
       </c>
       <c r="G57" s="164" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H57" s="113" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -4421,16 +4417,16 @@
         <v>20072</v>
       </c>
       <c r="E58" s="161" t="s">
-        <v>13</v>
-      </c>
-      <c r="F58" s="164" t="s">
-        <v>13</v>
+        <v>243</v>
+      </c>
+      <c r="F58" s="109" t="s">
+        <v>245</v>
       </c>
       <c r="G58" s="164" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H58" s="113" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -4443,18 +4439,20 @@
       <c r="C59" s="164" t="s">
         <v>8</v>
       </c>
-      <c r="D59" s="174"/>
+      <c r="D59" s="174">
+        <v>0</v>
+      </c>
       <c r="E59" s="161" t="s">
-        <v>13</v>
-      </c>
-      <c r="F59" s="164" t="s">
-        <v>13</v>
+        <v>243</v>
+      </c>
+      <c r="F59" s="109" t="s">
+        <v>245</v>
       </c>
       <c r="G59" s="164" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H59" s="113" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -4467,18 +4465,20 @@
       <c r="C60" s="164" t="s">
         <v>8</v>
       </c>
-      <c r="D60" s="174"/>
+      <c r="D60" s="174">
+        <v>0</v>
+      </c>
       <c r="E60" s="161" t="s">
-        <v>13</v>
-      </c>
-      <c r="F60" s="164" t="s">
-        <v>13</v>
+        <v>243</v>
+      </c>
+      <c r="F60" s="109" t="s">
+        <v>245</v>
       </c>
       <c r="G60" s="164" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H60" s="113" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -4495,16 +4495,16 @@
         <v>7000</v>
       </c>
       <c r="E61" s="161" t="s">
-        <v>13</v>
-      </c>
-      <c r="F61" s="164" t="s">
-        <v>13</v>
+        <v>243</v>
+      </c>
+      <c r="F61" s="109" t="s">
+        <v>245</v>
       </c>
       <c r="G61" s="164" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H61" s="113" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -4521,16 +4521,16 @@
         <v>12200</v>
       </c>
       <c r="E62" s="161" t="s">
-        <v>13</v>
-      </c>
-      <c r="F62" s="164" t="s">
-        <v>13</v>
+        <v>243</v>
+      </c>
+      <c r="F62" s="109" t="s">
+        <v>245</v>
       </c>
       <c r="G62" s="164" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H62" s="113" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -4547,16 +4547,16 @@
         <v>30508</v>
       </c>
       <c r="E63" s="161" t="s">
-        <v>13</v>
-      </c>
-      <c r="F63" s="164" t="s">
-        <v>13</v>
+        <v>243</v>
+      </c>
+      <c r="F63" s="109" t="s">
+        <v>245</v>
       </c>
       <c r="G63" s="164" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H63" s="113" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -4573,16 +4573,16 @@
         <v>185539</v>
       </c>
       <c r="E64" s="161" t="s">
-        <v>13</v>
-      </c>
-      <c r="F64" s="164" t="s">
-        <v>13</v>
+        <v>243</v>
+      </c>
+      <c r="F64" s="109" t="s">
+        <v>245</v>
       </c>
       <c r="G64" s="164" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H64" s="113" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -4595,18 +4595,20 @@
       <c r="C65" s="164" t="s">
         <v>8</v>
       </c>
-      <c r="D65" s="174"/>
+      <c r="D65" s="174">
+        <v>0</v>
+      </c>
       <c r="E65" s="161" t="s">
-        <v>13</v>
-      </c>
-      <c r="F65" s="164" t="s">
-        <v>13</v>
+        <v>243</v>
+      </c>
+      <c r="F65" s="109" t="s">
+        <v>245</v>
       </c>
       <c r="G65" s="164" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H65" s="113" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -4623,16 +4625,16 @@
         <v>1862</v>
       </c>
       <c r="E66" s="161" t="s">
-        <v>13</v>
-      </c>
-      <c r="F66" s="165" t="s">
-        <v>13</v>
+        <v>243</v>
+      </c>
+      <c r="F66" s="109" t="s">
+        <v>245</v>
       </c>
       <c r="G66" s="165" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H66" s="114" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -4645,18 +4647,20 @@
       <c r="C67" s="165" t="s">
         <v>8</v>
       </c>
-      <c r="D67" s="175"/>
+      <c r="D67" s="175">
+        <v>0</v>
+      </c>
       <c r="E67" s="161" t="s">
-        <v>13</v>
-      </c>
-      <c r="F67" s="165" t="s">
-        <v>13</v>
+        <v>243</v>
+      </c>
+      <c r="F67" s="109" t="s">
+        <v>245</v>
       </c>
       <c r="G67" s="165" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H67" s="114" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -4673,16 +4677,16 @@
         <v>1591</v>
       </c>
       <c r="E68" s="161" t="s">
-        <v>13</v>
-      </c>
-      <c r="F68" s="165" t="s">
-        <v>13</v>
+        <v>243</v>
+      </c>
+      <c r="F68" s="109" t="s">
+        <v>245</v>
       </c>
       <c r="G68" s="165" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H68" s="114" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -4699,16 +4703,16 @@
         <v>21951</v>
       </c>
       <c r="E69" s="161" t="s">
-        <v>13</v>
-      </c>
-      <c r="F69" s="165" t="s">
-        <v>13</v>
+        <v>243</v>
+      </c>
+      <c r="F69" s="109" t="s">
+        <v>245</v>
       </c>
       <c r="G69" s="165" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H69" s="114" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -4725,16 +4729,16 @@
         <v>6800</v>
       </c>
       <c r="E70" s="161" t="s">
-        <v>13</v>
-      </c>
-      <c r="F70" s="165" t="s">
-        <v>13</v>
+        <v>243</v>
+      </c>
+      <c r="F70" s="109" t="s">
+        <v>245</v>
       </c>
       <c r="G70" s="165" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H70" s="114" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -4751,16 +4755,16 @@
         <v>10000</v>
       </c>
       <c r="E71" s="161" t="s">
-        <v>13</v>
-      </c>
-      <c r="F71" s="165" t="s">
-        <v>13</v>
+        <v>243</v>
+      </c>
+      <c r="F71" s="109" t="s">
+        <v>245</v>
       </c>
       <c r="G71" s="165" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H71" s="114" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -4777,16 +4781,16 @@
         <v>31035</v>
       </c>
       <c r="E72" s="161" t="s">
-        <v>13</v>
-      </c>
-      <c r="F72" s="165" t="s">
-        <v>13</v>
+        <v>243</v>
+      </c>
+      <c r="F72" s="109" t="s">
+        <v>245</v>
       </c>
       <c r="G72" s="165" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H72" s="114" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -4803,16 +4807,16 @@
         <v>79392</v>
       </c>
       <c r="E73" s="161" t="s">
-        <v>13</v>
-      </c>
-      <c r="F73" s="165" t="s">
-        <v>13</v>
+        <v>243</v>
+      </c>
+      <c r="F73" s="109" t="s">
+        <v>245</v>
       </c>
       <c r="G73" s="165" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H73" s="114" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -4829,16 +4833,16 @@
         <v>38292</v>
       </c>
       <c r="E74" s="161" t="s">
-        <v>13</v>
-      </c>
-      <c r="F74" s="165" t="s">
-        <v>13</v>
+        <v>243</v>
+      </c>
+      <c r="F74" s="109" t="s">
+        <v>245</v>
       </c>
       <c r="G74" s="165" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H74" s="114" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -4855,16 +4859,14 @@
         <v>355776</v>
       </c>
       <c r="E75" s="161" t="s">
-        <v>200</v>
+        <v>244</v>
       </c>
       <c r="F75" s="109" t="s">
-        <v>200</v>
-      </c>
-      <c r="G75" s="161" t="s">
-        <v>242</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="G75" s="161"/>
       <c r="H75" s="109" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -4881,16 +4883,14 @@
         <v>240434</v>
       </c>
       <c r="E76" s="161" t="s">
+        <v>244</v>
+      </c>
+      <c r="F76" s="109" t="s">
+        <v>246</v>
+      </c>
+      <c r="G76" s="161"/>
+      <c r="H76" s="109" t="s">
         <v>200</v>
-      </c>
-      <c r="F76" s="109" t="s">
-        <v>200</v>
-      </c>
-      <c r="G76" s="161" t="s">
-        <v>243</v>
-      </c>
-      <c r="H76" s="109" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -4907,16 +4907,14 @@
         <v>482238</v>
       </c>
       <c r="E77" s="161" t="s">
-        <v>200</v>
+        <v>244</v>
       </c>
       <c r="F77" s="109" t="s">
-        <v>200</v>
-      </c>
-      <c r="G77" s="161" t="s">
-        <v>244</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="G77" s="161"/>
       <c r="H77" s="109" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -4933,16 +4931,14 @@
         <v>316555</v>
       </c>
       <c r="E78" s="161" t="s">
+        <v>244</v>
+      </c>
+      <c r="F78" s="109" t="s">
+        <v>246</v>
+      </c>
+      <c r="G78" s="161"/>
+      <c r="H78" s="109" t="s">
         <v>200</v>
-      </c>
-      <c r="F78" s="109" t="s">
-        <v>200</v>
-      </c>
-      <c r="G78" s="161" t="s">
-        <v>245</v>
-      </c>
-      <c r="H78" s="109" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -4959,16 +4955,14 @@
         <v>857930</v>
       </c>
       <c r="E79" s="161" t="s">
-        <v>200</v>
+        <v>244</v>
       </c>
       <c r="F79" s="109" t="s">
-        <v>200</v>
-      </c>
-      <c r="G79" s="161" t="s">
         <v>246</v>
       </c>
+      <c r="G79" s="161"/>
       <c r="H79" s="109" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -4985,16 +4979,14 @@
         <v>259947</v>
       </c>
       <c r="E80" s="161" t="s">
+        <v>244</v>
+      </c>
+      <c r="F80" s="109" t="s">
+        <v>246</v>
+      </c>
+      <c r="G80" s="161"/>
+      <c r="H80" s="109" t="s">
         <v>200</v>
-      </c>
-      <c r="F80" s="109" t="s">
-        <v>200</v>
-      </c>
-      <c r="G80" s="161" t="s">
-        <v>247</v>
-      </c>
-      <c r="H80" s="109" t="s">
-        <v>202</v>
       </c>
       <c r="K80" s="162"/>
     </row>
@@ -5012,16 +5004,16 @@
         <v>463.8</v>
       </c>
       <c r="E81" s="161" t="s">
-        <v>200</v>
-      </c>
-      <c r="F81" s="111" t="s">
-        <v>200</v>
+        <v>244</v>
+      </c>
+      <c r="F81" s="109" t="s">
+        <v>246</v>
       </c>
       <c r="G81" s="111" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H81" s="111" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="82" spans="1:16">
@@ -5038,16 +5030,16 @@
         <v>29316.3</v>
       </c>
       <c r="E82" s="161" t="s">
-        <v>200</v>
-      </c>
-      <c r="F82" s="111" t="s">
-        <v>200</v>
+        <v>244</v>
+      </c>
+      <c r="F82" s="109" t="s">
+        <v>246</v>
       </c>
       <c r="G82" s="111" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H82" s="111" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="83" spans="1:16">
@@ -5064,16 +5056,16 @@
         <v>53461.8</v>
       </c>
       <c r="E83" s="161" t="s">
-        <v>200</v>
-      </c>
-      <c r="F83" s="111" t="s">
-        <v>200</v>
+        <v>244</v>
+      </c>
+      <c r="F83" s="109" t="s">
+        <v>246</v>
       </c>
       <c r="G83" s="111" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H83" s="111" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="84" spans="1:16">
@@ -5090,16 +5082,16 @@
         <v>36968.9</v>
       </c>
       <c r="E84" s="161" t="s">
-        <v>200</v>
-      </c>
-      <c r="F84" s="111" t="s">
-        <v>200</v>
+        <v>244</v>
+      </c>
+      <c r="F84" s="109" t="s">
+        <v>246</v>
       </c>
       <c r="G84" s="111" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H84" s="111" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="P84" s="159"/>
     </row>
@@ -5117,16 +5109,16 @@
         <v>192313.3</v>
       </c>
       <c r="E85" s="161" t="s">
-        <v>200</v>
-      </c>
-      <c r="F85" s="111" t="s">
-        <v>200</v>
+        <v>244</v>
+      </c>
+      <c r="F85" s="109" t="s">
+        <v>246</v>
       </c>
       <c r="G85" s="111" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H85" s="111" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P85" s="162"/>
     </row>
@@ -5144,16 +5136,16 @@
         <v>3528.7</v>
       </c>
       <c r="E86" s="161" t="s">
-        <v>200</v>
-      </c>
-      <c r="F86" s="111" t="s">
-        <v>200</v>
+        <v>244</v>
+      </c>
+      <c r="F86" s="109" t="s">
+        <v>246</v>
       </c>
       <c r="G86" s="111" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H86" s="111" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="87" spans="1:16">
@@ -5170,16 +5162,16 @@
         <v>1804.3</v>
       </c>
       <c r="E87" s="161" t="s">
-        <v>200</v>
-      </c>
-      <c r="F87" s="111" t="s">
-        <v>200</v>
+        <v>244</v>
+      </c>
+      <c r="F87" s="109" t="s">
+        <v>246</v>
       </c>
       <c r="G87" s="111" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H87" s="111" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P87" s="167"/>
     </row>
@@ -5197,16 +5189,16 @@
         <v>19675.400000000001</v>
       </c>
       <c r="E88" s="161" t="s">
-        <v>200</v>
-      </c>
-      <c r="F88" s="111" t="s">
-        <v>200</v>
+        <v>244</v>
+      </c>
+      <c r="F88" s="109" t="s">
+        <v>246</v>
       </c>
       <c r="G88" s="111" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H88" s="111" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="89" spans="1:16">
@@ -5223,16 +5215,16 @@
         <v>15707.2</v>
       </c>
       <c r="E89" s="161" t="s">
-        <v>200</v>
-      </c>
-      <c r="F89" s="111" t="s">
-        <v>200</v>
+        <v>244</v>
+      </c>
+      <c r="F89" s="109" t="s">
+        <v>246</v>
       </c>
       <c r="G89" s="111" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H89" s="111" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="90" spans="1:16">
@@ -5249,16 +5241,16 @@
         <v>2535.5</v>
       </c>
       <c r="E90" s="161" t="s">
-        <v>200</v>
-      </c>
-      <c r="F90" s="111" t="s">
-        <v>200</v>
+        <v>244</v>
+      </c>
+      <c r="F90" s="109" t="s">
+        <v>246</v>
       </c>
       <c r="G90" s="111" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H90" s="111" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="91" spans="1:16">
@@ -5275,16 +5267,16 @@
         <v>492.1</v>
       </c>
       <c r="E91" s="161" t="s">
-        <v>200</v>
-      </c>
-      <c r="F91" s="115" t="s">
-        <v>200</v>
+        <v>244</v>
+      </c>
+      <c r="F91" s="109" t="s">
+        <v>246</v>
       </c>
       <c r="G91" s="115" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H91" s="115" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="92" spans="1:16">
@@ -5301,16 +5293,16 @@
         <v>23212.5</v>
       </c>
       <c r="E92" s="161" t="s">
-        <v>200</v>
-      </c>
-      <c r="F92" s="115" t="s">
-        <v>200</v>
+        <v>244</v>
+      </c>
+      <c r="F92" s="109" t="s">
+        <v>246</v>
       </c>
       <c r="G92" s="115" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H92" s="115" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="93" spans="1:16">
@@ -5327,16 +5319,16 @@
         <v>44124.800000000003</v>
       </c>
       <c r="E93" s="161" t="s">
-        <v>200</v>
-      </c>
-      <c r="F93" s="115" t="s">
-        <v>200</v>
+        <v>244</v>
+      </c>
+      <c r="F93" s="109" t="s">
+        <v>246</v>
       </c>
       <c r="G93" s="115" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H93" s="115" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="94" spans="1:16">
@@ -5353,16 +5345,16 @@
         <v>42778.2</v>
       </c>
       <c r="E94" s="161" t="s">
-        <v>200</v>
-      </c>
-      <c r="F94" s="115" t="s">
-        <v>200</v>
+        <v>244</v>
+      </c>
+      <c r="F94" s="109" t="s">
+        <v>246</v>
       </c>
       <c r="G94" s="115" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H94" s="115" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="95" spans="1:16">
@@ -5379,16 +5371,16 @@
         <v>317539.90000000002</v>
       </c>
       <c r="E95" s="161" t="s">
-        <v>200</v>
-      </c>
-      <c r="F95" s="115" t="s">
-        <v>200</v>
+        <v>244</v>
+      </c>
+      <c r="F95" s="109" t="s">
+        <v>246</v>
       </c>
       <c r="G95" s="115" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H95" s="115" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="96" spans="1:16">
@@ -5405,16 +5397,16 @@
         <v>4090.3</v>
       </c>
       <c r="E96" s="161" t="s">
-        <v>200</v>
-      </c>
-      <c r="F96" s="115" t="s">
-        <v>200</v>
+        <v>244</v>
+      </c>
+      <c r="F96" s="109" t="s">
+        <v>246</v>
       </c>
       <c r="G96" s="115" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H96" s="115" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -5431,16 +5423,16 @@
         <v>1496.4</v>
       </c>
       <c r="E97" s="161" t="s">
-        <v>200</v>
-      </c>
-      <c r="F97" s="115" t="s">
-        <v>200</v>
+        <v>244</v>
+      </c>
+      <c r="F97" s="109" t="s">
+        <v>246</v>
       </c>
       <c r="G97" s="115" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H97" s="115" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -5457,16 +5449,16 @@
         <v>28875</v>
       </c>
       <c r="E98" s="161" t="s">
-        <v>200</v>
-      </c>
-      <c r="F98" s="115" t="s">
-        <v>200</v>
+        <v>244</v>
+      </c>
+      <c r="F98" s="109" t="s">
+        <v>246</v>
       </c>
       <c r="G98" s="115" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H98" s="115" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -5483,16 +5475,16 @@
         <v>17704.099999999999</v>
       </c>
       <c r="E99" s="161" t="s">
-        <v>200</v>
-      </c>
-      <c r="F99" s="115" t="s">
-        <v>200</v>
+        <v>244</v>
+      </c>
+      <c r="F99" s="109" t="s">
+        <v>246</v>
       </c>
       <c r="G99" s="115" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H99" s="115" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -5509,16 +5501,16 @@
         <v>1924.3</v>
       </c>
       <c r="E100" s="161" t="s">
-        <v>200</v>
-      </c>
-      <c r="F100" s="115" t="s">
-        <v>200</v>
+        <v>244</v>
+      </c>
+      <c r="F100" s="109" t="s">
+        <v>246</v>
       </c>
       <c r="G100" s="115" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H100" s="115" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -5535,16 +5527,16 @@
         <v>629</v>
       </c>
       <c r="E101" s="161" t="s">
-        <v>200</v>
-      </c>
-      <c r="F101" s="116" t="s">
-        <v>200</v>
+        <v>244</v>
+      </c>
+      <c r="F101" s="109" t="s">
+        <v>246</v>
       </c>
       <c r="G101" s="116" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H101" s="116" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -5561,16 +5553,16 @@
         <v>33248.199999999997</v>
       </c>
       <c r="E102" s="161" t="s">
-        <v>200</v>
-      </c>
-      <c r="F102" s="116" t="s">
-        <v>200</v>
+        <v>244</v>
+      </c>
+      <c r="F102" s="109" t="s">
+        <v>246</v>
       </c>
       <c r="G102" s="116" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H102" s="116" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -5587,16 +5579,16 @@
         <v>50615.4</v>
       </c>
       <c r="E103" s="161" t="s">
-        <v>200</v>
-      </c>
-      <c r="F103" s="116" t="s">
-        <v>200</v>
+        <v>244</v>
+      </c>
+      <c r="F103" s="109" t="s">
+        <v>246</v>
       </c>
       <c r="G103" s="116" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H103" s="116" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -5613,16 +5605,16 @@
         <v>43332</v>
       </c>
       <c r="E104" s="161" t="s">
-        <v>200</v>
-      </c>
-      <c r="F104" s="116" t="s">
-        <v>200</v>
+        <v>244</v>
+      </c>
+      <c r="F104" s="109" t="s">
+        <v>246</v>
       </c>
       <c r="G104" s="116" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H104" s="116" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -5639,16 +5631,16 @@
         <v>669805.9</v>
       </c>
       <c r="E105" s="161" t="s">
-        <v>200</v>
-      </c>
-      <c r="F105" s="116" t="s">
-        <v>200</v>
+        <v>244</v>
+      </c>
+      <c r="F105" s="109" t="s">
+        <v>246</v>
       </c>
       <c r="G105" s="116" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H105" s="116" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -5665,16 +5657,16 @@
         <v>4575.3</v>
       </c>
       <c r="E106" s="161" t="s">
-        <v>200</v>
-      </c>
-      <c r="F106" s="116" t="s">
-        <v>200</v>
+        <v>244</v>
+      </c>
+      <c r="F106" s="109" t="s">
+        <v>246</v>
       </c>
       <c r="G106" s="116" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H106" s="116" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -5691,16 +5683,16 @@
         <v>1671.5</v>
       </c>
       <c r="E107" s="161" t="s">
-        <v>200</v>
-      </c>
-      <c r="F107" s="116" t="s">
-        <v>200</v>
+        <v>244</v>
+      </c>
+      <c r="F107" s="109" t="s">
+        <v>246</v>
       </c>
       <c r="G107" s="116" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H107" s="116" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -5717,16 +5709,16 @@
         <v>31229</v>
       </c>
       <c r="E108" s="161" t="s">
-        <v>200</v>
-      </c>
-      <c r="F108" s="116" t="s">
-        <v>200</v>
+        <v>244</v>
+      </c>
+      <c r="F108" s="109" t="s">
+        <v>246</v>
       </c>
       <c r="G108" s="116" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H108" s="116" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -5743,16 +5735,16 @@
         <v>19844.900000000001</v>
       </c>
       <c r="E109" s="161" t="s">
-        <v>200</v>
-      </c>
-      <c r="F109" s="116" t="s">
-        <v>200</v>
+        <v>244</v>
+      </c>
+      <c r="F109" s="109" t="s">
+        <v>246</v>
       </c>
       <c r="G109" s="116" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H109" s="116" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -5769,16 +5761,16 @@
         <v>2978.6</v>
       </c>
       <c r="E110" s="161" t="s">
-        <v>200</v>
-      </c>
-      <c r="F110" s="116" t="s">
-        <v>200</v>
+        <v>244</v>
+      </c>
+      <c r="F110" s="109" t="s">
+        <v>246</v>
       </c>
       <c r="G110" s="116" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H110" s="116" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -5791,18 +5783,20 @@
       <c r="C111" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="D111" s="178"/>
+      <c r="D111" s="178">
+        <v>0</v>
+      </c>
       <c r="E111" s="161" t="s">
-        <v>200</v>
-      </c>
-      <c r="F111" s="111" t="s">
-        <v>200</v>
+        <v>244</v>
+      </c>
+      <c r="F111" s="109" t="s">
+        <v>246</v>
       </c>
       <c r="G111" s="111" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H111" s="111" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5819,16 +5813,16 @@
         <v>9371.4</v>
       </c>
       <c r="E112" s="161" t="s">
-        <v>200</v>
-      </c>
-      <c r="F112" s="111" t="s">
-        <v>200</v>
+        <v>244</v>
+      </c>
+      <c r="F112" s="109" t="s">
+        <v>246</v>
       </c>
       <c r="G112" s="111" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H112" s="111" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -5841,18 +5835,20 @@
       <c r="C113" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="D113" s="178"/>
+      <c r="D113" s="178">
+        <v>0</v>
+      </c>
       <c r="E113" s="161" t="s">
-        <v>200</v>
-      </c>
-      <c r="F113" s="111" t="s">
-        <v>200</v>
+        <v>244</v>
+      </c>
+      <c r="F113" s="109" t="s">
+        <v>246</v>
       </c>
       <c r="G113" s="111" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H113" s="111" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -5865,18 +5861,20 @@
       <c r="C114" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="D114" s="178"/>
+      <c r="D114" s="178">
+        <v>0</v>
+      </c>
       <c r="E114" s="161" t="s">
-        <v>200</v>
-      </c>
-      <c r="F114" s="111" t="s">
-        <v>200</v>
+        <v>244</v>
+      </c>
+      <c r="F114" s="109" t="s">
+        <v>246</v>
       </c>
       <c r="G114" s="111" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H114" s="111" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5893,16 +5891,16 @@
         <v>5396.1</v>
       </c>
       <c r="E115" s="161" t="s">
-        <v>200</v>
-      </c>
-      <c r="F115" s="111" t="s">
-        <v>200</v>
+        <v>244</v>
+      </c>
+      <c r="F115" s="109" t="s">
+        <v>246</v>
       </c>
       <c r="G115" s="111" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H115" s="111" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5915,18 +5913,20 @@
       <c r="C116" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="D116" s="178"/>
+      <c r="D116" s="178">
+        <v>0</v>
+      </c>
       <c r="E116" s="161" t="s">
-        <v>200</v>
-      </c>
-      <c r="F116" s="111" t="s">
-        <v>200</v>
+        <v>244</v>
+      </c>
+      <c r="F116" s="109" t="s">
+        <v>246</v>
       </c>
       <c r="G116" s="111" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H116" s="111" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5939,18 +5939,20 @@
       <c r="C117" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="D117" s="178"/>
+      <c r="D117" s="178">
+        <v>0</v>
+      </c>
       <c r="E117" s="161" t="s">
-        <v>200</v>
-      </c>
-      <c r="F117" s="111" t="s">
-        <v>200</v>
+        <v>244</v>
+      </c>
+      <c r="F117" s="109" t="s">
+        <v>246</v>
       </c>
       <c r="G117" s="111" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H117" s="111" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5967,16 +5969,16 @@
         <v>651.70000000000005</v>
       </c>
       <c r="E118" s="161" t="s">
-        <v>200</v>
-      </c>
-      <c r="F118" s="111" t="s">
-        <v>200</v>
+        <v>244</v>
+      </c>
+      <c r="F118" s="109" t="s">
+        <v>246</v>
       </c>
       <c r="G118" s="111" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H118" s="111" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5989,18 +5991,20 @@
       <c r="C119" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="D119" s="178"/>
+      <c r="D119" s="178">
+        <v>0</v>
+      </c>
       <c r="E119" s="161" t="s">
-        <v>200</v>
-      </c>
-      <c r="F119" s="111" t="s">
-        <v>200</v>
+        <v>244</v>
+      </c>
+      <c r="F119" s="109" t="s">
+        <v>246</v>
       </c>
       <c r="G119" s="111" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H119" s="111" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -6017,16 +6021,16 @@
         <v>225016</v>
       </c>
       <c r="E120" s="161" t="s">
-        <v>200</v>
-      </c>
-      <c r="F120" s="168" t="s">
-        <v>200</v>
+        <v>244</v>
+      </c>
+      <c r="F120" s="109" t="s">
+        <v>246</v>
       </c>
       <c r="G120" s="168" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H120" s="168" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -6043,16 +6047,16 @@
         <v>18639</v>
       </c>
       <c r="E121" s="161" t="s">
-        <v>200</v>
-      </c>
-      <c r="F121" s="115" t="s">
-        <v>200</v>
+        <v>244</v>
+      </c>
+      <c r="F121" s="109" t="s">
+        <v>246</v>
       </c>
       <c r="G121" s="111" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H121" s="115" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -6069,16 +6073,16 @@
         <v>10336</v>
       </c>
       <c r="E122" s="161" t="s">
-        <v>200</v>
-      </c>
-      <c r="F122" s="115" t="s">
-        <v>200</v>
+        <v>244</v>
+      </c>
+      <c r="F122" s="109" t="s">
+        <v>246</v>
       </c>
       <c r="G122" s="111" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H122" s="115" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -6095,16 +6099,16 @@
         <v>13376</v>
       </c>
       <c r="E123" s="161" t="s">
-        <v>200</v>
-      </c>
-      <c r="F123" s="115" t="s">
-        <v>200</v>
+        <v>244</v>
+      </c>
+      <c r="F123" s="109" t="s">
+        <v>246</v>
       </c>
       <c r="G123" s="111" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H123" s="115" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -6121,16 +6125,16 @@
         <v>8000</v>
       </c>
       <c r="E124" s="161" t="s">
-        <v>200</v>
-      </c>
-      <c r="F124" s="115" t="s">
-        <v>200</v>
+        <v>244</v>
+      </c>
+      <c r="F124" s="109" t="s">
+        <v>246</v>
       </c>
       <c r="G124" s="111" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H124" s="115" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -6147,16 +6151,16 @@
         <v>44424</v>
       </c>
       <c r="E125" s="161" t="s">
-        <v>200</v>
-      </c>
-      <c r="F125" s="115" t="s">
-        <v>200</v>
+        <v>244</v>
+      </c>
+      <c r="F125" s="109" t="s">
+        <v>246</v>
       </c>
       <c r="G125" s="111" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H125" s="115" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -6173,16 +6177,16 @@
         <v>210572</v>
       </c>
       <c r="E126" s="161" t="s">
-        <v>200</v>
-      </c>
-      <c r="F126" s="115" t="s">
-        <v>200</v>
+        <v>244</v>
+      </c>
+      <c r="F126" s="109" t="s">
+        <v>246</v>
       </c>
       <c r="G126" s="111" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H126" s="115" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -6199,16 +6203,16 @@
         <v>3960</v>
       </c>
       <c r="E127" s="161" t="s">
-        <v>200</v>
-      </c>
-      <c r="F127" s="115" t="s">
-        <v>200</v>
+        <v>244</v>
+      </c>
+      <c r="F127" s="109" t="s">
+        <v>246</v>
       </c>
       <c r="G127" s="111" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H127" s="115" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -6225,16 +6229,16 @@
         <v>7248</v>
       </c>
       <c r="E128" s="161" t="s">
-        <v>200</v>
-      </c>
-      <c r="F128" s="115" t="s">
-        <v>200</v>
+        <v>244</v>
+      </c>
+      <c r="F128" s="109" t="s">
+        <v>246</v>
       </c>
       <c r="G128" s="111" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H128" s="115" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -6247,18 +6251,20 @@
       <c r="C129" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="D129" s="180"/>
+      <c r="D129" s="180">
+        <v>0</v>
+      </c>
       <c r="E129" s="161" t="s">
-        <v>200</v>
-      </c>
-      <c r="F129" s="115" t="s">
-        <v>200</v>
+        <v>244</v>
+      </c>
+      <c r="F129" s="109" t="s">
+        <v>246</v>
       </c>
       <c r="G129" s="111" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H129" s="115" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -6275,16 +6281,16 @@
         <v>22691</v>
       </c>
       <c r="E130" s="161" t="s">
-        <v>200</v>
-      </c>
-      <c r="F130" s="117" t="s">
-        <v>200</v>
+        <v>244</v>
+      </c>
+      <c r="F130" s="109" t="s">
+        <v>246</v>
       </c>
       <c r="G130" s="117" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H130" s="117" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -6301,16 +6307,16 @@
         <v>19925</v>
       </c>
       <c r="E131" s="161" t="s">
-        <v>200</v>
-      </c>
-      <c r="F131" s="117" t="s">
-        <v>200</v>
+        <v>244</v>
+      </c>
+      <c r="F131" s="109" t="s">
+        <v>246</v>
       </c>
       <c r="G131" s="117" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H131" s="117" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -6327,16 +6333,16 @@
         <v>4074</v>
       </c>
       <c r="E132" s="161" t="s">
-        <v>200</v>
-      </c>
-      <c r="F132" s="117" t="s">
-        <v>200</v>
+        <v>244</v>
+      </c>
+      <c r="F132" s="109" t="s">
+        <v>246</v>
       </c>
       <c r="G132" s="117" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H132" s="117" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -6349,18 +6355,20 @@
       <c r="C133" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="D133" s="174"/>
+      <c r="D133" s="174">
+        <v>0</v>
+      </c>
       <c r="E133" s="161" t="s">
-        <v>200</v>
-      </c>
-      <c r="F133" s="117" t="s">
-        <v>200</v>
+        <v>244</v>
+      </c>
+      <c r="F133" s="109" t="s">
+        <v>246</v>
       </c>
       <c r="G133" s="117" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H133" s="117" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -6377,16 +6385,16 @@
         <v>10825</v>
       </c>
       <c r="E134" s="161" t="s">
-        <v>200</v>
-      </c>
-      <c r="F134" s="117" t="s">
-        <v>200</v>
+        <v>244</v>
+      </c>
+      <c r="F134" s="109" t="s">
+        <v>246</v>
       </c>
       <c r="G134" s="117" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H134" s="117" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -6403,16 +6411,16 @@
         <v>173817</v>
       </c>
       <c r="E135" s="161" t="s">
-        <v>200</v>
-      </c>
-      <c r="F135" s="117" t="s">
-        <v>200</v>
+        <v>244</v>
+      </c>
+      <c r="F135" s="109" t="s">
+        <v>246</v>
       </c>
       <c r="G135" s="117" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H135" s="117" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -6429,16 +6437,16 @@
         <v>508</v>
       </c>
       <c r="E136" s="161" t="s">
-        <v>200</v>
-      </c>
-      <c r="F136" s="117" t="s">
-        <v>200</v>
+        <v>244</v>
+      </c>
+      <c r="F136" s="109" t="s">
+        <v>246</v>
       </c>
       <c r="G136" s="117" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H136" s="117" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -6455,16 +6463,16 @@
         <v>24890</v>
       </c>
       <c r="E137" s="161" t="s">
-        <v>200</v>
-      </c>
-      <c r="F137" s="117" t="s">
-        <v>200</v>
+        <v>244</v>
+      </c>
+      <c r="F137" s="109" t="s">
+        <v>246</v>
       </c>
       <c r="G137" s="117" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H137" s="117" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -6481,16 +6489,16 @@
         <v>3217</v>
       </c>
       <c r="E138" s="161" t="s">
-        <v>200</v>
-      </c>
-      <c r="F138" s="117" t="s">
-        <v>200</v>
+        <v>244</v>
+      </c>
+      <c r="F138" s="109" t="s">
+        <v>246</v>
       </c>
       <c r="G138" s="117" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H138" s="117" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -6554,10 +6562,10 @@
     </row>
     <row r="5" spans="3:7">
       <c r="C5" s="68" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5" s="49">
         <f>Departments!B7-Departments!B157+E1</f>
@@ -6574,10 +6582,10 @@
     </row>
     <row r="6" spans="3:7">
       <c r="C6" s="68" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6" s="49">
         <f>Departments!B8</f>
@@ -6594,10 +6602,10 @@
     </row>
     <row r="7" spans="3:7">
       <c r="C7" s="68" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7" s="49">
         <f>Provincial!B6</f>
@@ -6614,10 +6622,10 @@
     </row>
     <row r="8" spans="3:7">
       <c r="C8" s="68" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8" s="49">
         <f>Provincial!B7</f>
@@ -6634,10 +6642,10 @@
     </row>
     <row r="9" spans="3:7">
       <c r="C9" s="68" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9" s="49">
         <f>'Statutory Authorities'!B6</f>
@@ -6654,10 +6662,10 @@
     </row>
     <row r="10" spans="3:7">
       <c r="C10" s="68" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10" s="49">
         <f>'Statutory Authorities'!B7</f>
@@ -6685,10 +6693,10 @@
     </row>
     <row r="13" spans="3:7">
       <c r="C13" s="69" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E13" s="49">
         <f t="shared" ref="E13:G14" si="0">E5+E7+E9</f>
@@ -6705,10 +6713,10 @@
     </row>
     <row r="14" spans="3:7">
       <c r="C14" s="69" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E14" s="49">
         <f t="shared" si="0"/>
@@ -6786,7 +6794,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="42">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -6794,7 +6802,7 @@
     </row>
     <row r="2" spans="1:4" ht="19" thickBot="1">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -6808,16 +6816,16 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16" thickBot="1">
@@ -6834,7 +6842,7 @@
     </row>
     <row r="6" spans="1:4" ht="16" thickBot="1">
       <c r="A6" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="10">
         <v>8591783</v>
@@ -6848,7 +6856,7 @@
     </row>
     <row r="7" spans="1:4" ht="16" thickBot="1">
       <c r="A7" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="10">
         <v>5930400</v>
@@ -6862,7 +6870,7 @@
     </row>
     <row r="8" spans="1:4" ht="16" thickBot="1">
       <c r="A8" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="10">
         <v>2661384</v>
@@ -6879,7 +6887,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="17">
         <v>124559</v>
@@ -6893,7 +6901,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="19">
         <v>124559</v>
@@ -6907,7 +6915,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="19"/>
       <c r="C12" s="19">
@@ -6917,7 +6925,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" s="19">
         <v>7172</v>
@@ -6931,7 +6939,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" s="19">
         <v>7172</v>
@@ -6945,7 +6953,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15" s="19">
         <v>173518</v>
@@ -6959,7 +6967,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16" s="19">
         <v>73279</v>
@@ -6973,7 +6981,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" s="19">
         <v>100239</v>
@@ -6987,7 +6995,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" s="19">
         <v>93228</v>
@@ -7001,7 +7009,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" s="19">
         <v>3836</v>
@@ -7015,7 +7023,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" s="19">
         <v>89392</v>
@@ -7029,7 +7037,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" s="19">
         <v>2679</v>
@@ -7043,7 +7051,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="19">
         <v>2679</v>
@@ -7057,7 +7065,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B23" s="19">
         <v>421628</v>
@@ -7071,7 +7079,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" s="19">
         <v>22440</v>
@@ -7085,7 +7093,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="19">
         <v>399188</v>
@@ -7099,7 +7107,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B26" s="19">
         <v>1382975</v>
@@ -7113,7 +7121,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B27" s="19">
         <v>1382975</v>
@@ -7127,7 +7135,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" s="19">
         <v>235189</v>
@@ -7141,7 +7149,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B29" s="19">
         <v>12848</v>
@@ -7155,7 +7163,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B30" s="19">
         <v>222340</v>
@@ -7169,7 +7177,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B31" s="19">
         <v>6256</v>
@@ -7183,7 +7191,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B32" s="19">
         <v>6256</v>
@@ -7197,7 +7205,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33" s="19">
         <v>54282</v>
@@ -7211,7 +7219,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B34" s="19">
         <v>21808</v>
@@ -7225,7 +7233,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B35" s="19">
         <v>32474</v>
@@ -7239,7 +7247,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B36" s="19">
         <v>13552</v>
@@ -7253,7 +7261,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B37" s="19">
         <v>13552</v>
@@ -7267,7 +7275,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B38" s="19">
         <v>24205</v>
@@ -7281,7 +7289,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B39" s="19">
         <v>19205</v>
@@ -7295,7 +7303,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B40" s="19">
         <v>5000</v>
@@ -7309,7 +7317,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B41" s="19">
         <v>11563</v>
@@ -7323,7 +7331,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B42" s="19">
         <v>11563</v>
@@ -7337,7 +7345,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B43" s="19">
         <v>39590</v>
@@ -7351,7 +7359,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B44" s="19">
         <v>39590</v>
@@ -7365,7 +7373,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B45" s="19"/>
       <c r="C45" s="19">
@@ -7377,7 +7385,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B46" s="19">
         <v>74678</v>
@@ -7391,7 +7399,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B47" s="19">
         <v>73880</v>
@@ -7405,7 +7413,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B48" s="20">
         <v>797</v>
@@ -7419,7 +7427,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B49" s="19">
         <v>6795</v>
@@ -7433,7 +7441,7 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B50" s="19">
         <v>6795</v>
@@ -7447,7 +7455,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B51" s="19">
         <v>6112</v>
@@ -7461,7 +7469,7 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B52" s="19">
         <v>6112</v>
@@ -7475,7 +7483,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B53" s="19"/>
       <c r="C53" s="19">
@@ -7485,7 +7493,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B54" s="19">
         <v>84819</v>
@@ -7499,7 +7507,7 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B55" s="19">
         <v>22805</v>
@@ -7513,7 +7521,7 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B56" s="19">
         <v>62014</v>
@@ -7527,7 +7535,7 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B57" s="19">
         <v>4756</v>
@@ -7541,7 +7549,7 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B58" s="19">
         <v>4756</v>
@@ -7555,7 +7563,7 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B59" s="21"/>
       <c r="C59" s="20">
@@ -7565,7 +7573,7 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B60" s="19">
         <v>9171</v>
@@ -7579,7 +7587,7 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B61" s="19">
         <v>9171</v>
@@ -7593,7 +7601,7 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B62" s="19">
         <v>69652</v>
@@ -7607,7 +7615,7 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B63" s="19">
         <v>69652</v>
@@ -7621,7 +7629,7 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B64" s="19"/>
       <c r="C64" s="19"/>
@@ -7631,7 +7639,7 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B65" s="19">
         <v>35261</v>
@@ -7645,7 +7653,7 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B66" s="19">
         <v>31310</v>
@@ -7659,7 +7667,7 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B67" s="19">
         <v>3952</v>
@@ -7669,7 +7677,7 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B68" s="19">
         <v>114233</v>
@@ -7683,7 +7691,7 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B69" s="19">
         <v>48642</v>
@@ -7697,7 +7705,7 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B70" s="19">
         <v>65591</v>
@@ -7711,7 +7719,7 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B71" s="19">
         <v>122067</v>
@@ -7725,7 +7733,7 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B72" s="19">
         <v>101067</v>
@@ -7739,7 +7747,7 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B73" s="19">
         <v>21000</v>
@@ -7753,7 +7761,7 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B74" s="19">
         <v>33167</v>
@@ -7767,7 +7775,7 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B75" s="19">
         <v>33167</v>
@@ -7781,7 +7789,7 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B76" s="19">
         <v>341874</v>
@@ -7795,7 +7803,7 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B77" s="19">
         <v>305874</v>
@@ -7809,7 +7817,7 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B78" s="19">
         <v>36000</v>
@@ -7823,7 +7831,7 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B79" s="19">
         <v>236006</v>
@@ -7837,7 +7845,7 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B80" s="19">
         <v>17524</v>
@@ -7851,7 +7859,7 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B81" s="19">
         <v>218482</v>
@@ -7865,7 +7873,7 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B82" s="19">
         <v>77652</v>
@@ -7879,7 +7887,7 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B83" s="19">
         <v>24005</v>
@@ -7893,7 +7901,7 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B84" s="19">
         <v>53647</v>
@@ -7905,7 +7913,7 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B85" s="19">
         <v>5648</v>
@@ -7919,7 +7927,7 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B86" s="19">
         <v>4504</v>
@@ -7933,7 +7941,7 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B87" s="19">
         <v>1144</v>
@@ -7945,7 +7953,7 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B88" s="19">
         <v>93179</v>
@@ -7959,7 +7967,7 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B89" s="19">
         <v>25406</v>
@@ -7973,7 +7981,7 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B90" s="19">
         <v>67773</v>
@@ -7987,7 +7995,7 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B91" s="19">
         <v>183333</v>
@@ -8001,7 +8009,7 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B92" s="19">
         <v>175915</v>
@@ -8015,7 +8023,7 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B93" s="19">
         <v>7418</v>
@@ -8029,7 +8037,7 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B94" s="23">
         <v>596209</v>
@@ -8043,7 +8051,7 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B95" s="23">
         <v>355776</v>
@@ -8057,7 +8065,7 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B96" s="23">
         <v>240434</v>
@@ -8071,7 +8079,7 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B97" s="19">
         <v>65682</v>
@@ -8085,7 +8093,7 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B98" s="19">
         <v>40574</v>
@@ -8099,7 +8107,7 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B99" s="19">
         <v>25109</v>
@@ -8113,7 +8121,7 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B100" s="19">
         <v>3447</v>
@@ -8127,7 +8135,7 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B101" s="19">
         <v>3447</v>
@@ -8141,7 +8149,7 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B102" s="23">
         <v>473443</v>
@@ -8155,7 +8163,7 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B103" s="23">
         <v>253569</v>
@@ -8169,7 +8177,7 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B104" s="23">
         <v>219874</v>
@@ -8183,7 +8191,7 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B105" s="19">
         <v>391092</v>
@@ -8197,7 +8205,7 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B106" s="19">
         <v>344092</v>
@@ -8211,7 +8219,7 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B107" s="19">
         <v>47000</v>
@@ -8225,7 +8233,7 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B108" s="19">
         <v>73003</v>
@@ -8239,7 +8247,7 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B109" s="19">
         <v>10899</v>
@@ -8253,7 +8261,7 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B110" s="19">
         <v>62104</v>
@@ -8267,7 +8275,7 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B111" s="19">
         <v>1229</v>
@@ -8281,7 +8289,7 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B112" s="19">
         <v>1229</v>
@@ -8295,7 +8303,7 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B113" s="19">
         <v>20413</v>
@@ -8309,7 +8317,7 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B114" s="19">
         <v>12592</v>
@@ -8323,7 +8331,7 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B115" s="19">
         <v>7821</v>
@@ -8337,7 +8345,7 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B116" s="19">
         <v>51012</v>
@@ -8351,7 +8359,7 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B117" s="19">
         <v>41509</v>
@@ -8365,7 +8373,7 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B118" s="19">
         <v>9503</v>
@@ -8385,7 +8393,7 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B120" s="19">
         <v>40717</v>
@@ -8399,7 +8407,7 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B121" s="19">
         <v>35670</v>
@@ -8413,7 +8421,7 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B122" s="19">
         <v>5047</v>
@@ -8427,7 +8435,7 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B123" s="19">
         <v>7420</v>
@@ -8441,7 +8449,7 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B124" s="19">
         <v>7374</v>
@@ -8455,7 +8463,7 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B125" s="20">
         <v>46</v>
@@ -8467,7 +8475,7 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B126" s="19">
         <v>13736</v>
@@ -8481,7 +8489,7 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B127" s="19">
         <v>13134</v>
@@ -8495,7 +8503,7 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B128" s="20">
         <v>602</v>
@@ -8509,7 +8517,7 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B129" s="19">
         <v>2752</v>
@@ -8523,7 +8531,7 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B130" s="19">
         <v>2752</v>
@@ -8537,7 +8545,7 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B131" s="19">
         <v>63679</v>
@@ -8551,7 +8559,7 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B132" s="19">
         <v>3866</v>
@@ -8565,7 +8573,7 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B133" s="19">
         <v>59812</v>
@@ -8579,7 +8587,7 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B134" s="19">
         <v>35639</v>
@@ -8593,7 +8601,7 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B135" s="19">
         <v>18286</v>
@@ -8607,7 +8615,7 @@
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B136" s="19">
         <v>17353</v>
@@ -8621,7 +8629,7 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B137" s="19">
         <v>30032</v>
@@ -8635,7 +8643,7 @@
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B138" s="19">
         <v>11933</v>
@@ -8649,7 +8657,7 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B139" s="19">
         <v>18098</v>
@@ -8663,7 +8671,7 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B140" s="19">
         <v>11636</v>
@@ -8677,7 +8685,7 @@
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B141" s="19">
         <v>11636</v>
@@ -8691,7 +8699,7 @@
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B142" s="19"/>
       <c r="C142" s="19">
@@ -8701,7 +8709,7 @@
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B143" s="20">
         <v>847</v>
@@ -8715,7 +8723,7 @@
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B144" s="20">
         <v>847</v>
@@ -8729,7 +8737,7 @@
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B145" s="19">
         <v>482557</v>
@@ -8743,7 +8751,7 @@
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B146" s="19">
         <v>162678</v>
@@ -8757,7 +8765,7 @@
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B147" s="19">
         <v>319879</v>
@@ -8771,7 +8779,7 @@
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B148" s="19">
         <v>248475</v>
@@ -8785,7 +8793,7 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B149" s="19">
         <v>6225</v>
@@ -8799,7 +8807,7 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B150" s="19">
         <v>242250</v>
@@ -8813,7 +8821,7 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B151" s="19">
         <v>2842</v>
@@ -8827,7 +8835,7 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B152" s="19">
         <v>2842</v>
@@ -8841,7 +8849,7 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B153" s="19"/>
       <c r="C153" s="19">
@@ -8851,7 +8859,7 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B154" s="19">
         <v>2104</v>
@@ -8865,7 +8873,7 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B155" s="19">
         <v>2104</v>
@@ -8879,7 +8887,7 @@
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B156" s="26">
         <v>1885021</v>
@@ -8893,7 +8901,7 @@
     </row>
     <row r="157" spans="1:4" ht="16" thickBot="1">
       <c r="A157" s="27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B157" s="28">
         <v>1885021</v>
@@ -8907,7 +8915,7 @@
     </row>
     <row r="159" spans="1:4">
       <c r="A159" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B159">
         <v>2911500</v>
@@ -8958,12 +8966,12 @@
   <sheetData>
     <row r="1" spans="1:4" ht="42">
       <c r="A1" s="29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="19" thickBot="1">
       <c r="A2" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="31"/>
       <c r="C2" s="31"/>
@@ -8973,18 +8981,18 @@
       <c r="A3" s="32"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16" thickBot="1">
       <c r="A4" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>18</v>
       </c>
       <c r="C4" s="6">
         <v>2012</v>
@@ -8995,7 +9003,7 @@
     </row>
     <row r="5" spans="1:4" ht="16" thickBot="1">
       <c r="A5" s="33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B5" s="11">
         <v>696610</v>
@@ -9009,7 +9017,7 @@
     </row>
     <row r="6" spans="1:4" ht="16" thickBot="1">
       <c r="A6" s="33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="11">
         <v>325408</v>
@@ -9023,7 +9031,7 @@
     </row>
     <row r="7" spans="1:4" ht="16" thickBot="1">
       <c r="A7" s="33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="11">
         <v>371202</v>
@@ -9037,7 +9045,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B8" s="35">
         <v>16172</v>
@@ -9051,7 +9059,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="19">
         <v>16172</v>
@@ -9065,7 +9073,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="19"/>
       <c r="C10" s="19">
@@ -9075,7 +9083,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B11" s="19">
         <v>14742</v>
@@ -9089,7 +9097,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" s="19">
         <v>14742</v>
@@ -9103,7 +9111,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B13" s="19">
         <v>4576</v>
@@ -9117,7 +9125,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" s="19">
         <v>4576</v>
@@ -9131,7 +9139,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B15" s="19">
         <v>36573</v>
@@ -9145,7 +9153,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16" s="19">
         <v>2301</v>
@@ -9159,7 +9167,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" s="19">
         <v>34272</v>
@@ -9173,7 +9181,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B18" s="19">
         <v>2100</v>
@@ -9187,7 +9195,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" s="19">
         <v>2100</v>
@@ -9201,7 +9209,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B20" s="19">
         <v>5409</v>
@@ -9215,7 +9223,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21" s="19">
         <v>3909</v>
@@ -9229,7 +9237,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" s="19">
         <v>1500</v>
@@ -9243,7 +9251,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B23" s="19">
         <v>2245</v>
@@ -9257,7 +9265,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" s="19">
         <v>2245</v>
@@ -9271,7 +9279,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="19"/>
       <c r="C25" s="19">
@@ -9281,7 +9289,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B26" s="20"/>
       <c r="C26" s="19">
@@ -9293,7 +9301,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B27" s="20"/>
       <c r="C27" s="19">
@@ -9305,7 +9313,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="19">
@@ -9317,7 +9325,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B29" s="19">
         <v>58079</v>
@@ -9331,7 +9339,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B30" s="19">
         <v>39487</v>
@@ -9345,7 +9353,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B31" s="19">
         <v>18592</v>
@@ -9359,7 +9367,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B32" s="19">
         <v>62772</v>
@@ -9373,7 +9381,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B33" s="19">
         <v>36772</v>
@@ -9387,7 +9395,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B34" s="19">
         <v>26000</v>
@@ -9401,7 +9409,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B35" s="19">
         <v>49179</v>
@@ -9415,7 +9423,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B36" s="19">
         <v>14130</v>
@@ -9429,7 +9437,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B37" s="19">
         <v>35049</v>
@@ -9443,7 +9451,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B38" s="19">
         <v>18455</v>
@@ -9457,7 +9465,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B39" s="19">
         <v>10455</v>
@@ -9471,7 +9479,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B40" s="19">
         <v>8000</v>
@@ -9485,7 +9493,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B41" s="19">
         <v>13350</v>
@@ -9499,7 +9507,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B42" s="19">
         <v>10400</v>
@@ -9513,7 +9521,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B43" s="19">
         <v>2950</v>
@@ -9527,7 +9535,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B44" s="19">
         <v>2348</v>
@@ -9541,7 +9549,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B45" s="19">
         <v>2348</v>
@@ -9555,7 +9563,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B46" s="19"/>
       <c r="C46" s="19">
@@ -9565,7 +9573,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B47" s="19">
         <v>3057</v>
@@ -9579,7 +9587,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B48" s="19">
         <v>3057</v>
@@ -9593,7 +9601,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B49" s="19">
         <v>23620</v>
@@ -9607,7 +9615,7 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B50" s="19">
         <v>6900</v>
@@ -9621,7 +9629,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B51" s="19">
         <v>16720</v>
@@ -9635,7 +9643,7 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B52" s="19">
         <v>14390</v>
@@ -9649,7 +9657,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B53" s="19">
         <v>5555</v>
@@ -9663,7 +9671,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B54" s="19">
         <v>8835</v>
@@ -9677,7 +9685,7 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B55" s="19">
         <v>3047</v>
@@ -9691,7 +9699,7 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B56" s="19">
         <v>3047</v>
@@ -9705,7 +9713,7 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B57" s="19"/>
       <c r="C57" s="19">
@@ -9715,7 +9723,7 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B58" s="19">
         <v>3019</v>
@@ -9729,7 +9737,7 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B59" s="19">
         <v>2559</v>
@@ -9743,7 +9751,7 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B60" s="20">
         <v>460</v>
@@ -9755,7 +9763,7 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B61" s="19">
         <v>5143</v>
@@ -9769,7 +9777,7 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B62" s="19">
         <v>5143</v>
@@ -9783,7 +9791,7 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B63" s="19"/>
       <c r="C63" s="19"/>
@@ -9793,7 +9801,7 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B64" s="19">
         <v>10249</v>
@@ -9807,7 +9815,7 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B65" s="19">
         <v>10249</v>
@@ -9821,7 +9829,7 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B66" s="19">
         <v>29178</v>
@@ -9835,7 +9843,7 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B67" s="19">
         <v>24661</v>
@@ -9849,7 +9857,7 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B68" s="19">
         <v>4517</v>
@@ -9863,7 +9871,7 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B69" s="19">
         <v>7382</v>
@@ -9877,7 +9885,7 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B70" s="19">
         <v>1382</v>
@@ -9891,7 +9899,7 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B71" s="19">
         <v>6000</v>
@@ -9903,7 +9911,7 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B72" s="20"/>
       <c r="C72" s="19">
@@ -9913,7 +9921,7 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B73" s="20"/>
       <c r="C73" s="19">
@@ -9923,7 +9931,7 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B74" s="19">
         <v>3041</v>
@@ -9937,7 +9945,7 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B75" s="19">
         <v>3041</v>
@@ -9951,7 +9959,7 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B76" s="19"/>
       <c r="C76" s="19">
@@ -9961,7 +9969,7 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B77" s="19">
         <v>8439</v>
@@ -9975,7 +9983,7 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B78" s="19">
         <v>2439</v>
@@ -9989,7 +9997,7 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B79" s="19">
         <v>6000</v>
@@ -10003,7 +10011,7 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B80" s="19">
         <v>2852</v>
@@ -10017,7 +10025,7 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B81" s="19"/>
       <c r="C81" s="19"/>
@@ -10025,7 +10033,7 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B82" s="19">
         <v>2852</v>
@@ -10047,7 +10055,7 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B84" s="19">
         <v>2139</v>
@@ -10061,7 +10069,7 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B85" s="19">
         <v>2139</v>
@@ -10075,7 +10083,7 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B86" s="19">
         <v>36179</v>
@@ -10089,7 +10097,7 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B87" s="19">
         <v>36179</v>
@@ -10103,7 +10111,7 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B88" s="19">
         <v>1717</v>
@@ -10117,7 +10125,7 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B89" s="19">
         <v>1717</v>
@@ -10131,7 +10139,7 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B90" s="19"/>
       <c r="C90" s="19"/>
@@ -10141,7 +10149,7 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B91" s="19">
         <v>9788</v>
@@ -10155,7 +10163,7 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B92" s="19">
         <v>9788</v>
@@ -10169,7 +10177,7 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="19">
@@ -10181,7 +10189,7 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="19">
@@ -10193,7 +10201,7 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B95" s="19">
         <v>6227</v>
@@ -10207,7 +10215,7 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B96" s="19">
         <v>6227</v>
@@ -10221,7 +10229,7 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B97" s="19"/>
       <c r="C97" s="19">
@@ -10233,7 +10241,7 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B98" s="19">
         <v>27457</v>
@@ -10247,7 +10255,7 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B99" s="19">
         <v>27457</v>
@@ -10261,7 +10269,7 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B100" s="20">
         <v>235</v>
@@ -10275,7 +10283,7 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B101" s="20">
         <v>235</v>
@@ -10289,7 +10297,7 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B102" s="19">
         <v>4245</v>
@@ -10303,7 +10311,7 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B103" s="19">
         <v>4245</v>
@@ -10317,7 +10325,7 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B104" s="19"/>
       <c r="C104" s="19">
@@ -10329,7 +10337,7 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B105" s="19">
         <v>25000</v>
@@ -10341,7 +10349,7 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B106" s="19">
         <v>25000</v>
@@ -10353,7 +10361,7 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B107" s="19">
         <v>2000</v>
@@ -10367,7 +10375,7 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B108" s="19">
         <v>2000</v>
@@ -10381,7 +10389,7 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="19">
@@ -10393,7 +10401,7 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="19">
@@ -10405,7 +10413,7 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B111" s="19">
         <v>30000</v>
@@ -10417,7 +10425,7 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B112" s="19">
         <v>30000</v>
@@ -10429,7 +10437,7 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B113" s="19">
         <v>17337</v>
@@ -10443,7 +10451,7 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B114" s="19">
         <v>2337</v>
@@ -10457,7 +10465,7 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B115" s="19">
         <v>15000</v>
@@ -10469,7 +10477,7 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B116" s="19">
         <v>8437</v>
@@ -10483,7 +10491,7 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B117" s="19">
         <v>5887</v>
@@ -10497,7 +10505,7 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B118" s="19">
         <v>2550</v>
@@ -10511,7 +10519,7 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B119" s="19">
         <v>2000</v>
@@ -10523,7 +10531,7 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B120" s="19">
         <v>2000</v>
@@ -10535,7 +10543,7 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B121" s="19">
         <v>6522</v>
@@ -10549,7 +10557,7 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B122" s="19">
         <v>4772</v>
@@ -10563,7 +10571,7 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B123" s="19">
         <v>1750</v>
@@ -10575,7 +10583,7 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B124" s="19">
         <v>7403</v>
@@ -10589,7 +10597,7 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B125" s="19">
         <v>1903</v>
@@ -10603,7 +10611,7 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B126" s="19">
         <v>5500</v>
@@ -10617,7 +10625,7 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B127" s="19">
         <v>46226</v>
@@ -10631,7 +10639,7 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B128" s="19">
         <v>34671</v>
@@ -10645,7 +10653,7 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B129" s="19">
         <v>11555</v>
@@ -10659,7 +10667,7 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B130" s="19">
         <v>11298</v>
@@ -10673,7 +10681,7 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B131" s="19">
         <v>10298</v>
@@ -10687,7 +10695,7 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B132" s="19">
         <v>1000</v>
@@ -10697,7 +10705,7 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B133" s="19">
         <v>3700</v>
@@ -10711,7 +10719,7 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B134" s="19">
         <v>3700</v>
@@ -10725,7 +10733,7 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B135" s="19">
         <v>26141</v>
@@ -10739,7 +10747,7 @@
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B136" s="19">
         <v>13523</v>
@@ -10753,7 +10761,7 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B137" s="19">
         <v>12618</v>
@@ -10767,7 +10775,7 @@
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B138" s="19">
         <v>2349</v>
@@ -10781,7 +10789,7 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B139" s="19">
         <v>2349</v>
@@ -10795,7 +10803,7 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B140" s="19"/>
       <c r="C140" s="19">
@@ -10807,7 +10815,7 @@
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B141" s="19">
         <v>10080</v>
@@ -10821,7 +10829,7 @@
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B142" s="19">
         <v>10080</v>
@@ -10835,7 +10843,7 @@
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B143" s="19">
         <v>1560</v>
@@ -10847,7 +10855,7 @@
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B144" s="19">
         <v>1560</v>
@@ -10859,7 +10867,7 @@
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B145" s="20"/>
       <c r="C145" s="19">
@@ -10871,7 +10879,7 @@
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B146" s="20"/>
       <c r="C146" s="19">
@@ -10883,7 +10891,7 @@
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B147" s="19">
         <v>4400</v>
@@ -10897,7 +10905,7 @@
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B148" s="19">
         <v>4400</v>
@@ -10911,7 +10919,7 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B149" s="19">
         <v>4753</v>
@@ -10925,7 +10933,7 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B150" s="19">
         <v>4753</v>
@@ -10973,7 +10981,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="42">
       <c r="A1" s="39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B1" s="39"/>
       <c r="C1" s="39"/>
@@ -10981,7 +10989,7 @@
     </row>
     <row r="2" spans="1:4" ht="19" thickBot="1">
       <c r="A2" s="40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
@@ -10989,16 +10997,16 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="43" t="s">
-        <v>18</v>
-      </c>
       <c r="C3" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="44" t="s">
         <v>79</v>
-      </c>
-      <c r="D3" s="44" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16" thickBot="1">
@@ -11015,7 +11023,7 @@
     </row>
     <row r="5" spans="1:4" ht="16" thickBot="1">
       <c r="A5" s="48" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B5" s="50">
         <v>1631551</v>
@@ -11029,7 +11037,7 @@
     </row>
     <row r="6" spans="1:4" ht="16" thickBot="1">
       <c r="A6" s="52" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="53">
         <v>1318411</v>
@@ -11043,7 +11051,7 @@
     </row>
     <row r="7" spans="1:4" ht="16" thickBot="1">
       <c r="A7" s="52" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="53">
         <v>313140</v>
@@ -11057,7 +11065,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="55" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B8" s="56">
         <v>69260</v>
@@ -11071,7 +11079,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="58" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="56">
         <v>46905</v>
@@ -11085,7 +11093,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="58" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="56">
         <v>22355</v>
@@ -11099,7 +11107,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="59" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B11" s="56">
         <v>36337</v>
@@ -11113,7 +11121,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="58" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" s="56">
         <v>28082</v>
@@ -11127,7 +11135,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="58" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="56">
         <v>8255</v>
@@ -11141,7 +11149,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="59" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B14" s="56">
         <v>70192</v>
@@ -11155,7 +11163,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="58" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" s="56">
         <v>64842</v>
@@ -11169,7 +11177,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="58" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" s="56">
         <v>5350</v>
@@ -11183,7 +11191,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="59" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B17" s="56">
         <v>8654</v>
@@ -11197,7 +11205,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="58" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18" s="56">
         <v>3654</v>
@@ -11211,7 +11219,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="58" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" s="56">
         <v>5000</v>
@@ -11225,7 +11233,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="59" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B20" s="56">
         <v>65939</v>
@@ -11239,7 +11247,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="58" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21" s="56">
         <v>61439</v>
@@ -11253,7 +11261,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="58" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" s="56">
         <v>4500</v>
@@ -11267,7 +11275,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="59" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B23" s="56">
         <v>43400</v>
@@ -11281,7 +11289,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="58" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" s="56">
         <v>38900</v>
@@ -11295,7 +11303,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="58" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="56">
         <v>4500</v>
@@ -11309,7 +11317,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="59" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B26" s="56">
         <v>141029</v>
@@ -11323,7 +11331,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="58" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B27" s="56">
         <v>111335</v>
@@ -11337,7 +11345,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="58" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B28" s="56">
         <v>29695</v>
@@ -11351,7 +11359,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="59" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B29" s="56">
         <v>96210</v>
@@ -11365,7 +11373,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="58" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B30" s="56">
         <v>73610</v>
@@ -11379,7 +11387,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="58" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B31" s="56">
         <v>22600</v>
@@ -11393,7 +11401,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="59" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B32" s="56">
         <v>129472</v>
@@ -11407,7 +11415,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="58" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B33" s="56">
         <v>97472</v>
@@ -11421,7 +11429,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="58" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B34" s="56">
         <v>32000</v>
@@ -11435,7 +11443,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="59" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B35" s="56">
         <v>78202</v>
@@ -11449,7 +11457,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="58" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B36" s="56">
         <v>70452</v>
@@ -11463,7 +11471,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="58" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B37" s="56">
         <v>7750</v>
@@ -11477,7 +11485,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="59" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B38" s="56">
         <v>108720</v>
@@ -11491,7 +11499,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="58" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B39" s="56">
         <v>90470</v>
@@ -11505,7 +11513,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="58" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B40" s="56">
         <v>18250</v>
@@ -11519,7 +11527,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="59" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B41" s="56">
         <v>121872</v>
@@ -11533,7 +11541,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="58" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B42" s="56">
         <v>108706</v>
@@ -11547,7 +11555,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="58" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B43" s="56">
         <v>13166</v>
@@ -11561,7 +11569,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="59" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B44" s="56">
         <v>97232</v>
@@ -11575,7 +11583,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="58" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B45" s="56">
         <v>89482</v>
@@ -11589,7 +11597,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="58" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B46" s="56">
         <v>7750</v>
@@ -11603,7 +11611,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="59" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B47" s="56">
         <v>121402</v>
@@ -11617,7 +11625,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="58" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B48" s="56">
         <v>93652</v>
@@ -11631,7 +11639,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="58" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B49" s="56">
         <v>27750</v>
@@ -11645,7 +11653,7 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="59" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B50" s="56">
         <v>60236</v>
@@ -11659,7 +11667,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="58" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B51" s="56">
         <v>54986</v>
@@ -11673,7 +11681,7 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="58" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B52" s="56">
         <v>5250</v>
@@ -11687,7 +11695,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="59" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B53" s="56">
         <v>28611</v>
@@ -11701,7 +11709,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="58" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B54" s="56">
         <v>27111</v>
@@ -11715,7 +11723,7 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="58" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B55" s="56">
         <v>1500</v>
@@ -11729,7 +11737,7 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="59" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B56" s="56">
         <v>65624</v>
@@ -11743,7 +11751,7 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="58" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B57" s="56">
         <v>41174</v>
@@ -11757,7 +11765,7 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="58" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B58" s="56">
         <v>24450</v>
@@ -11771,7 +11779,7 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="59" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B59" s="56">
         <v>80698</v>
@@ -11785,7 +11793,7 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="58" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B60" s="56">
         <v>75448</v>
@@ -11799,7 +11807,7 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="58" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B61" s="56">
         <v>5250</v>
@@ -11813,7 +11821,7 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="59" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B62" s="56">
         <v>63148</v>
@@ -11827,7 +11835,7 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="58" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B63" s="56">
         <v>60398</v>
@@ -11841,7 +11849,7 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="58" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B64" s="56">
         <v>2750</v>
@@ -11855,7 +11863,7 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="59" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B65" s="56">
         <v>140865</v>
@@ -11869,7 +11877,7 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="58" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B66" s="56">
         <v>77436</v>
@@ -11883,7 +11891,7 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="58" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B67" s="56">
         <v>63429</v>
@@ -11897,7 +11905,7 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="59" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B68" s="56">
         <v>3144</v>
@@ -11911,7 +11919,7 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="58" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B69" s="56">
         <v>1554</v>
@@ -11925,7 +11933,7 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="58" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B70" s="56">
         <v>1590</v>
@@ -11939,7 +11947,7 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="59" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B71" s="56">
         <v>1303</v>
@@ -11953,7 +11961,7 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="58" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B72" s="56">
         <v>1303</v>
@@ -11967,7 +11975,7 @@
     </row>
     <row r="73" spans="1:4" ht="16" thickBot="1">
       <c r="A73" s="61" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B73" s="62"/>
       <c r="C73" s="62"/>
@@ -12068,14 +12076,14 @@
       <c r="A2" s="138"/>
       <c r="B2" s="140"/>
       <c r="C2" s="140" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" s="139"/>
       <c r="E2" s="139"/>
       <c r="F2" s="139"/>
       <c r="G2" s="138"/>
       <c r="J2" s="70" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -12090,14 +12098,14 @@
     <row r="4" spans="1:13">
       <c r="A4" s="138"/>
       <c r="B4" s="182" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C4" s="182"/>
       <c r="D4" s="139" t="s">
+        <v>166</v>
+      </c>
+      <c r="E4" s="183" t="s">
         <v>167</v>
-      </c>
-      <c r="E4" s="183" t="s">
-        <v>168</v>
       </c>
       <c r="F4" s="183"/>
       <c r="G4" s="138"/>
@@ -12105,10 +12113,10 @@
     <row r="5" spans="1:13">
       <c r="A5" s="138"/>
       <c r="B5" s="140" t="s">
+        <v>169</v>
+      </c>
+      <c r="C5" s="140" t="s">
         <v>170</v>
-      </c>
-      <c r="C5" s="140" t="s">
-        <v>171</v>
       </c>
       <c r="D5" s="139">
         <v>2011</v>
@@ -12133,10 +12141,10 @@
     <row r="7" spans="1:13" ht="31" thickBot="1">
       <c r="A7" s="138"/>
       <c r="B7" s="143" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C7" s="144" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D7" s="145">
         <v>253569</v>
@@ -12149,24 +12157,24 @@
       </c>
       <c r="G7" s="138"/>
       <c r="I7" s="92" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J7" s="93"/>
       <c r="K7" s="94" t="s">
+        <v>166</v>
+      </c>
+      <c r="L7" s="184" t="s">
         <v>167</v>
-      </c>
-      <c r="L7" s="184" t="s">
-        <v>168</v>
       </c>
       <c r="M7" s="185"/>
     </row>
     <row r="8" spans="1:13" ht="21" thickBot="1">
       <c r="A8" s="138"/>
       <c r="B8" s="147" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C8" s="148" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D8" s="149">
         <v>3423.1</v>
@@ -12179,10 +12187,10 @@
       </c>
       <c r="G8" s="138"/>
       <c r="I8" s="95" t="s">
+        <v>169</v>
+      </c>
+      <c r="J8" s="88" t="s">
         <v>170</v>
-      </c>
-      <c r="J8" s="88" t="s">
-        <v>171</v>
       </c>
       <c r="K8" s="78">
         <v>2011</v>
@@ -12197,10 +12205,10 @@
     <row r="9" spans="1:13" ht="44">
       <c r="A9" s="138"/>
       <c r="B9" s="147" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C9" s="148" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D9" s="151">
         <v>784.7</v>
@@ -12213,10 +12221,10 @@
       </c>
       <c r="G9" s="138"/>
       <c r="I9" s="97" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J9" s="75" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K9" s="89">
         <v>30110.5</v>
@@ -12231,10 +12239,10 @@
     <row r="10" spans="1:13" ht="22">
       <c r="A10" s="138"/>
       <c r="B10" s="147" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C10" s="148" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D10" s="149">
         <v>1993.6</v>
@@ -12247,10 +12255,10 @@
       </c>
       <c r="G10" s="138"/>
       <c r="I10" s="97" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J10" s="75" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K10" s="89">
         <v>7329.6</v>
@@ -12265,10 +12273,10 @@
     <row r="11" spans="1:13" ht="33">
       <c r="A11" s="138"/>
       <c r="B11" s="147" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C11" s="148" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D11" s="149">
         <v>1033.0999999999999</v>
@@ -12281,10 +12289,10 @@
       </c>
       <c r="G11" s="138"/>
       <c r="I11" s="97" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J11" s="75" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K11" s="89">
         <v>13489.9</v>
@@ -12297,10 +12305,10 @@
     <row r="12" spans="1:13" ht="33">
       <c r="A12" s="138"/>
       <c r="B12" s="147" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C12" s="148" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D12" s="149">
         <v>25527.3</v>
@@ -12313,10 +12321,10 @@
       </c>
       <c r="G12" s="138"/>
       <c r="I12" s="97" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J12" s="75" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K12" s="90"/>
       <c r="L12" s="90"/>
@@ -12327,10 +12335,10 @@
     <row r="13" spans="1:13" ht="44">
       <c r="A13" s="138"/>
       <c r="B13" s="147" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C13" s="148" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D13" s="152">
         <v>159912.70000000001</v>
@@ -12343,10 +12351,10 @@
       </c>
       <c r="G13" s="138"/>
       <c r="I13" s="97" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J13" s="75" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K13" s="89">
         <v>4182.6000000000004</v>
@@ -12359,10 +12367,10 @@
     <row r="14" spans="1:13" ht="40">
       <c r="A14" s="138"/>
       <c r="B14" s="147" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C14" s="148" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D14" s="149">
         <v>33364.400000000001</v>
@@ -12375,10 +12383,10 @@
       </c>
       <c r="G14" s="138"/>
       <c r="I14" s="97" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J14" s="75" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K14" s="90"/>
       <c r="L14" s="89">
@@ -12391,10 +12399,10 @@
     <row r="15" spans="1:13" ht="33">
       <c r="A15" s="138"/>
       <c r="B15" s="147" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C15" s="148" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D15" s="149">
         <v>23911.9</v>
@@ -12407,10 +12415,10 @@
       </c>
       <c r="G15" s="138"/>
       <c r="I15" s="97" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J15" s="75" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K15" s="90"/>
       <c r="L15" s="89">
@@ -12423,10 +12431,10 @@
     <row r="16" spans="1:13" ht="33">
       <c r="A16" s="138"/>
       <c r="B16" s="147" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C16" s="148" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D16" s="149">
         <v>3618.2</v>
@@ -12439,10 +12447,10 @@
       </c>
       <c r="G16" s="138"/>
       <c r="I16" s="97" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J16" s="75" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K16" s="91">
         <v>665</v>
@@ -12460,10 +12468,10 @@
       <c r="C17" s="138"/>
       <c r="G17" s="138"/>
       <c r="I17" s="97" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J17" s="75" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K17" s="89">
         <v>4443.3999999999996</v>
@@ -12484,10 +12492,10 @@
       <c r="F18" s="138"/>
       <c r="G18" s="138"/>
       <c r="I18" s="100" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J18" s="101" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K18" s="102"/>
       <c r="L18" s="102"/>
@@ -12568,27 +12576,27 @@
   <sheetData>
     <row r="5" spans="7:20" ht="16" thickBot="1">
       <c r="H5" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q5" s="70" t="s">
         <v>22</v>
-      </c>
-      <c r="Q5" s="70" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="6" spans="7:20" ht="16" thickBot="1">
       <c r="G6" s="186" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H6" s="187"/>
       <c r="I6" s="118" t="s">
+        <v>166</v>
+      </c>
+      <c r="J6" s="188" t="s">
         <v>167</v>
-      </c>
-      <c r="J6" s="188" t="s">
-        <v>168</v>
       </c>
       <c r="K6" s="189"/>
       <c r="P6" s="127"/>
       <c r="Q6" s="128" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="R6" s="128"/>
       <c r="S6" s="128"/>
@@ -12596,10 +12604,10 @@
     </row>
     <row r="7" spans="7:20" ht="23" thickBot="1">
       <c r="G7" s="119" t="s">
+        <v>169</v>
+      </c>
+      <c r="H7" s="71" t="s">
         <v>170</v>
-      </c>
-      <c r="H7" s="71" t="s">
-        <v>171</v>
       </c>
       <c r="I7" s="72">
         <v>2011</v>
@@ -12611,23 +12619,23 @@
         <v>2013</v>
       </c>
       <c r="P7" s="136" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Q7" s="104"/>
       <c r="R7" s="74" t="s">
+        <v>166</v>
+      </c>
+      <c r="S7" s="105" t="s">
         <v>167</v>
-      </c>
-      <c r="S7" s="105" t="s">
-        <v>168</v>
       </c>
       <c r="T7" s="137"/>
     </row>
     <row r="8" spans="7:20" ht="54" customHeight="1">
       <c r="G8" s="121" t="s">
+        <v>173</v>
+      </c>
+      <c r="H8" s="73" t="s">
         <v>174</v>
-      </c>
-      <c r="H8" s="73" t="s">
-        <v>175</v>
       </c>
       <c r="I8" s="77">
         <v>463.8</v>
@@ -12639,10 +12647,10 @@
         <v>629</v>
       </c>
       <c r="P8" s="97" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q8" s="75" t="s">
         <v>170</v>
-      </c>
-      <c r="Q8" s="75" t="s">
-        <v>171</v>
       </c>
       <c r="R8" s="76">
         <v>2011</v>
@@ -12656,10 +12664,10 @@
     </row>
     <row r="9" spans="7:20" ht="22">
       <c r="G9" s="121" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H9" s="73" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I9" s="83">
         <v>29316.3</v>
@@ -12671,10 +12679,10 @@
         <v>33248.199999999997</v>
       </c>
       <c r="P9" s="97" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Q9" s="75" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="R9" s="80"/>
       <c r="S9" s="79">
@@ -12686,10 +12694,10 @@
     </row>
     <row r="10" spans="7:20" ht="55">
       <c r="G10" s="121" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H10" s="73" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I10" s="83">
         <v>53461.8</v>
@@ -12701,10 +12709,10 @@
         <v>50615.4</v>
       </c>
       <c r="P10" s="97" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Q10" s="75" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="R10" s="81">
         <v>9371.4</v>
@@ -12718,10 +12726,10 @@
     </row>
     <row r="11" spans="7:20" ht="33">
       <c r="G11" s="121" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H11" s="73" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I11" s="83">
         <v>36968.9</v>
@@ -12733,10 +12741,10 @@
         <v>43332</v>
       </c>
       <c r="P11" s="97" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Q11" s="75" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="R11" s="80"/>
       <c r="S11" s="79">
@@ -12748,10 +12756,10 @@
     </row>
     <row r="12" spans="7:20" ht="40">
       <c r="G12" s="121" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H12" s="73" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I12" s="82">
         <v>192313.3</v>
@@ -12763,10 +12771,10 @@
         <v>669805.9</v>
       </c>
       <c r="P12" s="97" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Q12" s="75" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="R12" s="80"/>
       <c r="S12" s="81">
@@ -12776,10 +12784,10 @@
     </row>
     <row r="13" spans="7:20" ht="55">
       <c r="G13" s="121" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H13" s="73" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I13" s="83">
         <v>3528.7</v>
@@ -12791,10 +12799,10 @@
         <v>4575.3</v>
       </c>
       <c r="P13" s="97" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Q13" s="75" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R13" s="81">
         <v>5396.1</v>
@@ -12808,10 +12816,10 @@
     </row>
     <row r="14" spans="7:20" ht="30">
       <c r="G14" s="121" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H14" s="73" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I14" s="83">
         <v>1804.3</v>
@@ -12823,10 +12831,10 @@
         <v>1671.5</v>
       </c>
       <c r="P14" s="97" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Q14" s="75" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="R14" s="80"/>
       <c r="S14" s="79">
@@ -12838,10 +12846,10 @@
     </row>
     <row r="15" spans="7:20" ht="22">
       <c r="G15" s="121" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H15" s="73" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I15" s="83">
         <v>19675.400000000001</v>
@@ -12853,10 +12861,10 @@
         <v>31229</v>
       </c>
       <c r="P15" s="97" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Q15" s="75" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="R15" s="80"/>
       <c r="S15" s="81">
@@ -12868,10 +12876,10 @@
     </row>
     <row r="16" spans="7:20" ht="22">
       <c r="G16" s="121" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H16" s="73" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I16" s="83">
         <v>15707.2</v>
@@ -12883,10 +12891,10 @@
         <v>19844.900000000001</v>
       </c>
       <c r="P16" s="97" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Q16" s="75" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="R16" s="87">
         <v>651.70000000000005</v>
@@ -12900,10 +12908,10 @@
     </row>
     <row r="17" spans="7:20" ht="45" thickBot="1">
       <c r="G17" s="123" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H17" s="124" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I17" s="125">
         <v>2535.5</v>
@@ -12915,10 +12923,10 @@
         <v>2978.6</v>
       </c>
       <c r="P17" s="100" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Q17" s="101" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="R17" s="134"/>
       <c r="S17" s="134"/>
